--- a/data/BaselineNationalForecasts.xlsx
+++ b/data/BaselineNationalForecasts.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23906"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmhcschl-my.sharepoint.com/personal/gozdemir_cmhc-schl_gc_ca/Documents/HMO/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmak\Documents\GitHub\housing_stats\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_C251A64C5DC752354359A08A88CDBFB3B0A188E0" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2929E14-DD46-4078-927B-FE0FA74970A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quarterly" sheetId="1" r:id="rId1"/>
+    <sheet name="Energy" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="Data">[1]sheet0!$C$2</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="305">
   <si>
     <t>Location</t>
   </si>
@@ -925,6 +926,33 @@
   </si>
   <si>
     <t>WPO_WCS</t>
+  </si>
+  <si>
+    <t>2031 Q1</t>
+  </si>
+  <si>
+    <t>2031 Q2</t>
+  </si>
+  <si>
+    <t>2031 Q3</t>
+  </si>
+  <si>
+    <t>2031 Q4</t>
+  </si>
+  <si>
+    <t>WTI_Base</t>
+  </si>
+  <si>
+    <t>WTI_Supply_Chain_Disruption</t>
+  </si>
+  <si>
+    <t>WTI_Long_Covid</t>
+  </si>
+  <si>
+    <t>WTI_Consumer_Boom</t>
+  </si>
+  <si>
+    <t>WTI_Return_Of_Inflation</t>
   </si>
 </sst>
 </file>
@@ -934,7 +962,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -952,6 +980,23 @@
       <color rgb="FFBE1E23"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFBE1E23"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -972,7 +1017,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -995,11 +1040,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1010,9 +1065,17 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{F1FD2775-F593-4838-BE96-36F2439888AE}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1361,13 +1424,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M220"/>
+  <dimension ref="A1:M224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D161" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K183" sqref="K183"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="25"/>
     <col min="4" max="4" width="50"/>
@@ -1381,7 +1444,7 @@
     <col min="220" max="221" width="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1422,7 +1485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1463,7 +1526,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -1504,7 +1567,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
@@ -1545,7 +1608,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
@@ -1586,7 +1649,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
@@ -1627,7 +1690,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>31</v>
       </c>
@@ -1668,7 +1731,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
@@ -1709,7 +1772,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
@@ -1750,7 +1813,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>34</v>
       </c>
@@ -1791,7 +1854,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>35</v>
       </c>
@@ -1832,7 +1895,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>36</v>
       </c>
@@ -1873,7 +1936,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1914,7 +1977,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>38</v>
       </c>
@@ -1955,7 +2018,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>39</v>
       </c>
@@ -1996,7 +2059,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>40</v>
       </c>
@@ -2037,7 +2100,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
         <v>41</v>
       </c>
@@ -2078,7 +2141,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
         <v>42</v>
       </c>
@@ -2119,7 +2182,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>43</v>
       </c>
@@ -2160,7 +2223,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>44</v>
       </c>
@@ -2201,7 +2264,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
         <v>45</v>
       </c>
@@ -2242,7 +2305,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
         <v>46</v>
       </c>
@@ -2283,7 +2346,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
         <v>47</v>
       </c>
@@ -2324,7 +2387,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>48</v>
       </c>
@@ -2365,7 +2428,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" s="3" t="s">
         <v>49</v>
       </c>
@@ -2406,7 +2469,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
         <v>50</v>
       </c>
@@ -2447,7 +2510,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
         <v>51</v>
       </c>
@@ -2488,7 +2551,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
         <v>52</v>
       </c>
@@ -2529,7 +2592,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A29" s="3" t="s">
         <v>53</v>
       </c>
@@ -2570,7 +2633,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
         <v>54</v>
       </c>
@@ -2611,7 +2674,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
         <v>55</v>
       </c>
@@ -2652,7 +2715,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
         <v>56</v>
       </c>
@@ -2693,7 +2756,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
         <v>57</v>
       </c>
@@ -2734,7 +2797,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
         <v>58</v>
       </c>
@@ -2775,7 +2838,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A35" s="3" t="s">
         <v>59</v>
       </c>
@@ -2816,7 +2879,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
         <v>60</v>
       </c>
@@ -2857,7 +2920,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A37" s="3" t="s">
         <v>61</v>
       </c>
@@ -2898,7 +2961,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
         <v>62</v>
       </c>
@@ -2939,7 +3002,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A39" s="3" t="s">
         <v>63</v>
       </c>
@@ -2980,7 +3043,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
         <v>64</v>
       </c>
@@ -3021,7 +3084,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A41" s="3" t="s">
         <v>65</v>
       </c>
@@ -3062,7 +3125,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
         <v>66</v>
       </c>
@@ -3103,7 +3166,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A43" s="3" t="s">
         <v>67</v>
       </c>
@@ -3144,7 +3207,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
         <v>68</v>
       </c>
@@ -3185,7 +3248,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A45" s="3" t="s">
         <v>69</v>
       </c>
@@ -3226,7 +3289,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
         <v>70</v>
       </c>
@@ -3267,7 +3330,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A47" s="3" t="s">
         <v>71</v>
       </c>
@@ -3308,7 +3371,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
         <v>72</v>
       </c>
@@ -3349,7 +3412,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A49" s="3" t="s">
         <v>73</v>
       </c>
@@ -3390,7 +3453,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
         <v>74</v>
       </c>
@@ -3431,7 +3494,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A51" s="3" t="s">
         <v>75</v>
       </c>
@@ -3472,7 +3535,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
         <v>76</v>
       </c>
@@ -3513,7 +3576,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A53" s="3" t="s">
         <v>77</v>
       </c>
@@ -3554,7 +3617,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
         <v>78</v>
       </c>
@@ -3595,7 +3658,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A55" s="3" t="s">
         <v>79</v>
       </c>
@@ -3636,7 +3699,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
         <v>80</v>
       </c>
@@ -3677,7 +3740,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A57" s="3" t="s">
         <v>81</v>
       </c>
@@ -3718,7 +3781,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
         <v>82</v>
       </c>
@@ -3759,7 +3822,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A59" s="3" t="s">
         <v>83</v>
       </c>
@@ -3800,7 +3863,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
         <v>84</v>
       </c>
@@ -3841,7 +3904,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A61" s="3" t="s">
         <v>85</v>
       </c>
@@ -3882,7 +3945,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
         <v>86</v>
       </c>
@@ -3923,7 +3986,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A63" s="3" t="s">
         <v>87</v>
       </c>
@@ -3964,7 +4027,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="s">
         <v>88</v>
       </c>
@@ -4005,7 +4068,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A65" s="3" t="s">
         <v>89</v>
       </c>
@@ -4046,7 +4109,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A66" s="3" t="s">
         <v>90</v>
       </c>
@@ -4087,7 +4150,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A67" s="3" t="s">
         <v>91</v>
       </c>
@@ -4128,7 +4191,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
         <v>92</v>
       </c>
@@ -4169,7 +4232,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A69" s="3" t="s">
         <v>93</v>
       </c>
@@ -4210,7 +4273,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
         <v>94</v>
       </c>
@@ -4251,7 +4314,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A71" s="3" t="s">
         <v>95</v>
       </c>
@@ -4292,7 +4355,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A72" s="3" t="s">
         <v>96</v>
       </c>
@@ -4333,7 +4396,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A73" s="3" t="s">
         <v>97</v>
       </c>
@@ -4374,7 +4437,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A74" s="3" t="s">
         <v>98</v>
       </c>
@@ -4415,7 +4478,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A75" s="3" t="s">
         <v>99</v>
       </c>
@@ -4456,7 +4519,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A76" s="3" t="s">
         <v>100</v>
       </c>
@@ -4497,7 +4560,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A77" s="3" t="s">
         <v>101</v>
       </c>
@@ -4538,7 +4601,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A78" s="3" t="s">
         <v>102</v>
       </c>
@@ -4579,7 +4642,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A79" s="3" t="s">
         <v>103</v>
       </c>
@@ -4620,7 +4683,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A80" s="3" t="s">
         <v>104</v>
       </c>
@@ -4661,7 +4724,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A81" s="3" t="s">
         <v>105</v>
       </c>
@@ -4702,7 +4765,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A82" s="3" t="s">
         <v>106</v>
       </c>
@@ -4743,7 +4806,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A83" s="3" t="s">
         <v>107</v>
       </c>
@@ -4784,7 +4847,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A84" s="3" t="s">
         <v>108</v>
       </c>
@@ -4825,7 +4888,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A85" s="3" t="s">
         <v>109</v>
       </c>
@@ -4866,7 +4929,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A86" s="3" t="s">
         <v>110</v>
       </c>
@@ -4907,7 +4970,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A87" s="3" t="s">
         <v>111</v>
       </c>
@@ -4948,7 +5011,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A88" s="3" t="s">
         <v>112</v>
       </c>
@@ -4989,7 +5052,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A89" s="3" t="s">
         <v>113</v>
       </c>
@@ -5030,7 +5093,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A90" s="3" t="s">
         <v>114</v>
       </c>
@@ -5071,7 +5134,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A91" s="3" t="s">
         <v>115</v>
       </c>
@@ -5112,7 +5175,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A92" s="3" t="s">
         <v>116</v>
       </c>
@@ -5153,7 +5216,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A93" s="3" t="s">
         <v>117</v>
       </c>
@@ -5194,7 +5257,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A94" s="3" t="s">
         <v>118</v>
       </c>
@@ -5235,7 +5298,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A95" s="3" t="s">
         <v>119</v>
       </c>
@@ -5276,7 +5339,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A96" s="3" t="s">
         <v>120</v>
       </c>
@@ -5317,7 +5380,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A97" s="3" t="s">
         <v>121</v>
       </c>
@@ -5358,7 +5421,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A98" s="3" t="s">
         <v>122</v>
       </c>
@@ -5399,7 +5462,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A99" s="3" t="s">
         <v>123</v>
       </c>
@@ -5440,7 +5503,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A100" s="3" t="s">
         <v>124</v>
       </c>
@@ -5481,7 +5544,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A101" s="3" t="s">
         <v>125</v>
       </c>
@@ -5522,7 +5585,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A102" s="3" t="s">
         <v>126</v>
       </c>
@@ -5563,7 +5626,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A103" s="3" t="s">
         <v>127</v>
       </c>
@@ -5604,7 +5667,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A104" s="3" t="s">
         <v>128</v>
       </c>
@@ -5645,7 +5708,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A105" s="3" t="s">
         <v>129</v>
       </c>
@@ -5686,7 +5749,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A106" s="3" t="s">
         <v>130</v>
       </c>
@@ -5727,7 +5790,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A107" s="3" t="s">
         <v>131</v>
       </c>
@@ -5768,7 +5831,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A108" s="3" t="s">
         <v>132</v>
       </c>
@@ -5809,7 +5872,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A109" s="3" t="s">
         <v>133</v>
       </c>
@@ -5850,7 +5913,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A110" s="3" t="s">
         <v>134</v>
       </c>
@@ -5891,7 +5954,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A111" s="3" t="s">
         <v>135</v>
       </c>
@@ -5932,7 +5995,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A112" s="3" t="s">
         <v>136</v>
       </c>
@@ -5973,7 +6036,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A113" s="3" t="s">
         <v>137</v>
       </c>
@@ -6014,7 +6077,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A114" s="3" t="s">
         <v>138</v>
       </c>
@@ -6055,7 +6118,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A115" s="3" t="s">
         <v>139</v>
       </c>
@@ -6096,7 +6159,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A116" s="3" t="s">
         <v>140</v>
       </c>
@@ -6137,7 +6200,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A117" s="3" t="s">
         <v>141</v>
       </c>
@@ -6178,7 +6241,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A118" s="3" t="s">
         <v>142</v>
       </c>
@@ -6219,7 +6282,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A119" s="3" t="s">
         <v>143</v>
       </c>
@@ -6260,7 +6323,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A120" s="3" t="s">
         <v>144</v>
       </c>
@@ -6301,7 +6364,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A121" s="3" t="s">
         <v>145</v>
       </c>
@@ -6342,7 +6405,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A122" s="3" t="s">
         <v>146</v>
       </c>
@@ -6383,7 +6446,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A123" s="3" t="s">
         <v>147</v>
       </c>
@@ -6424,7 +6487,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:13">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A124" s="3" t="s">
         <v>148</v>
       </c>
@@ -6465,7 +6528,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A125" s="3" t="s">
         <v>149</v>
       </c>
@@ -6506,7 +6569,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="126" spans="1:13">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A126" s="3" t="s">
         <v>150</v>
       </c>
@@ -6525,7 +6588,7 @@
       <c r="F126" s="4">
         <v>246588.2</v>
       </c>
-      <c r="G126" s="4">
+      <c r="G126" s="6">
         <v>0.25</v>
       </c>
       <c r="H126" s="4">
@@ -6547,7 +6610,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="127" spans="1:13">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A127" s="3" t="s">
         <v>151</v>
       </c>
@@ -6566,7 +6629,7 @@
       <c r="F127" s="4">
         <v>243829.3</v>
       </c>
-      <c r="G127" s="4">
+      <c r="G127" s="6">
         <v>0.33461540000000001</v>
       </c>
       <c r="H127" s="4">
@@ -6588,7 +6651,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="128" spans="1:13">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A128" s="3" t="s">
         <v>152</v>
       </c>
@@ -6607,7 +6670,7 @@
       <c r="F128" s="4">
         <v>246630.7</v>
       </c>
-      <c r="G128" s="4">
+      <c r="G128" s="6">
         <v>0.76515149999999998</v>
       </c>
       <c r="H128" s="4">
@@ -6629,7 +6692,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="129" spans="1:13">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A129" s="3" t="s">
         <v>153</v>
       </c>
@@ -6648,7 +6711,7 @@
       <c r="F129" s="4">
         <v>249581.4</v>
       </c>
-      <c r="G129" s="4">
+      <c r="G129" s="6">
         <v>1</v>
       </c>
       <c r="H129" s="4">
@@ -6670,7 +6733,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:13">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A130" s="3" t="s">
         <v>154</v>
       </c>
@@ -6689,7 +6752,7 @@
       <c r="F130" s="4">
         <v>249444.4</v>
       </c>
-      <c r="G130" s="4">
+      <c r="G130" s="6">
         <v>1</v>
       </c>
       <c r="H130" s="4">
@@ -6711,7 +6774,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:13">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A131" s="3" t="s">
         <v>155</v>
       </c>
@@ -6730,7 +6793,7 @@
       <c r="F131" s="4">
         <v>248443.7</v>
       </c>
-      <c r="G131" s="4">
+      <c r="G131" s="6">
         <v>1</v>
       </c>
       <c r="H131" s="4">
@@ -6752,7 +6815,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="132" spans="1:13">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A132" s="3" t="s">
         <v>156</v>
       </c>
@@ -6771,7 +6834,7 @@
       <c r="F132" s="4">
         <v>249729.8</v>
       </c>
-      <c r="G132" s="4">
+      <c r="G132" s="6">
         <v>1</v>
       </c>
       <c r="H132" s="4">
@@ -6793,7 +6856,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:13">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A133" s="3" t="s">
         <v>157</v>
       </c>
@@ -6812,7 +6875,7 @@
       <c r="F133" s="4">
         <v>252971.9</v>
       </c>
-      <c r="G133" s="4">
+      <c r="G133" s="6">
         <v>1</v>
       </c>
       <c r="H133" s="4">
@@ -6834,7 +6897,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="134" spans="1:13">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A134" s="3" t="s">
         <v>158</v>
       </c>
@@ -6853,7 +6916,7 @@
       <c r="F134" s="4">
         <v>254362.3</v>
       </c>
-      <c r="G134" s="4">
+      <c r="G134" s="6">
         <v>1</v>
       </c>
       <c r="H134" s="4">
@@ -6875,7 +6938,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="135" spans="1:13">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A135" s="3" t="s">
         <v>159</v>
       </c>
@@ -6894,7 +6957,7 @@
       <c r="F135" s="4">
         <v>255116.2</v>
       </c>
-      <c r="G135" s="4">
+      <c r="G135" s="6">
         <v>1</v>
       </c>
       <c r="H135" s="4">
@@ -6916,7 +6979,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="136" spans="1:13">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A136" s="3" t="s">
         <v>160</v>
       </c>
@@ -6935,7 +6998,7 @@
       <c r="F136" s="4">
         <v>258127.1</v>
       </c>
-      <c r="G136" s="4">
+      <c r="G136" s="6">
         <v>1</v>
       </c>
       <c r="H136" s="4">
@@ -6957,7 +7020,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="137" spans="1:13">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A137" s="3" t="s">
         <v>161</v>
       </c>
@@ -6976,7 +7039,7 @@
       <c r="F137" s="4">
         <v>259247.6</v>
       </c>
-      <c r="G137" s="4">
+      <c r="G137" s="6">
         <v>1</v>
       </c>
       <c r="H137" s="4">
@@ -6998,7 +7061,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="138" spans="1:13">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A138" s="3" t="s">
         <v>162</v>
       </c>
@@ -7017,7 +7080,7 @@
       <c r="F138" s="4">
         <v>262902.2</v>
       </c>
-      <c r="G138" s="4">
+      <c r="G138" s="6">
         <v>1</v>
       </c>
       <c r="H138" s="4">
@@ -7039,7 +7102,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="139" spans="1:13">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A139" s="3" t="s">
         <v>163</v>
       </c>
@@ -7058,7 +7121,7 @@
       <c r="F139" s="4">
         <v>264210.5</v>
       </c>
-      <c r="G139" s="4">
+      <c r="G139" s="6">
         <v>1</v>
       </c>
       <c r="H139" s="4">
@@ -7080,7 +7143,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="140" spans="1:13">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A140" s="3" t="s">
         <v>164</v>
       </c>
@@ -7099,7 +7162,7 @@
       <c r="F140" s="4">
         <v>264502.3</v>
       </c>
-      <c r="G140" s="4">
+      <c r="G140" s="6">
         <v>1</v>
       </c>
       <c r="H140" s="4">
@@ -7121,7 +7184,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="141" spans="1:13">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A141" s="3" t="s">
         <v>165</v>
       </c>
@@ -7140,7 +7203,7 @@
       <c r="F141" s="4">
         <v>266986.09999999998</v>
       </c>
-      <c r="G141" s="4">
+      <c r="G141" s="6">
         <v>1</v>
       </c>
       <c r="H141" s="4">
@@ -7162,7 +7225,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="142" spans="1:13">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A142" s="3" t="s">
         <v>166</v>
       </c>
@@ -7181,7 +7244,7 @@
       <c r="F142" s="4">
         <v>266188.59999999998</v>
       </c>
-      <c r="G142" s="4">
+      <c r="G142" s="6">
         <v>1</v>
       </c>
       <c r="H142" s="4">
@@ -7203,7 +7266,7 @@
         <v>76.262969999999996</v>
       </c>
     </row>
-    <row r="143" spans="1:13">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A143" s="3" t="s">
         <v>167</v>
       </c>
@@ -7222,7 +7285,7 @@
       <c r="F143" s="4">
         <v>266297.2</v>
       </c>
-      <c r="G143" s="4">
+      <c r="G143" s="6">
         <v>1</v>
       </c>
       <c r="H143" s="4">
@@ -7244,7 +7307,7 @@
         <v>83.358310000000003</v>
       </c>
     </row>
-    <row r="144" spans="1:13">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A144" s="3" t="s">
         <v>168</v>
       </c>
@@ -7263,7 +7326,7 @@
       <c r="F144" s="4">
         <v>269801.2</v>
       </c>
-      <c r="G144" s="4">
+      <c r="G144" s="6">
         <v>1</v>
       </c>
       <c r="H144" s="4">
@@ -7285,7 +7348,7 @@
         <v>77.933639999999997</v>
       </c>
     </row>
-    <row r="145" spans="1:13">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A145" s="3" t="s">
         <v>169</v>
       </c>
@@ -7304,7 +7367,7 @@
       <c r="F145" s="4">
         <v>269920.8</v>
       </c>
-      <c r="G145" s="4">
+      <c r="G145" s="6">
         <v>1</v>
       </c>
       <c r="H145" s="4">
@@ -7326,7 +7389,7 @@
         <v>58.268940000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:13">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A146" s="3" t="s">
         <v>170</v>
       </c>
@@ -7345,7 +7408,7 @@
       <c r="F146" s="4">
         <v>275840.90000000002</v>
       </c>
-      <c r="G146" s="4">
+      <c r="G146" s="6">
         <v>0.8046875</v>
       </c>
       <c r="H146" s="4">
@@ -7367,7 +7430,7 @@
         <v>34.737029999999997</v>
       </c>
     </row>
-    <row r="147" spans="1:13">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A147" s="3" t="s">
         <v>171</v>
       </c>
@@ -7386,7 +7449,7 @@
       <c r="F147" s="4">
         <v>277069.59999999998</v>
       </c>
-      <c r="G147" s="4">
+      <c r="G147" s="6">
         <v>0.75</v>
       </c>
       <c r="H147" s="4">
@@ -7408,7 +7471,7 @@
         <v>47.319389999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:13">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A148" s="3" t="s">
         <v>172</v>
       </c>
@@ -7427,7 +7490,7 @@
       <c r="F148" s="4">
         <v>277645.2</v>
       </c>
-      <c r="G148" s="4">
+      <c r="G148" s="6">
         <v>0.53787879999999999</v>
       </c>
       <c r="H148" s="4">
@@ -7449,7 +7512,7 @@
         <v>32.955150000000003</v>
       </c>
     </row>
-    <row r="149" spans="1:13">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A149" s="3" t="s">
         <v>173</v>
       </c>
@@ -7468,7 +7531,7 @@
       <c r="F149" s="4">
         <v>277432.2</v>
       </c>
-      <c r="G149" s="4">
+      <c r="G149" s="6">
         <v>0.5</v>
       </c>
       <c r="H149" s="4">
@@ -7490,7 +7553,7 @@
         <v>27.764089999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:13">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A150" s="3" t="s">
         <v>174</v>
       </c>
@@ -7509,7 +7572,7 @@
       <c r="F150" s="4">
         <v>270230.59999999998</v>
       </c>
-      <c r="G150" s="4">
+      <c r="G150" s="6">
         <v>0.5</v>
       </c>
       <c r="H150" s="4">
@@ -7531,7 +7594,7 @@
         <v>20.28923</v>
       </c>
     </row>
-    <row r="151" spans="1:13">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A151" s="3" t="s">
         <v>175</v>
       </c>
@@ -7550,7 +7613,7 @@
       <c r="F151" s="4">
         <v>275147.09999999998</v>
       </c>
-      <c r="G151" s="4">
+      <c r="G151" s="6">
         <v>0.5</v>
       </c>
       <c r="H151" s="4">
@@ -7572,7 +7635,7 @@
         <v>32.923690000000001</v>
       </c>
     </row>
-    <row r="152" spans="1:13">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A152" s="3" t="s">
         <v>176</v>
       </c>
@@ -7591,7 +7654,7 @@
       <c r="F152" s="4">
         <v>277865.8</v>
       </c>
-      <c r="G152" s="4">
+      <c r="G152" s="6">
         <v>0.5</v>
       </c>
       <c r="H152" s="4">
@@ -7613,7 +7676,7 @@
         <v>30.706969999999998</v>
       </c>
     </row>
-    <row r="153" spans="1:13">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A153" s="3" t="s">
         <v>177</v>
       </c>
@@ -7632,7 +7695,7 @@
       <c r="F153" s="4">
         <v>280082.40000000002</v>
       </c>
-      <c r="G153" s="4">
+      <c r="G153" s="6">
         <v>0.5</v>
       </c>
       <c r="H153" s="4">
@@ -7654,7 +7717,7 @@
         <v>34.404919999999997</v>
       </c>
     </row>
-    <row r="154" spans="1:13">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A154" s="3" t="s">
         <v>178</v>
       </c>
@@ -7673,7 +7736,7 @@
       <c r="F154" s="4">
         <v>280125.7</v>
       </c>
-      <c r="G154" s="4">
+      <c r="G154" s="6">
         <v>0.5</v>
       </c>
       <c r="H154" s="4">
@@ -7695,7 +7758,7 @@
         <v>38.093539999999997</v>
       </c>
     </row>
-    <row r="155" spans="1:13">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A155" s="3" t="s">
         <v>179</v>
       </c>
@@ -7714,7 +7777,7 @@
       <c r="F155" s="4">
         <v>285034.40000000002</v>
       </c>
-      <c r="G155" s="4">
+      <c r="G155" s="6">
         <v>0.5</v>
       </c>
       <c r="H155" s="4">
@@ -7736,7 +7799,7 @@
         <v>38.306310000000003</v>
       </c>
     </row>
-    <row r="156" spans="1:13">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A156" s="3" t="s">
         <v>180</v>
       </c>
@@ -7755,7 +7818,7 @@
       <c r="F156" s="4">
         <v>290937.3</v>
       </c>
-      <c r="G156" s="4">
+      <c r="G156" s="6">
         <v>0.79230769999999995</v>
       </c>
       <c r="H156" s="4">
@@ -7777,7 +7840,7 @@
         <v>37.66816</v>
       </c>
     </row>
-    <row r="157" spans="1:13">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A157" s="3" t="s">
         <v>181</v>
       </c>
@@ -7796,7 +7859,7 @@
       <c r="F157" s="4">
         <v>291984.59999999998</v>
       </c>
-      <c r="G157" s="4">
+      <c r="G157" s="6">
         <v>1</v>
       </c>
       <c r="H157" s="4">
@@ -7818,7 +7881,7 @@
         <v>38.644309999999997</v>
       </c>
     </row>
-    <row r="158" spans="1:13">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A158" s="3" t="s">
         <v>182</v>
       </c>
@@ -7837,7 +7900,7 @@
       <c r="F158" s="4">
         <v>290788.09999999998</v>
       </c>
-      <c r="G158" s="4">
+      <c r="G158" s="6">
         <v>1.203846</v>
       </c>
       <c r="H158" s="4">
@@ -7859,7 +7922,7 @@
         <v>37.049999999999997</v>
       </c>
     </row>
-    <row r="159" spans="1:13">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A159" s="3" t="s">
         <v>183</v>
       </c>
@@ -7878,7 +7941,7 @@
       <c r="F159" s="4">
         <v>290312.09999999998</v>
       </c>
-      <c r="G159" s="4">
+      <c r="G159" s="6">
         <v>1.25</v>
       </c>
       <c r="H159" s="4">
@@ -7900,7 +7963,7 @@
         <v>49.77</v>
       </c>
     </row>
-    <row r="160" spans="1:13">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A160" s="3" t="s">
         <v>184</v>
       </c>
@@ -7919,14 +7982,14 @@
       <c r="F160" s="4">
         <v>290097</v>
       </c>
-      <c r="G160" s="4">
+      <c r="G160" s="6">
         <v>1.473077</v>
       </c>
       <c r="H160" s="4">
         <v>2.2766130000000002</v>
       </c>
       <c r="I160" s="4">
-        <v>4.4266670000000001</v>
+        <v>4.43</v>
       </c>
       <c r="J160" s="4">
         <v>3.5876920000000001</v>
@@ -7941,7 +8004,7 @@
         <v>41.9</v>
       </c>
     </row>
-    <row r="161" spans="1:13">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A161" s="3" t="s">
         <v>185</v>
       </c>
@@ -7960,14 +8023,14 @@
       <c r="F161" s="4">
         <v>294574.8</v>
       </c>
-      <c r="G161" s="4">
+      <c r="G161" s="6">
         <v>1.6856059999999999</v>
       </c>
       <c r="H161" s="4">
         <v>2.3291940000000002</v>
       </c>
       <c r="I161" s="4">
-        <v>4.483333</v>
+        <v>4.5366669999999996</v>
       </c>
       <c r="J161" s="4">
         <v>3.8184619999999998</v>
@@ -7982,7 +8045,7 @@
         <v>25.49</v>
       </c>
     </row>
-    <row r="162" spans="1:13">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A162" s="3" t="s">
         <v>186</v>
       </c>
@@ -8001,7 +8064,7 @@
       <c r="F162" s="4">
         <v>293684.8</v>
       </c>
-      <c r="G162" s="4">
+      <c r="G162" s="6">
         <v>1.75</v>
       </c>
       <c r="H162" s="4">
@@ -8023,7 +8086,7 @@
         <v>44.1</v>
       </c>
     </row>
-    <row r="163" spans="1:13">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A163" s="3" t="s">
         <v>187</v>
       </c>
@@ -8042,7 +8105,7 @@
       <c r="F163" s="4">
         <v>296698.90000000002</v>
       </c>
-      <c r="G163" s="4">
+      <c r="G163" s="6">
         <v>1.75</v>
       </c>
       <c r="H163" s="4">
@@ -8064,7 +8127,7 @@
         <v>47.44</v>
       </c>
     </row>
-    <row r="164" spans="1:13">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A164" s="3" t="s">
         <v>188</v>
       </c>
@@ -8083,14 +8146,14 @@
       <c r="F164" s="4">
         <v>299153.09999999998</v>
       </c>
-      <c r="G164" s="4">
+      <c r="G164" s="6">
         <v>1.75</v>
       </c>
       <c r="H164" s="4">
         <v>1.365238</v>
       </c>
       <c r="I164" s="4">
-        <v>4.0966670000000001</v>
+        <v>4.08</v>
       </c>
       <c r="J164" s="4">
         <v>3.473846</v>
@@ -8105,7 +8168,7 @@
         <v>43.81</v>
       </c>
     </row>
-    <row r="165" spans="1:13">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A165" s="3" t="s">
         <v>189</v>
       </c>
@@ -8124,7 +8187,7 @@
       <c r="F165" s="4">
         <v>301721.40000000002</v>
       </c>
-      <c r="G165" s="4">
+      <c r="G165" s="6">
         <v>1.75</v>
       </c>
       <c r="H165" s="4">
@@ -8146,7 +8209,7 @@
         <v>37.86</v>
       </c>
     </row>
-    <row r="166" spans="1:13">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A166" s="3" t="s">
         <v>190</v>
       </c>
@@ -8165,14 +8228,14 @@
       <c r="F166" s="4">
         <v>304934.09999999998</v>
       </c>
-      <c r="G166" s="4">
+      <c r="G166" s="6">
         <v>1.480769</v>
       </c>
       <c r="H166" s="4">
         <v>1.197619</v>
       </c>
       <c r="I166" s="4">
-        <v>4.0199999999999996</v>
+        <v>4.0266669999999998</v>
       </c>
       <c r="J166" s="4">
         <v>3.3815379999999999</v>
@@ -8187,7 +8250,7 @@
         <v>29.08</v>
       </c>
     </row>
-    <row r="167" spans="1:13">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A167" s="3" t="s">
         <v>191</v>
       </c>
@@ -8206,14 +8269,14 @@
       <c r="F167" s="4">
         <v>341020.3</v>
       </c>
-      <c r="G167" s="4">
+      <c r="G167" s="6">
         <v>0.25</v>
       </c>
       <c r="H167" s="4">
         <v>0.59</v>
       </c>
       <c r="I167" s="4">
-        <v>3.86</v>
+        <v>3.8633329999999999</v>
       </c>
       <c r="J167" s="4">
         <v>2.723077</v>
@@ -8228,7 +8291,7 @@
         <v>19.739999999999998</v>
       </c>
     </row>
-    <row r="168" spans="1:13">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A168" s="3" t="s">
         <v>192</v>
       </c>
@@ -8247,7 +8310,7 @@
       <c r="F168" s="4">
         <v>328187</v>
       </c>
-      <c r="G168" s="4">
+      <c r="G168" s="6">
         <v>0.25</v>
       </c>
       <c r="H168" s="4">
@@ -8269,7 +8332,7 @@
         <v>31.212</v>
       </c>
     </row>
-    <row r="169" spans="1:13">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A169" s="3" t="s">
         <v>193</v>
       </c>
@@ -8288,14 +8351,14 @@
       <c r="F169" s="5">
         <v>321462.40000000002</v>
       </c>
-      <c r="G169" s="4">
+      <c r="G169" s="6">
         <v>0.25</v>
       </c>
       <c r="H169" s="4">
         <v>0.673871</v>
       </c>
       <c r="I169" s="5">
-        <v>3.39</v>
+        <v>3.41</v>
       </c>
       <c r="J169" s="4">
         <v>2.296154</v>
@@ -8310,7 +8373,7 @@
         <v>31.51</v>
       </c>
     </row>
-    <row r="170" spans="1:13">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A170" s="3" t="s">
         <v>194</v>
       </c>
@@ -8329,14 +8392,14 @@
       <c r="F170" s="5">
         <v>321299.8</v>
       </c>
-      <c r="G170" s="5">
-        <v>0.25004769999999998</v>
+      <c r="G170" s="6">
+        <v>0.25</v>
       </c>
       <c r="H170" s="5">
-        <v>0.77000120000000005</v>
+        <v>1.1519349999999999</v>
       </c>
       <c r="I170" s="5">
-        <v>3.3867189999999998</v>
+        <v>3.27</v>
       </c>
       <c r="J170" s="5">
         <v>2.282073</v>
@@ -8351,7 +8414,7 @@
         <v>32.052210000000002</v>
       </c>
     </row>
-    <row r="171" spans="1:13">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A171" s="3" t="s">
         <v>195</v>
       </c>
@@ -8370,14 +8433,14 @@
       <c r="F171" s="5">
         <v>325236.7</v>
       </c>
-      <c r="G171" s="5">
-        <v>0.25003969999999998</v>
+      <c r="G171" s="6">
+        <v>0.25</v>
       </c>
       <c r="H171" s="5">
-        <v>1.0501069999999999</v>
+        <v>1.4868250000000001</v>
       </c>
       <c r="I171" s="5">
-        <v>3.457319</v>
+        <v>3.253333</v>
       </c>
       <c r="J171" s="5">
         <v>2.4111449999999999</v>
@@ -8392,7 +8455,7 @@
         <v>31.160689999999999</v>
       </c>
     </row>
-    <row r="172" spans="1:13">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A172" s="3" t="s">
         <v>196</v>
       </c>
@@ -8411,14 +8474,14 @@
       <c r="F172" s="5">
         <v>327179.09999999998</v>
       </c>
-      <c r="G172" s="5">
-        <v>0.2500347</v>
+      <c r="G172" s="6">
+        <v>0.25</v>
       </c>
       <c r="H172" s="5">
-        <v>1.310181</v>
+        <v>1.2350000000000001</v>
       </c>
       <c r="I172" s="5">
-        <v>3.5505399999999998</v>
+        <v>3.2066669999999999</v>
       </c>
       <c r="J172" s="5">
         <v>2.4947110000000001</v>
@@ -8433,7 +8496,7 @@
         <v>31.80341</v>
       </c>
     </row>
-    <row r="173" spans="1:13">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A173" s="3" t="s">
         <v>197</v>
       </c>
@@ -8452,14 +8515,14 @@
       <c r="F173" s="5">
         <v>318695.59999999998</v>
       </c>
-      <c r="G173" s="5">
-        <v>0.25011719999999998</v>
+      <c r="G173" s="6">
+        <v>0.25</v>
       </c>
       <c r="H173" s="5">
-        <v>1.4129240000000001</v>
+        <v>1.577258</v>
       </c>
       <c r="I173" s="5">
-        <v>3.6398799999999998</v>
+        <v>3.38</v>
       </c>
       <c r="J173" s="5">
         <v>2.563024</v>
@@ -8474,7 +8537,7 @@
         <v>32.446779999999997</v>
       </c>
     </row>
-    <row r="174" spans="1:13">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A174" s="3" t="s">
         <v>198</v>
       </c>
@@ -8493,14 +8556,14 @@
       <c r="F174" s="5">
         <v>320690.7</v>
       </c>
-      <c r="G174" s="5">
-        <v>0.25022159999999999</v>
+      <c r="G174" s="7">
+        <v>0.33402999999999999</v>
       </c>
       <c r="H174" s="5">
-        <v>1.4714020000000001</v>
+        <v>1.9039280000000001</v>
       </c>
       <c r="I174" s="5">
-        <v>3.7298580000000001</v>
+        <v>3.6561490000000001</v>
       </c>
       <c r="J174" s="5">
         <v>2.6166719999999999</v>
@@ -8515,7 +8578,7 @@
         <v>32.85192</v>
       </c>
     </row>
-    <row r="175" spans="1:13">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A175" s="3" t="s">
         <v>199</v>
       </c>
@@ -8534,14 +8597,14 @@
       <c r="F175" s="5">
         <v>323194.2</v>
       </c>
-      <c r="G175" s="5">
-        <v>0.2502315</v>
+      <c r="G175" s="8">
+        <v>0.75308419999999998</v>
       </c>
       <c r="H175" s="5">
-        <v>1.5429729999999999</v>
+        <v>2.1150190000000002</v>
       </c>
       <c r="I175" s="5">
-        <v>3.7985350000000002</v>
+        <v>4.0230730000000001</v>
       </c>
       <c r="J175" s="5">
         <v>2.6638999999999999</v>
@@ -8556,7 +8619,7 @@
         <v>33.512419999999999</v>
       </c>
     </row>
-    <row r="176" spans="1:13">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A176" s="3" t="s">
         <v>200</v>
       </c>
@@ -8575,14 +8638,14 @@
       <c r="F176" s="5">
         <v>325480.3</v>
       </c>
-      <c r="G176" s="5">
-        <v>0.250247</v>
+      <c r="G176" s="8">
+        <v>1.0068109999999999</v>
       </c>
       <c r="H176" s="5">
-        <v>1.6145320000000001</v>
+        <v>2.3299210000000001</v>
       </c>
       <c r="I176" s="5">
-        <v>3.847207</v>
+        <v>4.2027460000000003</v>
       </c>
       <c r="J176" s="5">
         <v>2.6981649999999999</v>
@@ -8597,7 +8660,7 @@
         <v>33.749659999999999</v>
       </c>
     </row>
-    <row r="177" spans="1:13">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A177" s="3" t="s">
         <v>201</v>
       </c>
@@ -8616,14 +8679,14 @@
       <c r="F177" s="5">
         <v>327210.3</v>
       </c>
-      <c r="G177" s="5">
-        <v>0.25037599999999999</v>
+      <c r="G177" s="8">
+        <v>1.262548</v>
       </c>
       <c r="H177" s="5">
-        <v>1.686113</v>
+        <v>2.5524429999999998</v>
       </c>
       <c r="I177" s="5">
-        <v>3.895899</v>
+        <v>4.3479419999999998</v>
       </c>
       <c r="J177" s="5">
         <v>2.749495</v>
@@ -8638,7 +8701,7 @@
         <v>34.069679999999998</v>
       </c>
     </row>
-    <row r="178" spans="1:13">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A178" s="3" t="s">
         <v>202</v>
       </c>
@@ -8657,14 +8720,14 @@
       <c r="F178" s="5">
         <v>328949.09999999998</v>
       </c>
-      <c r="G178" s="5">
-        <v>0.25043700000000002</v>
+      <c r="G178" s="8">
+        <v>1.519298</v>
       </c>
       <c r="H178" s="5">
-        <v>1.757668</v>
+        <v>2.7619850000000001</v>
       </c>
       <c r="I178" s="5">
-        <v>3.9409350000000001</v>
+        <v>4.4762459999999997</v>
       </c>
       <c r="J178" s="5">
         <v>2.8028689999999998</v>
@@ -8679,7 +8742,7 @@
         <v>34.250120000000003</v>
       </c>
     </row>
-    <row r="179" spans="1:13">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A179" s="3" t="s">
         <v>203</v>
       </c>
@@ -8698,14 +8761,14 @@
       <c r="F179" s="5">
         <v>330718.59999999998</v>
       </c>
-      <c r="G179" s="5">
-        <v>0.25043729999999997</v>
+      <c r="G179" s="8">
+        <v>2.024438</v>
       </c>
       <c r="H179" s="5">
-        <v>1.8292459999999999</v>
+        <v>2.9725609999999998</v>
       </c>
       <c r="I179" s="5">
-        <v>3.9859689999999999</v>
+        <v>4.6894739999999997</v>
       </c>
       <c r="J179" s="5">
         <v>2.8614440000000001</v>
@@ -8720,7 +8783,7 @@
         <v>34.392380000000003</v>
       </c>
     </row>
-    <row r="180" spans="1:13">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A180" s="3" t="s">
         <v>204</v>
       </c>
@@ -8739,14 +8802,14 @@
       <c r="F180" s="5">
         <v>332373.8</v>
       </c>
-      <c r="G180" s="5">
-        <v>0.25039549999999999</v>
+      <c r="G180" s="8">
+        <v>2.25</v>
       </c>
       <c r="H180" s="5">
-        <v>1.9065449999999999</v>
+        <v>3.2052170000000002</v>
       </c>
       <c r="I180" s="5">
-        <v>4.0309900000000001</v>
+        <v>4.8629290000000003</v>
       </c>
       <c r="J180" s="5">
         <v>2.9193120000000001</v>
@@ -8761,7 +8824,7 @@
         <v>34.566029999999998</v>
       </c>
     </row>
-    <row r="181" spans="1:13">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A181" s="3" t="s">
         <v>205</v>
       </c>
@@ -8780,14 +8843,14 @@
       <c r="F181" s="5">
         <v>334081.3</v>
       </c>
-      <c r="G181" s="5">
-        <v>0.25028800000000001</v>
+      <c r="G181" s="8">
+        <v>2.25</v>
       </c>
       <c r="H181" s="5">
-        <v>1.978102</v>
+        <v>3.2029700000000001</v>
       </c>
       <c r="I181" s="5">
-        <v>4.0759860000000003</v>
+        <v>4.8771240000000002</v>
       </c>
       <c r="J181" s="5">
         <v>2.9711910000000001</v>
@@ -8802,7 +8865,7 @@
         <v>34.731430000000003</v>
       </c>
     </row>
-    <row r="182" spans="1:13">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A182" s="3" t="s">
         <v>206</v>
       </c>
@@ -8821,14 +8884,14 @@
       <c r="F182" s="5">
         <v>335789.1</v>
       </c>
-      <c r="G182" s="5">
-        <v>0.5</v>
+      <c r="G182" s="8">
+        <v>2.25</v>
       </c>
       <c r="H182" s="5">
-        <v>2.0386899999999999</v>
+        <v>3.2065199999999998</v>
       </c>
       <c r="I182" s="5">
-        <v>4.1714019999999996</v>
+        <v>4.8808150000000001</v>
       </c>
       <c r="J182" s="5">
         <v>3.0198119999999999</v>
@@ -8843,7 +8906,7 @@
         <v>34.934800000000003</v>
       </c>
     </row>
-    <row r="183" spans="1:13">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A183" s="3" t="s">
         <v>207</v>
       </c>
@@ -8862,14 +8925,14 @@
       <c r="F183" s="5">
         <v>337435</v>
       </c>
-      <c r="G183" s="5">
-        <v>0.75</v>
+      <c r="G183" s="8">
+        <v>2.25</v>
       </c>
       <c r="H183" s="5">
-        <v>2.0884909999999999</v>
+        <v>3.2068159999999999</v>
       </c>
       <c r="I183" s="5">
-        <v>4.2457900000000004</v>
+        <v>4.8810409999999997</v>
       </c>
       <c r="J183" s="5">
         <v>3.0641340000000001</v>
@@ -8884,7 +8947,7 @@
         <v>35.129519999999999</v>
       </c>
     </row>
-    <row r="184" spans="1:13">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A184" s="3" t="s">
         <v>208</v>
       </c>
@@ -8903,14 +8966,14 @@
       <c r="F184" s="5">
         <v>339034.9</v>
       </c>
-      <c r="G184" s="5">
-        <v>1</v>
+      <c r="G184" s="8">
+        <v>2.25</v>
       </c>
       <c r="H184" s="5">
-        <v>2.103084</v>
+        <v>3.2114090000000002</v>
       </c>
       <c r="I184" s="5">
-        <v>4.302308</v>
+        <v>4.8829159999999998</v>
       </c>
       <c r="J184" s="5">
         <v>3.0810590000000002</v>
@@ -8925,7 +8988,7 @@
         <v>35.322800000000001</v>
       </c>
     </row>
-    <row r="185" spans="1:13">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A185" s="3" t="s">
         <v>209</v>
       </c>
@@ -8944,14 +9007,14 @@
       <c r="F185" s="5">
         <v>340660</v>
       </c>
-      <c r="G185" s="5">
-        <v>1.139319</v>
+      <c r="G185" s="8">
+        <v>2.25</v>
       </c>
       <c r="H185" s="5">
-        <v>2.192936</v>
+        <v>3.211246</v>
       </c>
       <c r="I185" s="5">
-        <v>4.4120119999999998</v>
+        <v>4.9015599999999999</v>
       </c>
       <c r="J185" s="5">
         <v>3.1740949999999999</v>
@@ -8966,7 +9029,7 @@
         <v>35.517539999999997</v>
       </c>
     </row>
-    <row r="186" spans="1:13">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A186" s="3" t="s">
         <v>210</v>
       </c>
@@ -8985,14 +9048,14 @@
       <c r="F186" s="5">
         <v>342413.3</v>
       </c>
-      <c r="G186" s="5">
-        <v>1.139</v>
+      <c r="G186" s="8">
+        <v>2.25</v>
       </c>
       <c r="H186" s="5">
-        <v>2.248761</v>
+        <v>3.213695</v>
       </c>
       <c r="I186" s="5">
-        <v>4.4707270000000001</v>
+        <v>4.9229789999999998</v>
       </c>
       <c r="J186" s="5">
         <v>3.2293609999999999</v>
@@ -9007,7 +9070,7 @@
         <v>35.711869999999998</v>
       </c>
     </row>
-    <row r="187" spans="1:13">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A187" s="3" t="s">
         <v>211</v>
       </c>
@@ -9026,14 +9089,14 @@
       <c r="F187" s="5">
         <v>344256.2</v>
       </c>
-      <c r="G187" s="5">
-        <v>1.139</v>
+      <c r="G187" s="8">
+        <v>2.25</v>
       </c>
       <c r="H187" s="5">
-        <v>2.2893750000000002</v>
+        <v>3.2159420000000001</v>
       </c>
       <c r="I187" s="5">
-        <v>4.482704</v>
+        <v>4.9450890000000003</v>
       </c>
       <c r="J187" s="5">
         <v>3.2672919999999999</v>
@@ -9048,7 +9111,7 @@
         <v>35.908360000000002</v>
       </c>
     </row>
-    <row r="188" spans="1:13">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A188" s="3" t="s">
         <v>212</v>
       </c>
@@ -9067,14 +9130,14 @@
       <c r="F188" s="5">
         <v>346065.1</v>
       </c>
-      <c r="G188" s="5">
-        <v>1.139</v>
+      <c r="G188" s="8">
+        <v>2.25</v>
       </c>
       <c r="H188" s="5">
-        <v>2.3307229999999999</v>
+        <v>3.2172990000000001</v>
       </c>
       <c r="I188" s="5">
-        <v>4.4884320000000004</v>
+        <v>4.9670670000000001</v>
       </c>
       <c r="J188" s="5">
         <v>3.3065169999999999</v>
@@ -9089,7 +9152,7 @@
         <v>36.07526</v>
       </c>
     </row>
-    <row r="189" spans="1:13">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A189" s="3" t="s">
         <v>213</v>
       </c>
@@ -9108,14 +9171,14 @@
       <c r="F189" s="5">
         <v>347831</v>
       </c>
-      <c r="G189" s="5">
-        <v>1.139</v>
+      <c r="G189" s="8">
+        <v>2.25</v>
       </c>
       <c r="H189" s="5">
-        <v>2.372817</v>
+        <v>3.2178110000000002</v>
       </c>
       <c r="I189" s="5">
-        <v>4.5226470000000001</v>
+        <v>4.988772</v>
       </c>
       <c r="J189" s="5">
         <v>3.349688</v>
@@ -9130,7 +9193,7 @@
         <v>36.212249999999997</v>
       </c>
     </row>
-    <row r="190" spans="1:13">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A190" s="3" t="s">
         <v>214</v>
       </c>
@@ -9149,14 +9212,14 @@
       <c r="F190" s="5">
         <v>349632.1</v>
       </c>
-      <c r="G190" s="5">
-        <v>1.1408590000000001</v>
+      <c r="G190" s="8">
+        <v>2.25</v>
       </c>
       <c r="H190" s="5">
-        <v>2.4156719999999998</v>
+        <v>3.2178010000000001</v>
       </c>
       <c r="I190" s="5">
-        <v>4.5611100000000002</v>
+        <v>5.0103419999999996</v>
       </c>
       <c r="J190" s="5">
         <v>3.3952819999999999</v>
@@ -9171,7 +9234,7 @@
         <v>36.307839999999999</v>
       </c>
     </row>
-    <row r="191" spans="1:13">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A191" s="3" t="s">
         <v>215</v>
       </c>
@@ -9190,14 +9253,14 @@
       <c r="F191" s="5">
         <v>351440.3</v>
       </c>
-      <c r="G191" s="5">
-        <v>1.2487429999999999</v>
+      <c r="G191" s="8">
+        <v>2.25</v>
       </c>
       <c r="H191" s="5">
-        <v>2.4592999999999998</v>
+        <v>3.2170480000000001</v>
       </c>
       <c r="I191" s="5">
-        <v>4.596139</v>
+        <v>5.031517</v>
       </c>
       <c r="J191" s="5">
         <v>3.443727</v>
@@ -9212,7 +9275,7 @@
         <v>36.401069999999997</v>
       </c>
     </row>
-    <row r="192" spans="1:13">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A192" s="3" t="s">
         <v>216</v>
       </c>
@@ -9231,14 +9294,14 @@
       <c r="F192" s="5">
         <v>353246.2</v>
       </c>
-      <c r="G192" s="5">
-        <v>1.360071</v>
+      <c r="G192" s="8">
+        <v>2.25</v>
       </c>
       <c r="H192" s="5">
-        <v>2.503717</v>
+        <v>3.2162120000000001</v>
       </c>
       <c r="I192" s="5">
-        <v>4.6320560000000004</v>
+        <v>5.0528209999999998</v>
       </c>
       <c r="J192" s="5">
         <v>3.4958209999999998</v>
@@ -9253,7 +9316,7 @@
         <v>36.49456</v>
       </c>
     </row>
-    <row r="193" spans="1:13">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A193" s="3" t="s">
         <v>217</v>
       </c>
@@ -9272,14 +9335,14 @@
       <c r="F193" s="5">
         <v>355039</v>
       </c>
-      <c r="G193" s="5">
-        <v>1.472788</v>
+      <c r="G193" s="8">
+        <v>2.25</v>
       </c>
       <c r="H193" s="5">
-        <v>2.5489359999999999</v>
+        <v>3.215125</v>
       </c>
       <c r="I193" s="5">
-        <v>4.6688869999999998</v>
+        <v>5.0740920000000003</v>
       </c>
       <c r="J193" s="5">
         <v>3.5480499999999999</v>
@@ -9294,7 +9357,7 @@
         <v>36.586779999999997</v>
       </c>
     </row>
-    <row r="194" spans="1:13">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A194" s="3" t="s">
         <v>218</v>
       </c>
@@ -9313,14 +9376,14 @@
       <c r="F194" s="5">
         <v>356858.9</v>
       </c>
-      <c r="G194" s="5">
-        <v>1.5847230000000001</v>
+      <c r="G194" s="8">
+        <v>2.25</v>
       </c>
       <c r="H194" s="5">
-        <v>2.5949710000000001</v>
+        <v>3.2136209999999998</v>
       </c>
       <c r="I194" s="5">
-        <v>4.7061400000000004</v>
+        <v>5.0952450000000002</v>
       </c>
       <c r="J194" s="5">
         <v>3.5995949999999999</v>
@@ -9335,7 +9398,7 @@
         <v>36.677410000000002</v>
       </c>
     </row>
-    <row r="195" spans="1:13">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A195" s="3" t="s">
         <v>219</v>
       </c>
@@ -9354,14 +9417,14 @@
       <c r="F195" s="5">
         <v>358670.7</v>
       </c>
-      <c r="G195" s="5">
-        <v>1.6930149999999999</v>
+      <c r="G195" s="8">
+        <v>2.25</v>
       </c>
       <c r="H195" s="5">
-        <v>2.6418379999999999</v>
+        <v>3.2120340000000001</v>
       </c>
       <c r="I195" s="5">
-        <v>4.7430770000000004</v>
+        <v>5.1163400000000001</v>
       </c>
       <c r="J195" s="5">
         <v>3.6513840000000002</v>
@@ -9376,7 +9439,7 @@
         <v>36.766449999999999</v>
       </c>
     </row>
-    <row r="196" spans="1:13">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A196" s="3" t="s">
         <v>220</v>
       </c>
@@ -9395,14 +9458,14 @@
       <c r="F196" s="5">
         <v>360495.5</v>
       </c>
-      <c r="G196" s="5">
-        <v>1.7977860000000001</v>
+      <c r="G196" s="8">
+        <v>2.25</v>
       </c>
       <c r="H196" s="5">
-        <v>2.6895509999999998</v>
+        <v>3.209921</v>
       </c>
       <c r="I196" s="5">
-        <v>4.7862349999999996</v>
+        <v>5.1371320000000003</v>
       </c>
       <c r="J196" s="5">
         <v>3.712459</v>
@@ -9417,7 +9480,7 @@
         <v>36.856310000000001</v>
       </c>
     </row>
-    <row r="197" spans="1:13">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A197" s="3" t="s">
         <v>221</v>
       </c>
@@ -9436,14 +9499,14 @@
       <c r="F197" s="5">
         <v>362341.9</v>
       </c>
-      <c r="G197" s="5">
-        <v>1.9014549999999999</v>
+      <c r="G197" s="8">
+        <v>2.25</v>
       </c>
       <c r="H197" s="5">
-        <v>2.7381259999999998</v>
+        <v>3.2075559999999999</v>
       </c>
       <c r="I197" s="5">
-        <v>4.8360919999999998</v>
+        <v>5.1577729999999997</v>
       </c>
       <c r="J197" s="5">
         <v>3.7810790000000001</v>
@@ -9458,7 +9521,7 @@
         <v>36.946100000000001</v>
       </c>
     </row>
-    <row r="198" spans="1:13">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A198" s="3" t="s">
         <v>222</v>
       </c>
@@ -9477,14 +9540,14 @@
       <c r="F198" s="5">
         <v>364201.8</v>
       </c>
-      <c r="G198" s="5">
-        <v>2.0072540000000001</v>
+      <c r="G198" s="8">
+        <v>2.25</v>
       </c>
       <c r="H198" s="5">
-        <v>2.7875779999999999</v>
+        <v>3.2051240000000001</v>
       </c>
       <c r="I198" s="5">
-        <v>4.8867919999999998</v>
+        <v>5.1783960000000002</v>
       </c>
       <c r="J198" s="5">
         <v>3.8482090000000002</v>
@@ -9499,7 +9562,7 @@
         <v>37.05594</v>
       </c>
     </row>
-    <row r="199" spans="1:13">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A199" s="3" t="s">
         <v>223</v>
       </c>
@@ -9518,14 +9581,14 @@
       <c r="F199" s="5">
         <v>366025.2</v>
       </c>
-      <c r="G199" s="5">
-        <v>2.0070000000000001</v>
+      <c r="G199" s="8">
+        <v>2.25</v>
       </c>
       <c r="H199" s="5">
-        <v>2.8379240000000001</v>
+        <v>3.2023739999999998</v>
       </c>
       <c r="I199" s="5">
-        <v>4.9424760000000001</v>
+        <v>5.1987649999999999</v>
       </c>
       <c r="J199" s="5">
         <v>3.915781</v>
@@ -9540,7 +9603,7 @@
         <v>37.165419999999997</v>
       </c>
     </row>
-    <row r="200" spans="1:13">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A200" s="3" t="s">
         <v>224</v>
       </c>
@@ -9559,14 +9622,14 @@
       <c r="F200" s="5">
         <v>367869.2</v>
       </c>
-      <c r="G200" s="5">
-        <v>2.2067960000000002</v>
+      <c r="G200" s="8">
+        <v>2.25</v>
       </c>
       <c r="H200" s="5">
-        <v>2.8891789999999999</v>
+        <v>3.2001270000000002</v>
       </c>
       <c r="I200" s="5">
-        <v>5.0172420000000004</v>
+        <v>5.2224149999999998</v>
       </c>
       <c r="J200" s="5">
         <v>3.9852850000000002</v>
@@ -9581,7 +9644,7 @@
         <v>37.277810000000002</v>
       </c>
     </row>
-    <row r="201" spans="1:13">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A201" s="3" t="s">
         <v>225</v>
       </c>
@@ -9600,14 +9663,14 @@
       <c r="F201" s="5">
         <v>369742.6</v>
       </c>
-      <c r="G201" s="5">
+      <c r="G201" s="8">
         <v>2.25</v>
       </c>
       <c r="H201" s="5">
-        <v>2.9413589999999998</v>
+        <v>3.1977609999999999</v>
       </c>
       <c r="I201" s="5">
-        <v>5.0571549999999998</v>
+        <v>5.2491700000000003</v>
       </c>
       <c r="J201" s="5">
         <v>4.055523</v>
@@ -9622,7 +9685,7 @@
         <v>37.38608</v>
       </c>
     </row>
-    <row r="202" spans="1:13">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A202" s="3" t="s">
         <v>226</v>
       </c>
@@ -9641,14 +9704,14 @@
       <c r="F202" s="5">
         <v>371601.1</v>
       </c>
-      <c r="G202" s="5">
+      <c r="G202" s="8">
         <v>2.25</v>
       </c>
       <c r="H202" s="5">
-        <v>2.9944820000000001</v>
+        <v>3.1948810000000001</v>
       </c>
       <c r="I202" s="5">
-        <v>5.1125910000000001</v>
+        <v>5.2758940000000001</v>
       </c>
       <c r="J202" s="5">
         <v>4.1285759999999998</v>
@@ -9663,7 +9726,7 @@
         <v>37.51773</v>
       </c>
     </row>
-    <row r="203" spans="1:13">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A203" s="3" t="s">
         <v>227</v>
       </c>
@@ -9682,14 +9745,14 @@
       <c r="F203" s="5">
         <v>373428.7</v>
       </c>
-      <c r="G203" s="5">
+      <c r="G203" s="8">
         <v>2.25</v>
       </c>
       <c r="H203" s="5">
-        <v>3.0485639999999998</v>
+        <v>3.1922579999999998</v>
       </c>
       <c r="I203" s="5">
-        <v>5.1706779999999997</v>
+        <v>5.3026530000000003</v>
       </c>
       <c r="J203" s="5">
         <v>4.2036470000000001</v>
@@ -9704,7 +9767,7 @@
         <v>37.648359999999997</v>
       </c>
     </row>
-    <row r="204" spans="1:13">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A204" s="3" t="s">
         <v>228</v>
       </c>
@@ -9723,14 +9786,14 @@
       <c r="F204" s="5">
         <v>375294.5</v>
       </c>
-      <c r="G204" s="5">
+      <c r="G204" s="8">
         <v>2.25</v>
       </c>
       <c r="H204" s="5">
-        <v>3.1036229999999998</v>
+        <v>3.1900469999999999</v>
       </c>
       <c r="I204" s="5">
-        <v>5.2299449999999998</v>
+        <v>5.3013139999999996</v>
       </c>
       <c r="J204" s="5">
         <v>4.2802619999999996</v>
@@ -9745,7 +9808,7 @@
         <v>37.780500000000004</v>
       </c>
     </row>
-    <row r="205" spans="1:13">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A205" s="3" t="s">
         <v>229</v>
       </c>
@@ -9764,14 +9827,14 @@
       <c r="F205" s="5">
         <v>377173.8</v>
       </c>
-      <c r="G205" s="5">
+      <c r="G205" s="8">
         <v>2.25</v>
       </c>
       <c r="H205" s="5">
-        <v>3.1596769999999998</v>
+        <v>3.1875420000000001</v>
       </c>
       <c r="I205" s="5">
-        <v>5.2884510000000002</v>
+        <v>5.2997540000000001</v>
       </c>
       <c r="J205" s="5">
         <v>4.3557550000000003</v>
@@ -9786,7 +9849,7 @@
         <v>37.91301</v>
       </c>
     </row>
-    <row r="206" spans="1:13">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A206" s="3" t="s">
         <v>230</v>
       </c>
@@ -9805,14 +9868,14 @@
       <c r="F206" s="5">
         <v>378976.2</v>
       </c>
-      <c r="G206" s="5">
+      <c r="G206" s="8">
         <v>2.25</v>
       </c>
       <c r="H206" s="5">
-        <v>3.216742</v>
+        <v>3.1854789999999999</v>
       </c>
       <c r="I206" s="5">
-        <v>5.3488769999999999</v>
+        <v>5.2984359999999997</v>
       </c>
       <c r="J206" s="5">
         <v>4.4348409999999996</v>
@@ -9827,7 +9890,7 @@
         <v>38.088360000000002</v>
       </c>
     </row>
-    <row r="207" spans="1:13">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A207" s="3" t="s">
         <v>231</v>
       </c>
@@ -9846,14 +9909,14 @@
       <c r="F207" s="5">
         <v>380735.9</v>
       </c>
-      <c r="G207" s="5">
+      <c r="G207" s="8">
         <v>2.25</v>
       </c>
       <c r="H207" s="5">
-        <v>3.2748390000000001</v>
+        <v>3.1833710000000002</v>
       </c>
       <c r="I207" s="5">
-        <v>5.4139220000000003</v>
+        <v>5.2969280000000003</v>
       </c>
       <c r="J207" s="5">
         <v>4.5199860000000003</v>
@@ -9868,7 +9931,7 @@
         <v>38.263370000000002</v>
       </c>
     </row>
-    <row r="208" spans="1:13">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A208" s="3" t="s">
         <v>232</v>
       </c>
@@ -9887,14 +9950,14 @@
       <c r="F208" s="5">
         <v>382546.8</v>
       </c>
-      <c r="G208" s="5">
+      <c r="G208" s="8">
         <v>2.25</v>
       </c>
       <c r="H208" s="5">
-        <v>3.3339850000000002</v>
+        <v>3.1815280000000001</v>
       </c>
       <c r="I208" s="5">
-        <v>5.4449050000000003</v>
+        <v>5.2957409999999996</v>
       </c>
       <c r="J208" s="5">
         <v>4.584632</v>
@@ -9909,7 +9972,7 @@
         <v>38.462519999999998</v>
       </c>
     </row>
-    <row r="209" spans="1:13">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A209" s="3" t="s">
         <v>233</v>
       </c>
@@ -9928,14 +9991,14 @@
       <c r="F209" s="5">
         <v>384475.2</v>
       </c>
-      <c r="G209" s="5">
+      <c r="G209" s="8">
         <v>2.25</v>
       </c>
       <c r="H209" s="5">
-        <v>3.3941979999999998</v>
+        <v>3.179678</v>
       </c>
       <c r="I209" s="5">
-        <v>5.4765990000000002</v>
+        <v>5.294556</v>
       </c>
       <c r="J209" s="5">
         <v>4.6295060000000001</v>
@@ -9950,454 +10013,546 @@
         <v>38.662880000000001</v>
       </c>
     </row>
-    <row r="210" spans="1:13">
-      <c r="A210" s="2" t="s">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A210" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B210" s="5"/>
+      <c r="C210" s="5"/>
+      <c r="D210" s="5"/>
+      <c r="E210" s="5"/>
+      <c r="F210" s="5"/>
+      <c r="G210" s="8">
+        <v>2.25</v>
+      </c>
+      <c r="H210" s="5">
+        <v>3.1778930000000001</v>
+      </c>
+      <c r="I210" s="5">
+        <v>5.2934060000000001</v>
+      </c>
+      <c r="J210" s="5"/>
+      <c r="K210" s="5"/>
+      <c r="L210" s="5"/>
+      <c r="M210" s="5"/>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A211" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B211" s="5"/>
+      <c r="C211" s="5"/>
+      <c r="D211" s="5"/>
+      <c r="E211" s="5"/>
+      <c r="F211" s="5"/>
+      <c r="G211" s="8">
+        <v>2.25</v>
+      </c>
+      <c r="H211" s="5">
+        <v>3.1760320000000002</v>
+      </c>
+      <c r="I211" s="5">
+        <v>5.2921639999999996</v>
+      </c>
+      <c r="J211" s="5"/>
+      <c r="K211" s="5"/>
+      <c r="L211" s="5"/>
+      <c r="M211" s="5"/>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A212" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B212" s="5"/>
+      <c r="C212" s="5"/>
+      <c r="D212" s="5"/>
+      <c r="E212" s="5"/>
+      <c r="F212" s="5"/>
+      <c r="G212" s="8">
+        <v>2.25</v>
+      </c>
+      <c r="H212" s="5">
+        <v>3.1743960000000002</v>
+      </c>
+      <c r="I212" s="5">
+        <v>5.2910630000000003</v>
+      </c>
+      <c r="J212" s="5"/>
+      <c r="K212" s="5"/>
+      <c r="L212" s="5"/>
+      <c r="M212" s="5"/>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A213" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B213" s="5"/>
+      <c r="C213" s="5"/>
+      <c r="D213" s="5"/>
+      <c r="E213" s="5"/>
+      <c r="F213" s="5"/>
+      <c r="G213" s="8">
+        <v>2.25</v>
+      </c>
+      <c r="H213" s="5">
+        <v>3.1727379999999998</v>
+      </c>
+      <c r="I213" s="5">
+        <v>5.2899609999999999</v>
+      </c>
+      <c r="J213" s="5"/>
+      <c r="K213" s="5"/>
+      <c r="L213" s="5"/>
+      <c r="M213" s="5"/>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A214" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B210" s="1" t="s">
+      <c r="B214" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C210" s="1" t="s">
+      <c r="C214" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D210" s="1" t="s">
+      <c r="D214" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="E210" s="1" t="s">
+      <c r="E214" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="F210" s="1" t="s">
+      <c r="F214" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="G210" s="1" t="s">
+      <c r="G214" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="H210" s="1" t="s">
+      <c r="H214" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="I210" s="1" t="s">
+      <c r="I214" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="J210" s="1" t="s">
+      <c r="J214" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="K210" s="1" t="s">
+      <c r="K214" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="L210" s="1" t="s">
+      <c r="L214" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="M210" s="1" t="s">
+      <c r="M214" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="211" spans="1:13">
-      <c r="A211" s="2" t="s">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A215" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B211" s="1" t="s">
+      <c r="B215" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C211" s="1" t="s">
+      <c r="C215" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D211" s="1" t="s">
+      <c r="D215" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="E211" s="1" t="s">
+      <c r="E215" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="F211" s="1" t="s">
+      <c r="F215" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="G211" s="1" t="s">
+      <c r="G215" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="H211" s="1" t="s">
+      <c r="H215" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="I211" s="1" t="s">
+      <c r="I215" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="J211" s="1" t="s">
+      <c r="J215" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="K211" s="1" t="s">
+      <c r="K215" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="L211" s="1" t="s">
+      <c r="L215" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="M211" s="1" t="s">
+      <c r="M215" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="212" spans="1:13">
-      <c r="A212" s="2" t="s">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A216" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B212" s="1" t="s">
+      <c r="B216" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C212" s="1" t="s">
+      <c r="C216" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D212" s="1" t="s">
+      <c r="D216" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E212" s="1" t="s">
+      <c r="E216" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="F212" s="1" t="s">
+      <c r="F216" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="G212" s="1" t="s">
+      <c r="G216" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="H212" s="1" t="s">
+      <c r="H216" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="I212" s="1" t="s">
+      <c r="I216" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="J212" s="1" t="s">
+      <c r="J216" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="K212" s="1" t="s">
+      <c r="K216" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="L212" s="1" t="s">
+      <c r="L216" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="M212" s="1" t="s">
+      <c r="M216" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="213" spans="1:13">
-      <c r="A213" s="2" t="s">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A217" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B213" s="1" t="s">
+      <c r="B217" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C213" s="1" t="s">
+      <c r="C217" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D213" s="1" t="s">
+      <c r="D217" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="E213" s="1" t="s">
+      <c r="E217" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="F213" s="1" t="s">
+      <c r="F217" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="G213" s="1" t="s">
+      <c r="G217" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="H213" s="1" t="s">
+      <c r="H217" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="I213" s="1" t="s">
+      <c r="I217" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="J213" s="1" t="s">
+      <c r="J217" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="K213" s="1" t="s">
+      <c r="K217" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="L213" s="1" t="s">
+      <c r="L217" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="M213" s="1" t="s">
+      <c r="M217" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="214" spans="1:13">
-      <c r="A214" s="2" t="s">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A218" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B214" s="1" t="s">
+      <c r="B218" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C214" s="1" t="s">
+      <c r="C218" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D214" s="1" t="s">
+      <c r="D218" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="E214" s="1" t="s">
+      <c r="E218" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="F214" s="1" t="s">
+      <c r="F218" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="G214" s="1" t="s">
+      <c r="G218" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="H214" s="1" t="s">
+      <c r="H218" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="I214" s="1" t="s">
+      <c r="I218" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="J214" s="1" t="s">
+      <c r="J218" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="K214" s="1" t="s">
+      <c r="K218" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="L214" s="1" t="s">
+      <c r="L218" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="M214" s="1" t="s">
+      <c r="M218" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="215" spans="1:13">
-      <c r="A215" s="2" t="s">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A219" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B215" s="1" t="s">
+      <c r="B219" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C215" s="1" t="s">
+      <c r="C219" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D215" s="1" t="s">
+      <c r="D219" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="E215" s="1" t="s">
+      <c r="E219" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="F215" s="1" t="s">
+      <c r="F219" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="G215" s="1" t="s">
+      <c r="G219" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="H215" s="1" t="s">
+      <c r="H219" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="I215" s="1" t="s">
+      <c r="I219" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="J215" s="1" t="s">
+      <c r="J219" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="K215" s="1" t="s">
+      <c r="K219" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="L215" s="1" t="s">
+      <c r="L219" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="M215" s="1" t="s">
+      <c r="M219" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="216" spans="1:13">
-      <c r="A216" s="2" t="s">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A220" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="B220" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C216" s="1" t="s">
+      <c r="C220" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D216" s="1" t="s">
+      <c r="D220" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="E216" s="1" t="s">
+      <c r="E220" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="F216" s="1" t="s">
+      <c r="F220" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="G216" s="1" t="s">
+      <c r="G220" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="H216" s="1" t="s">
+      <c r="H220" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="I216" s="1" t="s">
+      <c r="I220" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="J216" s="1" t="s">
+      <c r="J220" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="K216" s="1" t="s">
+      <c r="K220" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="L216" s="1" t="s">
+      <c r="L220" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="M216" s="1" t="s">
+      <c r="M220" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="217" spans="1:13">
-      <c r="A217" s="2" t="s">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A221" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B217" s="1" t="s">
+      <c r="B221" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C217" s="1" t="s">
+      <c r="C221" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D217" s="1" t="s">
+      <c r="D221" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="E217" s="1" t="s">
+      <c r="E221" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="F217" s="1" t="s">
+      <c r="F221" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="G217" s="1" t="s">
+      <c r="G221" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="H217" s="1" t="s">
+      <c r="H221" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="I217" s="1" t="s">
+      <c r="I221" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="J217" s="1" t="s">
+      <c r="J221" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="K217" s="1" t="s">
+      <c r="K221" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="L217" s="1" t="s">
+      <c r="L221" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="M217" s="1" t="s">
+      <c r="M221" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="218" spans="1:13">
-      <c r="A218" s="2" t="s">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A222" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B218" s="1" t="s">
+      <c r="B222" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C218" s="1" t="s">
+      <c r="C222" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D218" s="1" t="s">
+      <c r="D222" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="E218" s="1" t="s">
+      <c r="E222" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="F218" s="1" t="s">
+      <c r="F222" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="G218" s="1" t="s">
+      <c r="G222" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="H218" s="1" t="s">
+      <c r="H222" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="I218" s="1" t="s">
+      <c r="I222" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="J218" s="1" t="s">
+      <c r="J222" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="K218" s="1" t="s">
+      <c r="K222" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="L218" s="1" t="s">
+      <c r="L222" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="M218" s="1" t="s">
+      <c r="M222" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="219" spans="1:13">
-      <c r="A219" s="2" t="s">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A223" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B219" s="1" t="s">
+      <c r="B223" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C219" s="1" t="s">
+      <c r="C223" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D219" s="1" t="s">
+      <c r="D223" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="E219" s="1" t="s">
+      <c r="E223" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="F219" s="1" t="s">
+      <c r="F223" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="G219" s="1" t="s">
+      <c r="G223" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="H219" s="1" t="s">
+      <c r="H223" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="I219" s="1" t="s">
+      <c r="I223" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="J219" s="1" t="s">
+      <c r="J223" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="K219" s="1" t="s">
+      <c r="K223" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="L219" s="1" t="s">
+      <c r="L223" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="M219" s="1" t="s">
+      <c r="M223" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="220" spans="1:13">
-      <c r="A220" s="2" t="s">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A224" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B220" s="1" t="s">
+      <c r="B224" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C220" s="1" t="s">
+      <c r="C224" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="D220" s="1" t="s">
+      <c r="D224" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="E220" s="1" t="s">
+      <c r="E224" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="F220" s="1" t="s">
+      <c r="F224" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="G220" s="1" t="s">
+      <c r="G224" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="H220" s="1" t="s">
+      <c r="H224" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="I220" s="1" t="s">
+      <c r="I224" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="J220" s="1" t="s">
+      <c r="J224" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="K220" s="1" t="s">
+      <c r="K224" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="L220" s="1" t="s">
+      <c r="L224" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="M220" s="1" t="s">
+      <c r="M224" s="1" t="s">
         <v>295</v>
       </c>
     </row>
@@ -10407,13 +10562,3928 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4509B7CE-EAE7-4EFC-BF06-58A8650AF1F6}">
+  <dimension ref="A1:F205"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B1" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="10">
+        <v>35.833329999999997</v>
+      </c>
+      <c r="C2" s="10">
+        <v>35.833329999999997</v>
+      </c>
+      <c r="D2" s="10">
+        <v>35.833329999999997</v>
+      </c>
+      <c r="E2" s="10">
+        <v>35.833329999999997</v>
+      </c>
+      <c r="F2" s="10">
+        <v>35.833329999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="10">
+        <v>39.5</v>
+      </c>
+      <c r="C3" s="10">
+        <v>39.5</v>
+      </c>
+      <c r="D3" s="10">
+        <v>39.5</v>
+      </c>
+      <c r="E3" s="10">
+        <v>39.5</v>
+      </c>
+      <c r="F3" s="10">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="10">
+        <v>37.833329999999997</v>
+      </c>
+      <c r="C4" s="10">
+        <v>37.833329999999997</v>
+      </c>
+      <c r="D4" s="10">
+        <v>37.833329999999997</v>
+      </c>
+      <c r="E4" s="10">
+        <v>37.833329999999997</v>
+      </c>
+      <c r="F4" s="10">
+        <v>37.833329999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="10">
+        <v>36.333329999999997</v>
+      </c>
+      <c r="C5" s="10">
+        <v>36.333329999999997</v>
+      </c>
+      <c r="D5" s="10">
+        <v>36.333329999999997</v>
+      </c>
+      <c r="E5" s="10">
+        <v>36.333329999999997</v>
+      </c>
+      <c r="F5" s="10">
+        <v>36.333329999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="10">
+        <v>38</v>
+      </c>
+      <c r="C6" s="10">
+        <v>38</v>
+      </c>
+      <c r="D6" s="10">
+        <v>38</v>
+      </c>
+      <c r="E6" s="10">
+        <v>38</v>
+      </c>
+      <c r="F6" s="10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="10">
+        <v>37.333329999999997</v>
+      </c>
+      <c r="C7" s="10">
+        <v>37.333329999999997</v>
+      </c>
+      <c r="D7" s="10">
+        <v>37.333329999999997</v>
+      </c>
+      <c r="E7" s="10">
+        <v>37.333329999999997</v>
+      </c>
+      <c r="F7" s="10">
+        <v>37.333329999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="10">
+        <v>36</v>
+      </c>
+      <c r="C8" s="10">
+        <v>36</v>
+      </c>
+      <c r="D8" s="10">
+        <v>36</v>
+      </c>
+      <c r="E8" s="10">
+        <v>36</v>
+      </c>
+      <c r="F8" s="10">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="10">
+        <v>35.333329999999997</v>
+      </c>
+      <c r="C9" s="10">
+        <v>35.333329999999997</v>
+      </c>
+      <c r="D9" s="10">
+        <v>35.333329999999997</v>
+      </c>
+      <c r="E9" s="10">
+        <v>35.333329999999997</v>
+      </c>
+      <c r="F9" s="10">
+        <v>35.333329999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="10">
+        <v>31.296669999999999</v>
+      </c>
+      <c r="C10" s="10">
+        <v>31.296669999999999</v>
+      </c>
+      <c r="D10" s="10">
+        <v>31.296669999999999</v>
+      </c>
+      <c r="E10" s="10">
+        <v>31.296669999999999</v>
+      </c>
+      <c r="F10" s="10">
+        <v>31.296669999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="10">
+        <v>34.816670000000002</v>
+      </c>
+      <c r="C11" s="10">
+        <v>34.816670000000002</v>
+      </c>
+      <c r="D11" s="10">
+        <v>34.816670000000002</v>
+      </c>
+      <c r="E11" s="10">
+        <v>34.816670000000002</v>
+      </c>
+      <c r="F11" s="10">
+        <v>34.816670000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="10">
+        <v>34.58</v>
+      </c>
+      <c r="C12" s="10">
+        <v>34.58</v>
+      </c>
+      <c r="D12" s="10">
+        <v>34.58</v>
+      </c>
+      <c r="E12" s="10">
+        <v>34.58</v>
+      </c>
+      <c r="F12" s="10">
+        <v>34.58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="10">
+        <v>33.85</v>
+      </c>
+      <c r="C13" s="10">
+        <v>33.85</v>
+      </c>
+      <c r="D13" s="10">
+        <v>33.85</v>
+      </c>
+      <c r="E13" s="10">
+        <v>33.85</v>
+      </c>
+      <c r="F13" s="10">
+        <v>33.85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="10">
+        <v>29.65333</v>
+      </c>
+      <c r="C14" s="10">
+        <v>29.65333</v>
+      </c>
+      <c r="D14" s="10">
+        <v>29.65333</v>
+      </c>
+      <c r="E14" s="10">
+        <v>29.65333</v>
+      </c>
+      <c r="F14" s="10">
+        <v>29.65333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="10">
+        <v>30.536670000000001</v>
+      </c>
+      <c r="C15" s="10">
+        <v>30.536670000000001</v>
+      </c>
+      <c r="D15" s="10">
+        <v>30.536670000000001</v>
+      </c>
+      <c r="E15" s="10">
+        <v>30.536670000000001</v>
+      </c>
+      <c r="F15" s="10">
+        <v>30.536670000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="10">
+        <v>31.56</v>
+      </c>
+      <c r="C16" s="10">
+        <v>31.56</v>
+      </c>
+      <c r="D16" s="10">
+        <v>31.56</v>
+      </c>
+      <c r="E16" s="10">
+        <v>31.56</v>
+      </c>
+      <c r="F16" s="10">
+        <v>31.56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="10">
+        <v>29.83</v>
+      </c>
+      <c r="C17" s="10">
+        <v>29.83</v>
+      </c>
+      <c r="D17" s="10">
+        <v>29.83</v>
+      </c>
+      <c r="E17" s="10">
+        <v>29.83</v>
+      </c>
+      <c r="F17" s="10">
+        <v>29.83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="10">
+        <v>30.19867</v>
+      </c>
+      <c r="C18" s="10">
+        <v>30.19867</v>
+      </c>
+      <c r="D18" s="10">
+        <v>30.19867</v>
+      </c>
+      <c r="E18" s="10">
+        <v>30.19867</v>
+      </c>
+      <c r="F18" s="10">
+        <v>30.19867</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="10">
+        <v>30.36833</v>
+      </c>
+      <c r="C19" s="10">
+        <v>30.36833</v>
+      </c>
+      <c r="D19" s="10">
+        <v>30.36833</v>
+      </c>
+      <c r="E19" s="10">
+        <v>30.36833</v>
+      </c>
+      <c r="F19" s="10">
+        <v>30.36833</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="10">
+        <v>29.104330000000001</v>
+      </c>
+      <c r="C20" s="10">
+        <v>29.104330000000001</v>
+      </c>
+      <c r="D20" s="10">
+        <v>29.104330000000001</v>
+      </c>
+      <c r="E20" s="10">
+        <v>29.104330000000001</v>
+      </c>
+      <c r="F20" s="10">
+        <v>29.104330000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="10">
+        <v>27.430669999999999</v>
+      </c>
+      <c r="C21" s="10">
+        <v>27.430669999999999</v>
+      </c>
+      <c r="D21" s="10">
+        <v>27.430669999999999</v>
+      </c>
+      <c r="E21" s="10">
+        <v>27.430669999999999</v>
+      </c>
+      <c r="F21" s="10">
+        <v>27.430669999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="10">
+        <v>27.05</v>
+      </c>
+      <c r="C22" s="10">
+        <v>27.05</v>
+      </c>
+      <c r="D22" s="10">
+        <v>27.05</v>
+      </c>
+      <c r="E22" s="10">
+        <v>27.05</v>
+      </c>
+      <c r="F22" s="10">
+        <v>27.05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="10">
+        <v>27.856999999999999</v>
+      </c>
+      <c r="C23" s="10">
+        <v>27.856999999999999</v>
+      </c>
+      <c r="D23" s="10">
+        <v>27.856999999999999</v>
+      </c>
+      <c r="E23" s="10">
+        <v>27.856999999999999</v>
+      </c>
+      <c r="F23" s="10">
+        <v>27.856999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="10">
+        <v>27.791</v>
+      </c>
+      <c r="C24" s="10">
+        <v>27.791</v>
+      </c>
+      <c r="D24" s="10">
+        <v>27.791</v>
+      </c>
+      <c r="E24" s="10">
+        <v>27.791</v>
+      </c>
+      <c r="F24" s="10">
+        <v>27.791</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="10">
+        <v>29.193000000000001</v>
+      </c>
+      <c r="C25" s="10">
+        <v>29.193000000000001</v>
+      </c>
+      <c r="D25" s="10">
+        <v>29.193000000000001</v>
+      </c>
+      <c r="E25" s="10">
+        <v>29.193000000000001</v>
+      </c>
+      <c r="F25" s="10">
+        <v>29.193000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="10">
+        <v>17.001670000000001</v>
+      </c>
+      <c r="C26" s="10">
+        <v>17.001670000000001</v>
+      </c>
+      <c r="D26" s="10">
+        <v>17.001670000000001</v>
+      </c>
+      <c r="E26" s="10">
+        <v>17.001670000000001</v>
+      </c>
+      <c r="F26" s="10">
+        <v>17.001670000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="10">
+        <v>13.92</v>
+      </c>
+      <c r="C27" s="10">
+        <v>13.92</v>
+      </c>
+      <c r="D27" s="10">
+        <v>13.92</v>
+      </c>
+      <c r="E27" s="10">
+        <v>13.92</v>
+      </c>
+      <c r="F27" s="10">
+        <v>13.92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="10">
+        <v>13.86</v>
+      </c>
+      <c r="C28" s="10">
+        <v>13.86</v>
+      </c>
+      <c r="D28" s="10">
+        <v>13.86</v>
+      </c>
+      <c r="E28" s="10">
+        <v>13.86</v>
+      </c>
+      <c r="F28" s="10">
+        <v>13.86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="10">
+        <v>15.37833</v>
+      </c>
+      <c r="C29" s="10">
+        <v>15.37833</v>
+      </c>
+      <c r="D29" s="10">
+        <v>15.37833</v>
+      </c>
+      <c r="E29" s="10">
+        <v>15.37833</v>
+      </c>
+      <c r="F29" s="10">
+        <v>15.37833</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A30" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="10">
+        <v>18.228999999999999</v>
+      </c>
+      <c r="C30" s="10">
+        <v>18.228999999999999</v>
+      </c>
+      <c r="D30" s="10">
+        <v>18.228999999999999</v>
+      </c>
+      <c r="E30" s="10">
+        <v>18.228999999999999</v>
+      </c>
+      <c r="F30" s="10">
+        <v>18.228999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A31" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="10">
+        <v>19.364000000000001</v>
+      </c>
+      <c r="C31" s="10">
+        <v>19.364000000000001</v>
+      </c>
+      <c r="D31" s="10">
+        <v>19.364000000000001</v>
+      </c>
+      <c r="E31" s="10">
+        <v>19.364000000000001</v>
+      </c>
+      <c r="F31" s="10">
+        <v>19.364000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A32" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="10">
+        <v>20.385000000000002</v>
+      </c>
+      <c r="C32" s="10">
+        <v>20.385000000000002</v>
+      </c>
+      <c r="D32" s="10">
+        <v>20.385000000000002</v>
+      </c>
+      <c r="E32" s="10">
+        <v>20.385000000000002</v>
+      </c>
+      <c r="F32" s="10">
+        <v>20.385000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="10">
+        <v>18.66967</v>
+      </c>
+      <c r="C33" s="10">
+        <v>18.66967</v>
+      </c>
+      <c r="D33" s="10">
+        <v>18.66967</v>
+      </c>
+      <c r="E33" s="10">
+        <v>18.66967</v>
+      </c>
+      <c r="F33" s="10">
+        <v>18.66967</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A34" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="10">
+        <v>16.713999999999999</v>
+      </c>
+      <c r="C34" s="10">
+        <v>16.713999999999999</v>
+      </c>
+      <c r="D34" s="10">
+        <v>16.713999999999999</v>
+      </c>
+      <c r="E34" s="10">
+        <v>16.713999999999999</v>
+      </c>
+      <c r="F34" s="10">
+        <v>16.713999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A35" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="10">
+        <v>17.280999999999999</v>
+      </c>
+      <c r="C35" s="10">
+        <v>17.280999999999999</v>
+      </c>
+      <c r="D35" s="10">
+        <v>17.280999999999999</v>
+      </c>
+      <c r="E35" s="10">
+        <v>17.280999999999999</v>
+      </c>
+      <c r="F35" s="10">
+        <v>17.280999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A36" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="10">
+        <v>15.163</v>
+      </c>
+      <c r="C36" s="10">
+        <v>15.163</v>
+      </c>
+      <c r="D36" s="10">
+        <v>15.163</v>
+      </c>
+      <c r="E36" s="10">
+        <v>15.163</v>
+      </c>
+      <c r="F36" s="10">
+        <v>15.163</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A37" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="10">
+        <v>14.68033</v>
+      </c>
+      <c r="C37" s="10">
+        <v>14.68033</v>
+      </c>
+      <c r="D37" s="10">
+        <v>14.68033</v>
+      </c>
+      <c r="E37" s="10">
+        <v>14.68033</v>
+      </c>
+      <c r="F37" s="10">
+        <v>14.68033</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A38" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="10">
+        <v>18.417999999999999</v>
+      </c>
+      <c r="C38" s="10">
+        <v>18.417999999999999</v>
+      </c>
+      <c r="D38" s="10">
+        <v>18.417999999999999</v>
+      </c>
+      <c r="E38" s="10">
+        <v>18.417999999999999</v>
+      </c>
+      <c r="F38" s="10">
+        <v>18.417999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A39" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="10">
+        <v>20.359000000000002</v>
+      </c>
+      <c r="C39" s="10">
+        <v>20.359000000000002</v>
+      </c>
+      <c r="D39" s="10">
+        <v>20.359000000000002</v>
+      </c>
+      <c r="E39" s="10">
+        <v>20.359000000000002</v>
+      </c>
+      <c r="F39" s="10">
+        <v>20.359000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A40" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="10">
+        <v>19.253329999999998</v>
+      </c>
+      <c r="C40" s="10">
+        <v>19.253329999999998</v>
+      </c>
+      <c r="D40" s="10">
+        <v>19.253329999999998</v>
+      </c>
+      <c r="E40" s="10">
+        <v>19.253329999999998</v>
+      </c>
+      <c r="F40" s="10">
+        <v>19.253329999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A41" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" s="10">
+        <v>20.332999999999998</v>
+      </c>
+      <c r="C41" s="10">
+        <v>20.332999999999998</v>
+      </c>
+      <c r="D41" s="10">
+        <v>20.332999999999998</v>
+      </c>
+      <c r="E41" s="10">
+        <v>20.332999999999998</v>
+      </c>
+      <c r="F41" s="10">
+        <v>20.332999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A42" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" s="10">
+        <v>21.722329999999999</v>
+      </c>
+      <c r="C42" s="10">
+        <v>21.722329999999999</v>
+      </c>
+      <c r="D42" s="10">
+        <v>21.722329999999999</v>
+      </c>
+      <c r="E42" s="10">
+        <v>21.722329999999999</v>
+      </c>
+      <c r="F42" s="10">
+        <v>21.722329999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A43" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" s="10">
+        <v>17.89667</v>
+      </c>
+      <c r="C43" s="10">
+        <v>17.89667</v>
+      </c>
+      <c r="D43" s="10">
+        <v>17.89667</v>
+      </c>
+      <c r="E43" s="10">
+        <v>17.89667</v>
+      </c>
+      <c r="F43" s="10">
+        <v>17.89667</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A44" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44" s="10">
+        <v>26.499669999999998</v>
+      </c>
+      <c r="C44" s="10">
+        <v>26.499669999999998</v>
+      </c>
+      <c r="D44" s="10">
+        <v>26.499669999999998</v>
+      </c>
+      <c r="E44" s="10">
+        <v>26.499669999999998</v>
+      </c>
+      <c r="F44" s="10">
+        <v>26.499669999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A45" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45" s="10">
+        <v>31.853000000000002</v>
+      </c>
+      <c r="C45" s="10">
+        <v>31.853000000000002</v>
+      </c>
+      <c r="D45" s="10">
+        <v>31.853000000000002</v>
+      </c>
+      <c r="E45" s="10">
+        <v>31.853000000000002</v>
+      </c>
+      <c r="F45" s="10">
+        <v>31.853000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A46" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46" s="10">
+        <v>21.780670000000001</v>
+      </c>
+      <c r="C46" s="10">
+        <v>21.780670000000001</v>
+      </c>
+      <c r="D46" s="10">
+        <v>21.780670000000001</v>
+      </c>
+      <c r="E46" s="10">
+        <v>21.780670000000001</v>
+      </c>
+      <c r="F46" s="10">
+        <v>21.780670000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A47" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B47" s="10">
+        <v>20.752669999999998</v>
+      </c>
+      <c r="C47" s="10">
+        <v>20.752669999999998</v>
+      </c>
+      <c r="D47" s="10">
+        <v>20.752669999999998</v>
+      </c>
+      <c r="E47" s="10">
+        <v>20.752669999999998</v>
+      </c>
+      <c r="F47" s="10">
+        <v>20.752669999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A48" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B48" s="10">
+        <v>21.655000000000001</v>
+      </c>
+      <c r="C48" s="10">
+        <v>21.655000000000001</v>
+      </c>
+      <c r="D48" s="10">
+        <v>21.655000000000001</v>
+      </c>
+      <c r="E48" s="10">
+        <v>21.655000000000001</v>
+      </c>
+      <c r="F48" s="10">
+        <v>21.655000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A49" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B49" s="10">
+        <v>21.73667</v>
+      </c>
+      <c r="C49" s="10">
+        <v>21.73667</v>
+      </c>
+      <c r="D49" s="10">
+        <v>21.73667</v>
+      </c>
+      <c r="E49" s="10">
+        <v>21.73667</v>
+      </c>
+      <c r="F49" s="10">
+        <v>21.73667</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A50" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B50" s="10">
+        <v>18.910329999999998</v>
+      </c>
+      <c r="C50" s="10">
+        <v>18.910329999999998</v>
+      </c>
+      <c r="D50" s="10">
+        <v>18.910329999999998</v>
+      </c>
+      <c r="E50" s="10">
+        <v>18.910329999999998</v>
+      </c>
+      <c r="F50" s="10">
+        <v>18.910329999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A51" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B51" s="10">
+        <v>21.186</v>
+      </c>
+      <c r="C51" s="10">
+        <v>21.186</v>
+      </c>
+      <c r="D51" s="10">
+        <v>21.186</v>
+      </c>
+      <c r="E51" s="10">
+        <v>21.186</v>
+      </c>
+      <c r="F51" s="10">
+        <v>21.186</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A52" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B52" s="10">
+        <v>21.67033</v>
+      </c>
+      <c r="C52" s="10">
+        <v>21.67033</v>
+      </c>
+      <c r="D52" s="10">
+        <v>21.67033</v>
+      </c>
+      <c r="E52" s="10">
+        <v>21.67033</v>
+      </c>
+      <c r="F52" s="10">
+        <v>21.67033</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A53" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B53" s="10">
+        <v>20.478999999999999</v>
+      </c>
+      <c r="C53" s="10">
+        <v>20.478999999999999</v>
+      </c>
+      <c r="D53" s="10">
+        <v>20.478999999999999</v>
+      </c>
+      <c r="E53" s="10">
+        <v>20.478999999999999</v>
+      </c>
+      <c r="F53" s="10">
+        <v>20.478999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A54" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B54" s="10">
+        <v>19.824999999999999</v>
+      </c>
+      <c r="C54" s="10">
+        <v>19.824999999999999</v>
+      </c>
+      <c r="D54" s="10">
+        <v>19.824999999999999</v>
+      </c>
+      <c r="E54" s="10">
+        <v>19.824999999999999</v>
+      </c>
+      <c r="F54" s="10">
+        <v>19.824999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A55" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B55" s="10">
+        <v>19.760000000000002</v>
+      </c>
+      <c r="C55" s="10">
+        <v>19.760000000000002</v>
+      </c>
+      <c r="D55" s="10">
+        <v>19.760000000000002</v>
+      </c>
+      <c r="E55" s="10">
+        <v>19.760000000000002</v>
+      </c>
+      <c r="F55" s="10">
+        <v>19.760000000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A56" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B56" s="10">
+        <v>17.796330000000001</v>
+      </c>
+      <c r="C56" s="10">
+        <v>17.796330000000001</v>
+      </c>
+      <c r="D56" s="10">
+        <v>17.796330000000001</v>
+      </c>
+      <c r="E56" s="10">
+        <v>17.796330000000001</v>
+      </c>
+      <c r="F56" s="10">
+        <v>17.796330000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A57" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B57" s="10">
+        <v>16.451329999999999</v>
+      </c>
+      <c r="C57" s="10">
+        <v>16.451329999999999</v>
+      </c>
+      <c r="D57" s="10">
+        <v>16.451329999999999</v>
+      </c>
+      <c r="E57" s="10">
+        <v>16.451329999999999</v>
+      </c>
+      <c r="F57" s="10">
+        <v>16.451329999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A58" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B58" s="10">
+        <v>14.813330000000001</v>
+      </c>
+      <c r="C58" s="10">
+        <v>14.813330000000001</v>
+      </c>
+      <c r="D58" s="10">
+        <v>14.813330000000001</v>
+      </c>
+      <c r="E58" s="10">
+        <v>14.813330000000001</v>
+      </c>
+      <c r="F58" s="10">
+        <v>14.813330000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A59" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B59" s="10">
+        <v>17.776669999999999</v>
+      </c>
+      <c r="C59" s="10">
+        <v>17.776669999999999</v>
+      </c>
+      <c r="D59" s="10">
+        <v>17.776669999999999</v>
+      </c>
+      <c r="E59" s="10">
+        <v>17.776669999999999</v>
+      </c>
+      <c r="F59" s="10">
+        <v>17.776669999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A60" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B60" s="10">
+        <v>18.496670000000002</v>
+      </c>
+      <c r="C60" s="10">
+        <v>18.496670000000002</v>
+      </c>
+      <c r="D60" s="10">
+        <v>18.496670000000002</v>
+      </c>
+      <c r="E60" s="10">
+        <v>18.496670000000002</v>
+      </c>
+      <c r="F60" s="10">
+        <v>18.496670000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A61" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B61" s="10">
+        <v>17.656669999999998</v>
+      </c>
+      <c r="C61" s="10">
+        <v>17.656669999999998</v>
+      </c>
+      <c r="D61" s="10">
+        <v>17.656669999999998</v>
+      </c>
+      <c r="E61" s="10">
+        <v>17.656669999999998</v>
+      </c>
+      <c r="F61" s="10">
+        <v>17.656669999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A62" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B62" s="10">
+        <v>18.356670000000001</v>
+      </c>
+      <c r="C62" s="10">
+        <v>18.356670000000001</v>
+      </c>
+      <c r="D62" s="10">
+        <v>18.356670000000001</v>
+      </c>
+      <c r="E62" s="10">
+        <v>18.356670000000001</v>
+      </c>
+      <c r="F62" s="10">
+        <v>18.356670000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A63" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B63" s="10">
+        <v>19.343330000000002</v>
+      </c>
+      <c r="C63" s="10">
+        <v>19.343330000000002</v>
+      </c>
+      <c r="D63" s="10">
+        <v>19.343330000000002</v>
+      </c>
+      <c r="E63" s="10">
+        <v>19.343330000000002</v>
+      </c>
+      <c r="F63" s="10">
+        <v>19.343330000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A64" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B64" s="10">
+        <v>17.85333</v>
+      </c>
+      <c r="C64" s="10">
+        <v>17.85333</v>
+      </c>
+      <c r="D64" s="10">
+        <v>17.85333</v>
+      </c>
+      <c r="E64" s="10">
+        <v>17.85333</v>
+      </c>
+      <c r="F64" s="10">
+        <v>17.85333</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A65" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B65" s="10">
+        <v>18.156669999999998</v>
+      </c>
+      <c r="C65" s="10">
+        <v>18.156669999999998</v>
+      </c>
+      <c r="D65" s="10">
+        <v>18.156669999999998</v>
+      </c>
+      <c r="E65" s="10">
+        <v>18.156669999999998</v>
+      </c>
+      <c r="F65" s="10">
+        <v>18.156669999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A66" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B66" s="10">
+        <v>19.77</v>
+      </c>
+      <c r="C66" s="10">
+        <v>19.77</v>
+      </c>
+      <c r="D66" s="10">
+        <v>19.77</v>
+      </c>
+      <c r="E66" s="10">
+        <v>19.77</v>
+      </c>
+      <c r="F66" s="10">
+        <v>19.77</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A67" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B67" s="10">
+        <v>21.75667</v>
+      </c>
+      <c r="C67" s="10">
+        <v>21.75667</v>
+      </c>
+      <c r="D67" s="10">
+        <v>21.75667</v>
+      </c>
+      <c r="E67" s="10">
+        <v>21.75667</v>
+      </c>
+      <c r="F67" s="10">
+        <v>21.75667</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A68" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B68" s="10">
+        <v>22.42333</v>
+      </c>
+      <c r="C68" s="10">
+        <v>22.42333</v>
+      </c>
+      <c r="D68" s="10">
+        <v>22.42333</v>
+      </c>
+      <c r="E68" s="10">
+        <v>22.42333</v>
+      </c>
+      <c r="F68" s="10">
+        <v>22.42333</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A69" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B69" s="10">
+        <v>24.66667</v>
+      </c>
+      <c r="C69" s="10">
+        <v>24.66667</v>
+      </c>
+      <c r="D69" s="10">
+        <v>24.66667</v>
+      </c>
+      <c r="E69" s="10">
+        <v>24.66667</v>
+      </c>
+      <c r="F69" s="10">
+        <v>24.66667</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A70" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B70" s="10">
+        <v>22.79</v>
+      </c>
+      <c r="C70" s="10">
+        <v>22.79</v>
+      </c>
+      <c r="D70" s="10">
+        <v>22.79</v>
+      </c>
+      <c r="E70" s="10">
+        <v>22.79</v>
+      </c>
+      <c r="F70" s="10">
+        <v>22.79</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A71" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B71" s="10">
+        <v>19.906669999999998</v>
+      </c>
+      <c r="C71" s="10">
+        <v>19.906669999999998</v>
+      </c>
+      <c r="D71" s="10">
+        <v>19.906669999999998</v>
+      </c>
+      <c r="E71" s="10">
+        <v>19.906669999999998</v>
+      </c>
+      <c r="F71" s="10">
+        <v>19.906669999999998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A72" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B72" s="10">
+        <v>19.783329999999999</v>
+      </c>
+      <c r="C72" s="10">
+        <v>19.783329999999999</v>
+      </c>
+      <c r="D72" s="10">
+        <v>19.783329999999999</v>
+      </c>
+      <c r="E72" s="10">
+        <v>19.783329999999999</v>
+      </c>
+      <c r="F72" s="10">
+        <v>19.783329999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A73" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B73" s="10">
+        <v>19.91667</v>
+      </c>
+      <c r="C73" s="10">
+        <v>19.91667</v>
+      </c>
+      <c r="D73" s="10">
+        <v>19.91667</v>
+      </c>
+      <c r="E73" s="10">
+        <v>19.91667</v>
+      </c>
+      <c r="F73" s="10">
+        <v>19.91667</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A74" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B74" s="10">
+        <v>15.93</v>
+      </c>
+      <c r="C74" s="10">
+        <v>15.93</v>
+      </c>
+      <c r="D74" s="10">
+        <v>15.93</v>
+      </c>
+      <c r="E74" s="10">
+        <v>15.93</v>
+      </c>
+      <c r="F74" s="10">
+        <v>15.93</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A75" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B75" s="10">
+        <v>14.65333</v>
+      </c>
+      <c r="C75" s="10">
+        <v>14.65333</v>
+      </c>
+      <c r="D75" s="10">
+        <v>14.65333</v>
+      </c>
+      <c r="E75" s="10">
+        <v>14.65333</v>
+      </c>
+      <c r="F75" s="10">
+        <v>14.65333</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A76" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B76" s="10">
+        <v>14.13</v>
+      </c>
+      <c r="C76" s="10">
+        <v>14.13</v>
+      </c>
+      <c r="D76" s="10">
+        <v>14.13</v>
+      </c>
+      <c r="E76" s="10">
+        <v>14.13</v>
+      </c>
+      <c r="F76" s="10">
+        <v>14.13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A77" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B77" s="10">
+        <v>12.84</v>
+      </c>
+      <c r="C77" s="10">
+        <v>12.84</v>
+      </c>
+      <c r="D77" s="10">
+        <v>12.84</v>
+      </c>
+      <c r="E77" s="10">
+        <v>12.84</v>
+      </c>
+      <c r="F77" s="10">
+        <v>12.84</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A78" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B78" s="10">
+        <v>13.046670000000001</v>
+      </c>
+      <c r="C78" s="10">
+        <v>13.046670000000001</v>
+      </c>
+      <c r="D78" s="10">
+        <v>13.046670000000001</v>
+      </c>
+      <c r="E78" s="10">
+        <v>13.046670000000001</v>
+      </c>
+      <c r="F78" s="10">
+        <v>13.046670000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A79" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B79" s="10">
+        <v>17.66</v>
+      </c>
+      <c r="C79" s="10">
+        <v>17.66</v>
+      </c>
+      <c r="D79" s="10">
+        <v>17.66</v>
+      </c>
+      <c r="E79" s="10">
+        <v>17.66</v>
+      </c>
+      <c r="F79" s="10">
+        <v>17.66</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A80" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B80" s="10">
+        <v>21.73667</v>
+      </c>
+      <c r="C80" s="10">
+        <v>21.73667</v>
+      </c>
+      <c r="D80" s="10">
+        <v>21.73667</v>
+      </c>
+      <c r="E80" s="10">
+        <v>21.73667</v>
+      </c>
+      <c r="F80" s="10">
+        <v>21.73667</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A81" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B81" s="10">
+        <v>24.563330000000001</v>
+      </c>
+      <c r="C81" s="10">
+        <v>24.563330000000001</v>
+      </c>
+      <c r="D81" s="10">
+        <v>24.563330000000001</v>
+      </c>
+      <c r="E81" s="10">
+        <v>24.563330000000001</v>
+      </c>
+      <c r="F81" s="10">
+        <v>24.563330000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A82" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B82" s="10">
+        <v>28.80667</v>
+      </c>
+      <c r="C82" s="10">
+        <v>28.80667</v>
+      </c>
+      <c r="D82" s="10">
+        <v>28.80667</v>
+      </c>
+      <c r="E82" s="10">
+        <v>28.80667</v>
+      </c>
+      <c r="F82" s="10">
+        <v>28.80667</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A83" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B83" s="10">
+        <v>28.783329999999999</v>
+      </c>
+      <c r="C83" s="10">
+        <v>28.783329999999999</v>
+      </c>
+      <c r="D83" s="10">
+        <v>28.783329999999999</v>
+      </c>
+      <c r="E83" s="10">
+        <v>28.783329999999999</v>
+      </c>
+      <c r="F83" s="10">
+        <v>28.783329999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A84" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B84" s="10">
+        <v>31.623329999999999</v>
+      </c>
+      <c r="C84" s="10">
+        <v>31.623329999999999</v>
+      </c>
+      <c r="D84" s="10">
+        <v>31.623329999999999</v>
+      </c>
+      <c r="E84" s="10">
+        <v>31.623329999999999</v>
+      </c>
+      <c r="F84" s="10">
+        <v>31.623329999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A85" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B85" s="10">
+        <v>31.98</v>
+      </c>
+      <c r="C85" s="10">
+        <v>31.98</v>
+      </c>
+      <c r="D85" s="10">
+        <v>31.98</v>
+      </c>
+      <c r="E85" s="10">
+        <v>31.98</v>
+      </c>
+      <c r="F85" s="10">
+        <v>31.98</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A86" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B86" s="10">
+        <v>28.81</v>
+      </c>
+      <c r="C86" s="10">
+        <v>28.81</v>
+      </c>
+      <c r="D86" s="10">
+        <v>28.81</v>
+      </c>
+      <c r="E86" s="10">
+        <v>28.81</v>
+      </c>
+      <c r="F86" s="10">
+        <v>28.81</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A87" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B87" s="10">
+        <v>27.883330000000001</v>
+      </c>
+      <c r="C87" s="10">
+        <v>27.883330000000001</v>
+      </c>
+      <c r="D87" s="10">
+        <v>27.883330000000001</v>
+      </c>
+      <c r="E87" s="10">
+        <v>27.883330000000001</v>
+      </c>
+      <c r="F87" s="10">
+        <v>27.883330000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A88" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B88" s="10">
+        <v>26.6</v>
+      </c>
+      <c r="C88" s="10">
+        <v>26.6</v>
+      </c>
+      <c r="D88" s="10">
+        <v>26.6</v>
+      </c>
+      <c r="E88" s="10">
+        <v>26.6</v>
+      </c>
+      <c r="F88" s="10">
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A89" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B89" s="10">
+        <v>20.40333</v>
+      </c>
+      <c r="C89" s="10">
+        <v>20.40333</v>
+      </c>
+      <c r="D89" s="10">
+        <v>20.40333</v>
+      </c>
+      <c r="E89" s="10">
+        <v>20.40333</v>
+      </c>
+      <c r="F89" s="10">
+        <v>20.40333</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A90" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B90" s="10">
+        <v>21.61</v>
+      </c>
+      <c r="C90" s="10">
+        <v>21.61</v>
+      </c>
+      <c r="D90" s="10">
+        <v>21.61</v>
+      </c>
+      <c r="E90" s="10">
+        <v>21.61</v>
+      </c>
+      <c r="F90" s="10">
+        <v>21.61</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A91" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B91" s="10">
+        <v>26.27</v>
+      </c>
+      <c r="C91" s="10">
+        <v>26.27</v>
+      </c>
+      <c r="D91" s="10">
+        <v>26.27</v>
+      </c>
+      <c r="E91" s="10">
+        <v>26.27</v>
+      </c>
+      <c r="F91" s="10">
+        <v>26.27</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A92" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B92" s="10">
+        <v>28.33</v>
+      </c>
+      <c r="C92" s="10">
+        <v>28.33</v>
+      </c>
+      <c r="D92" s="10">
+        <v>28.33</v>
+      </c>
+      <c r="E92" s="10">
+        <v>28.33</v>
+      </c>
+      <c r="F92" s="10">
+        <v>28.33</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A93" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B93" s="10">
+        <v>28.18</v>
+      </c>
+      <c r="C93" s="10">
+        <v>28.18</v>
+      </c>
+      <c r="D93" s="10">
+        <v>28.18</v>
+      </c>
+      <c r="E93" s="10">
+        <v>28.18</v>
+      </c>
+      <c r="F93" s="10">
+        <v>28.18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A94" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B94" s="10">
+        <v>34.119999999999997</v>
+      </c>
+      <c r="C94" s="10">
+        <v>34.119999999999997</v>
+      </c>
+      <c r="D94" s="10">
+        <v>34.119999999999997</v>
+      </c>
+      <c r="E94" s="10">
+        <v>34.119999999999997</v>
+      </c>
+      <c r="F94" s="10">
+        <v>34.119999999999997</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A95" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B95" s="10">
+        <v>29.036670000000001</v>
+      </c>
+      <c r="C95" s="10">
+        <v>29.036670000000001</v>
+      </c>
+      <c r="D95" s="10">
+        <v>29.036670000000001</v>
+      </c>
+      <c r="E95" s="10">
+        <v>29.036670000000001</v>
+      </c>
+      <c r="F95" s="10">
+        <v>29.036670000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A96" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B96" s="10">
+        <v>30.213329999999999</v>
+      </c>
+      <c r="C96" s="10">
+        <v>30.213329999999999</v>
+      </c>
+      <c r="D96" s="10">
+        <v>30.213329999999999</v>
+      </c>
+      <c r="E96" s="10">
+        <v>30.213329999999999</v>
+      </c>
+      <c r="F96" s="10">
+        <v>30.213329999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A97" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B97" s="10">
+        <v>31.19</v>
+      </c>
+      <c r="C97" s="10">
+        <v>31.19</v>
+      </c>
+      <c r="D97" s="10">
+        <v>31.19</v>
+      </c>
+      <c r="E97" s="10">
+        <v>31.19</v>
+      </c>
+      <c r="F97" s="10">
+        <v>31.19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A98" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B98" s="10">
+        <v>35.25667</v>
+      </c>
+      <c r="C98" s="10">
+        <v>35.25667</v>
+      </c>
+      <c r="D98" s="10">
+        <v>35.25667</v>
+      </c>
+      <c r="E98" s="10">
+        <v>35.25667</v>
+      </c>
+      <c r="F98" s="10">
+        <v>35.25667</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A99" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B99" s="10">
+        <v>38.33</v>
+      </c>
+      <c r="C99" s="10">
+        <v>38.33</v>
+      </c>
+      <c r="D99" s="10">
+        <v>38.33</v>
+      </c>
+      <c r="E99" s="10">
+        <v>38.33</v>
+      </c>
+      <c r="F99" s="10">
+        <v>38.33</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A100" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B100" s="10">
+        <v>43.86</v>
+      </c>
+      <c r="C100" s="10">
+        <v>43.86</v>
+      </c>
+      <c r="D100" s="10">
+        <v>43.86</v>
+      </c>
+      <c r="E100" s="10">
+        <v>43.86</v>
+      </c>
+      <c r="F100" s="10">
+        <v>43.86</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A101" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B101" s="10">
+        <v>48.306669999999997</v>
+      </c>
+      <c r="C101" s="10">
+        <v>48.306669999999997</v>
+      </c>
+      <c r="D101" s="10">
+        <v>48.306669999999997</v>
+      </c>
+      <c r="E101" s="10">
+        <v>48.306669999999997</v>
+      </c>
+      <c r="F101" s="10">
+        <v>48.306669999999997</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A102" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B102" s="10">
+        <v>49.706670000000003</v>
+      </c>
+      <c r="C102" s="10">
+        <v>49.706670000000003</v>
+      </c>
+      <c r="D102" s="10">
+        <v>49.706670000000003</v>
+      </c>
+      <c r="E102" s="10">
+        <v>49.706670000000003</v>
+      </c>
+      <c r="F102" s="10">
+        <v>49.706670000000003</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A103" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B103" s="10">
+        <v>53.043329999999997</v>
+      </c>
+      <c r="C103" s="10">
+        <v>53.043329999999997</v>
+      </c>
+      <c r="D103" s="10">
+        <v>53.043329999999997</v>
+      </c>
+      <c r="E103" s="10">
+        <v>53.043329999999997</v>
+      </c>
+      <c r="F103" s="10">
+        <v>53.043329999999997</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A104" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B104" s="10">
+        <v>63.08</v>
+      </c>
+      <c r="C104" s="10">
+        <v>63.08</v>
+      </c>
+      <c r="D104" s="10">
+        <v>63.08</v>
+      </c>
+      <c r="E104" s="10">
+        <v>63.08</v>
+      </c>
+      <c r="F104" s="10">
+        <v>63.08</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A105" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B105" s="10">
+        <v>60.033329999999999</v>
+      </c>
+      <c r="C105" s="10">
+        <v>60.033329999999999</v>
+      </c>
+      <c r="D105" s="10">
+        <v>60.033329999999999</v>
+      </c>
+      <c r="E105" s="10">
+        <v>60.033329999999999</v>
+      </c>
+      <c r="F105" s="10">
+        <v>60.033329999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A106" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B106" s="10">
+        <v>63.346670000000003</v>
+      </c>
+      <c r="C106" s="10">
+        <v>63.346670000000003</v>
+      </c>
+      <c r="D106" s="10">
+        <v>63.346670000000003</v>
+      </c>
+      <c r="E106" s="10">
+        <v>63.346670000000003</v>
+      </c>
+      <c r="F106" s="10">
+        <v>63.346670000000003</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A107" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B107" s="10">
+        <v>70.53</v>
+      </c>
+      <c r="C107" s="10">
+        <v>70.53</v>
+      </c>
+      <c r="D107" s="10">
+        <v>70.53</v>
+      </c>
+      <c r="E107" s="10">
+        <v>70.53</v>
+      </c>
+      <c r="F107" s="10">
+        <v>70.53</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A108" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B108" s="10">
+        <v>70.443340000000006</v>
+      </c>
+      <c r="C108" s="10">
+        <v>70.443340000000006</v>
+      </c>
+      <c r="D108" s="10">
+        <v>70.443340000000006</v>
+      </c>
+      <c r="E108" s="10">
+        <v>70.443340000000006</v>
+      </c>
+      <c r="F108" s="10">
+        <v>70.443340000000006</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A109" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B109" s="10">
+        <v>60.093330000000002</v>
+      </c>
+      <c r="C109" s="10">
+        <v>60.093330000000002</v>
+      </c>
+      <c r="D109" s="10">
+        <v>60.093330000000002</v>
+      </c>
+      <c r="E109" s="10">
+        <v>60.093330000000002</v>
+      </c>
+      <c r="F109" s="10">
+        <v>60.093330000000002</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A110" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B110" s="10">
+        <v>58.13</v>
+      </c>
+      <c r="C110" s="10">
+        <v>58.13</v>
+      </c>
+      <c r="D110" s="10">
+        <v>58.13</v>
+      </c>
+      <c r="E110" s="10">
+        <v>58.13</v>
+      </c>
+      <c r="F110" s="10">
+        <v>58.13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A111" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B111" s="10">
+        <v>64.97</v>
+      </c>
+      <c r="C111" s="10">
+        <v>64.97</v>
+      </c>
+      <c r="D111" s="10">
+        <v>64.97</v>
+      </c>
+      <c r="E111" s="10">
+        <v>64.97</v>
+      </c>
+      <c r="F111" s="10">
+        <v>64.97</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A112" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B112" s="10">
+        <v>75.5</v>
+      </c>
+      <c r="C112" s="10">
+        <v>75.5</v>
+      </c>
+      <c r="D112" s="10">
+        <v>75.5</v>
+      </c>
+      <c r="E112" s="10">
+        <v>75.5</v>
+      </c>
+      <c r="F112" s="10">
+        <v>75.5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A113" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B113" s="10">
+        <v>90.85</v>
+      </c>
+      <c r="C113" s="10">
+        <v>90.85</v>
+      </c>
+      <c r="D113" s="10">
+        <v>90.85</v>
+      </c>
+      <c r="E113" s="10">
+        <v>90.85</v>
+      </c>
+      <c r="F113" s="10">
+        <v>90.85</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A114" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B114" s="10">
+        <v>97.953329999999994</v>
+      </c>
+      <c r="C114" s="10">
+        <v>97.953329999999994</v>
+      </c>
+      <c r="D114" s="10">
+        <v>97.953329999999994</v>
+      </c>
+      <c r="E114" s="10">
+        <v>97.953329999999994</v>
+      </c>
+      <c r="F114" s="10">
+        <v>97.953329999999994</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A115" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B115" s="10">
+        <v>123.9633</v>
+      </c>
+      <c r="C115" s="10">
+        <v>123.9633</v>
+      </c>
+      <c r="D115" s="10">
+        <v>123.9633</v>
+      </c>
+      <c r="E115" s="10">
+        <v>123.9633</v>
+      </c>
+      <c r="F115" s="10">
+        <v>123.9633</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A116" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B116" s="10">
+        <v>117.9833</v>
+      </c>
+      <c r="C116" s="10">
+        <v>117.9833</v>
+      </c>
+      <c r="D116" s="10">
+        <v>117.9833</v>
+      </c>
+      <c r="E116" s="10">
+        <v>117.9833</v>
+      </c>
+      <c r="F116" s="10">
+        <v>117.9833</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A117" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B117" s="10">
+        <v>58.37</v>
+      </c>
+      <c r="C117" s="10">
+        <v>58.37</v>
+      </c>
+      <c r="D117" s="10">
+        <v>58.37</v>
+      </c>
+      <c r="E117" s="10">
+        <v>58.37</v>
+      </c>
+      <c r="F117" s="10">
+        <v>58.37</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A118" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B118" s="10">
+        <v>42.96</v>
+      </c>
+      <c r="C118" s="10">
+        <v>42.96</v>
+      </c>
+      <c r="D118" s="10">
+        <v>42.96</v>
+      </c>
+      <c r="E118" s="10">
+        <v>42.96</v>
+      </c>
+      <c r="F118" s="10">
+        <v>42.96</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A119" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B119" s="10">
+        <v>59.543329999999997</v>
+      </c>
+      <c r="C119" s="10">
+        <v>59.543329999999997</v>
+      </c>
+      <c r="D119" s="10">
+        <v>59.543329999999997</v>
+      </c>
+      <c r="E119" s="10">
+        <v>59.543329999999997</v>
+      </c>
+      <c r="F119" s="10">
+        <v>59.543329999999997</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A120" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B120" s="10">
+        <v>68.203329999999994</v>
+      </c>
+      <c r="C120" s="10">
+        <v>68.203329999999994</v>
+      </c>
+      <c r="D120" s="10">
+        <v>68.203329999999994</v>
+      </c>
+      <c r="E120" s="10">
+        <v>68.203329999999994</v>
+      </c>
+      <c r="F120" s="10">
+        <v>68.203329999999994</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A121" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B121" s="10">
+        <v>76.066670000000002</v>
+      </c>
+      <c r="C121" s="10">
+        <v>76.066670000000002</v>
+      </c>
+      <c r="D121" s="10">
+        <v>76.066670000000002</v>
+      </c>
+      <c r="E121" s="10">
+        <v>76.066670000000002</v>
+      </c>
+      <c r="F121" s="10">
+        <v>76.066670000000002</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A122" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B122" s="10">
+        <v>78.626660000000001</v>
+      </c>
+      <c r="C122" s="10">
+        <v>78.626660000000001</v>
+      </c>
+      <c r="D122" s="10">
+        <v>78.626660000000001</v>
+      </c>
+      <c r="E122" s="10">
+        <v>78.626660000000001</v>
+      </c>
+      <c r="F122" s="10">
+        <v>78.626660000000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A123" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B123" s="10">
+        <v>77.89</v>
+      </c>
+      <c r="C123" s="10">
+        <v>77.89</v>
+      </c>
+      <c r="D123" s="10">
+        <v>77.89</v>
+      </c>
+      <c r="E123" s="10">
+        <v>77.89</v>
+      </c>
+      <c r="F123" s="10">
+        <v>77.89</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A124" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B124" s="10">
+        <v>76.166659999999993</v>
+      </c>
+      <c r="C124" s="10">
+        <v>76.166659999999993</v>
+      </c>
+      <c r="D124" s="10">
+        <v>76.166659999999993</v>
+      </c>
+      <c r="E124" s="10">
+        <v>76.166659999999993</v>
+      </c>
+      <c r="F124" s="10">
+        <v>76.166659999999993</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A125" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B125" s="10">
+        <v>85.026660000000007</v>
+      </c>
+      <c r="C125" s="10">
+        <v>85.026660000000007</v>
+      </c>
+      <c r="D125" s="10">
+        <v>85.026660000000007</v>
+      </c>
+      <c r="E125" s="10">
+        <v>85.026660000000007</v>
+      </c>
+      <c r="F125" s="10">
+        <v>85.026660000000007</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A126" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B126" s="10">
+        <v>93.98</v>
+      </c>
+      <c r="C126" s="10">
+        <v>93.98</v>
+      </c>
+      <c r="D126" s="10">
+        <v>93.98</v>
+      </c>
+      <c r="E126" s="10">
+        <v>93.98</v>
+      </c>
+      <c r="F126" s="10">
+        <v>93.98</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A127" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B127" s="10">
+        <v>102.55329999999999</v>
+      </c>
+      <c r="C127" s="10">
+        <v>102.55329999999999</v>
+      </c>
+      <c r="D127" s="10">
+        <v>102.55329999999999</v>
+      </c>
+      <c r="E127" s="10">
+        <v>102.55329999999999</v>
+      </c>
+      <c r="F127" s="10">
+        <v>102.55329999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A128" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B128" s="10">
+        <v>89.71</v>
+      </c>
+      <c r="C128" s="10">
+        <v>89.71</v>
+      </c>
+      <c r="D128" s="10">
+        <v>89.71</v>
+      </c>
+      <c r="E128" s="10">
+        <v>89.71</v>
+      </c>
+      <c r="F128" s="10">
+        <v>89.71</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A129" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B129" s="10">
+        <v>94.063329999999993</v>
+      </c>
+      <c r="C129" s="10">
+        <v>94.063329999999993</v>
+      </c>
+      <c r="D129" s="10">
+        <v>94.063329999999993</v>
+      </c>
+      <c r="E129" s="10">
+        <v>94.063329999999993</v>
+      </c>
+      <c r="F129" s="10">
+        <v>94.063329999999993</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A130" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B130" s="10">
+        <v>102.8933</v>
+      </c>
+      <c r="C130" s="10">
+        <v>102.8933</v>
+      </c>
+      <c r="D130" s="10">
+        <v>102.8933</v>
+      </c>
+      <c r="E130" s="10">
+        <v>102.8933</v>
+      </c>
+      <c r="F130" s="10">
+        <v>102.8933</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A131" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B131" s="10">
+        <v>93.48</v>
+      </c>
+      <c r="C131" s="10">
+        <v>93.48</v>
+      </c>
+      <c r="D131" s="10">
+        <v>93.48</v>
+      </c>
+      <c r="E131" s="10">
+        <v>93.48</v>
+      </c>
+      <c r="F131" s="10">
+        <v>93.48</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A132" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B132" s="10">
+        <v>92.27</v>
+      </c>
+      <c r="C132" s="10">
+        <v>92.27</v>
+      </c>
+      <c r="D132" s="10">
+        <v>92.27</v>
+      </c>
+      <c r="E132" s="10">
+        <v>92.27</v>
+      </c>
+      <c r="F132" s="10">
+        <v>92.27</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A133" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B133" s="10">
+        <v>88.16</v>
+      </c>
+      <c r="C133" s="10">
+        <v>88.16</v>
+      </c>
+      <c r="D133" s="10">
+        <v>88.16</v>
+      </c>
+      <c r="E133" s="10">
+        <v>88.16</v>
+      </c>
+      <c r="F133" s="10">
+        <v>88.16</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A134" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B134" s="10">
+        <v>94.323329999999999</v>
+      </c>
+      <c r="C134" s="10">
+        <v>94.323329999999999</v>
+      </c>
+      <c r="D134" s="10">
+        <v>94.323329999999999</v>
+      </c>
+      <c r="E134" s="10">
+        <v>94.323329999999999</v>
+      </c>
+      <c r="F134" s="10">
+        <v>94.323329999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A135" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B135" s="10">
+        <v>94.223339999999993</v>
+      </c>
+      <c r="C135" s="10">
+        <v>94.223339999999993</v>
+      </c>
+      <c r="D135" s="10">
+        <v>94.223339999999993</v>
+      </c>
+      <c r="E135" s="10">
+        <v>94.223339999999993</v>
+      </c>
+      <c r="F135" s="10">
+        <v>94.223339999999993</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A136" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B136" s="10">
+        <v>105.85</v>
+      </c>
+      <c r="C136" s="10">
+        <v>105.85</v>
+      </c>
+      <c r="D136" s="10">
+        <v>105.85</v>
+      </c>
+      <c r="E136" s="10">
+        <v>105.85</v>
+      </c>
+      <c r="F136" s="10">
+        <v>105.85</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A137" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B137" s="10">
+        <v>97.36</v>
+      </c>
+      <c r="C137" s="10">
+        <v>97.36</v>
+      </c>
+      <c r="D137" s="10">
+        <v>97.36</v>
+      </c>
+      <c r="E137" s="10">
+        <v>97.36</v>
+      </c>
+      <c r="F137" s="10">
+        <v>97.36</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A138" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B138" s="10">
+        <v>98.746669999999995</v>
+      </c>
+      <c r="C138" s="10">
+        <v>98.746669999999995</v>
+      </c>
+      <c r="D138" s="10">
+        <v>98.746669999999995</v>
+      </c>
+      <c r="E138" s="10">
+        <v>98.746669999999995</v>
+      </c>
+      <c r="F138" s="10">
+        <v>98.746669999999995</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A139" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B139" s="10">
+        <v>103.3467</v>
+      </c>
+      <c r="C139" s="10">
+        <v>103.3467</v>
+      </c>
+      <c r="D139" s="10">
+        <v>103.3467</v>
+      </c>
+      <c r="E139" s="10">
+        <v>103.3467</v>
+      </c>
+      <c r="F139" s="10">
+        <v>103.3467</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A140" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B140" s="10">
+        <v>97.78</v>
+      </c>
+      <c r="C140" s="10">
+        <v>97.78</v>
+      </c>
+      <c r="D140" s="10">
+        <v>97.78</v>
+      </c>
+      <c r="E140" s="10">
+        <v>97.78</v>
+      </c>
+      <c r="F140" s="10">
+        <v>97.78</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A141" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B141" s="10">
+        <v>73.16</v>
+      </c>
+      <c r="C141" s="10">
+        <v>73.16</v>
+      </c>
+      <c r="D141" s="10">
+        <v>73.16</v>
+      </c>
+      <c r="E141" s="10">
+        <v>73.16</v>
+      </c>
+      <c r="F141" s="10">
+        <v>73.16</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A142" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B142" s="10">
+        <v>48.64</v>
+      </c>
+      <c r="C142" s="10">
+        <v>48.64</v>
+      </c>
+      <c r="D142" s="10">
+        <v>48.64</v>
+      </c>
+      <c r="E142" s="10">
+        <v>48.64</v>
+      </c>
+      <c r="F142" s="10">
+        <v>48.64</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A143" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B143" s="10">
+        <v>57.856670000000001</v>
+      </c>
+      <c r="C143" s="10">
+        <v>57.856670000000001</v>
+      </c>
+      <c r="D143" s="10">
+        <v>57.856670000000001</v>
+      </c>
+      <c r="E143" s="10">
+        <v>57.856670000000001</v>
+      </c>
+      <c r="F143" s="10">
+        <v>57.856670000000001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A144" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B144" s="10">
+        <v>46.42</v>
+      </c>
+      <c r="C144" s="10">
+        <v>46.42</v>
+      </c>
+      <c r="D144" s="10">
+        <v>46.42</v>
+      </c>
+      <c r="E144" s="10">
+        <v>46.42</v>
+      </c>
+      <c r="F144" s="10">
+        <v>46.42</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A145" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B145" s="10">
+        <v>42.023330000000001</v>
+      </c>
+      <c r="C145" s="10">
+        <v>42.023330000000001</v>
+      </c>
+      <c r="D145" s="10">
+        <v>42.023330000000001</v>
+      </c>
+      <c r="E145" s="10">
+        <v>42.023330000000001</v>
+      </c>
+      <c r="F145" s="10">
+        <v>42.023330000000001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A146" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B146" s="10">
+        <v>33.356670000000001</v>
+      </c>
+      <c r="C146" s="10">
+        <v>33.356670000000001</v>
+      </c>
+      <c r="D146" s="10">
+        <v>33.356670000000001</v>
+      </c>
+      <c r="E146" s="10">
+        <v>33.356670000000001</v>
+      </c>
+      <c r="F146" s="10">
+        <v>33.356670000000001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A147" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B147" s="10">
+        <v>45.44</v>
+      </c>
+      <c r="C147" s="10">
+        <v>45.44</v>
+      </c>
+      <c r="D147" s="10">
+        <v>45.44</v>
+      </c>
+      <c r="E147" s="10">
+        <v>45.44</v>
+      </c>
+      <c r="F147" s="10">
+        <v>45.44</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A148" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B148" s="10">
+        <v>44.89</v>
+      </c>
+      <c r="C148" s="10">
+        <v>44.89</v>
+      </c>
+      <c r="D148" s="10">
+        <v>44.89</v>
+      </c>
+      <c r="E148" s="10">
+        <v>44.89</v>
+      </c>
+      <c r="F148" s="10">
+        <v>44.89</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A149" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B149" s="10">
+        <v>49.2</v>
+      </c>
+      <c r="C149" s="10">
+        <v>49.2</v>
+      </c>
+      <c r="D149" s="10">
+        <v>49.2</v>
+      </c>
+      <c r="E149" s="10">
+        <v>49.2</v>
+      </c>
+      <c r="F149" s="10">
+        <v>49.2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A150" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B150" s="10">
+        <v>51.833329999999997</v>
+      </c>
+      <c r="C150" s="10">
+        <v>51.833329999999997</v>
+      </c>
+      <c r="D150" s="10">
+        <v>51.833329999999997</v>
+      </c>
+      <c r="E150" s="10">
+        <v>51.833329999999997</v>
+      </c>
+      <c r="F150" s="10">
+        <v>51.833329999999997</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A151" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B151" s="10">
+        <v>48.26</v>
+      </c>
+      <c r="C151" s="10">
+        <v>48.26</v>
+      </c>
+      <c r="D151" s="10">
+        <v>48.26</v>
+      </c>
+      <c r="E151" s="10">
+        <v>48.26</v>
+      </c>
+      <c r="F151" s="10">
+        <v>48.26</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A152" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B152" s="10">
+        <v>48.163330000000002</v>
+      </c>
+      <c r="C152" s="10">
+        <v>48.163330000000002</v>
+      </c>
+      <c r="D152" s="10">
+        <v>48.163330000000002</v>
+      </c>
+      <c r="E152" s="10">
+        <v>48.163330000000002</v>
+      </c>
+      <c r="F152" s="10">
+        <v>48.163330000000002</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A153" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B153" s="10">
+        <v>55.386670000000002</v>
+      </c>
+      <c r="C153" s="10">
+        <v>55.386670000000002</v>
+      </c>
+      <c r="D153" s="10">
+        <v>55.386670000000002</v>
+      </c>
+      <c r="E153" s="10">
+        <v>55.386670000000002</v>
+      </c>
+      <c r="F153" s="10">
+        <v>55.386670000000002</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A154" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B154" s="10">
+        <v>62.876669999999997</v>
+      </c>
+      <c r="C154" s="10">
+        <v>62.876669999999997</v>
+      </c>
+      <c r="D154" s="10">
+        <v>62.876669999999997</v>
+      </c>
+      <c r="E154" s="10">
+        <v>62.876669999999997</v>
+      </c>
+      <c r="F154" s="10">
+        <v>62.876669999999997</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A155" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B155" s="10">
+        <v>67.86</v>
+      </c>
+      <c r="C155" s="10">
+        <v>67.86</v>
+      </c>
+      <c r="D155" s="10">
+        <v>67.86</v>
+      </c>
+      <c r="E155" s="10">
+        <v>67.86</v>
+      </c>
+      <c r="F155" s="10">
+        <v>67.86</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A156" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B156" s="10">
+        <v>69.72</v>
+      </c>
+      <c r="C156" s="10">
+        <v>69.72</v>
+      </c>
+      <c r="D156" s="10">
+        <v>69.72</v>
+      </c>
+      <c r="E156" s="10">
+        <v>69.72</v>
+      </c>
+      <c r="F156" s="10">
+        <v>69.72</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A157" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B157" s="10">
+        <v>58.903329999999997</v>
+      </c>
+      <c r="C157" s="10">
+        <v>58.903329999999997</v>
+      </c>
+      <c r="D157" s="10">
+        <v>58.903329999999997</v>
+      </c>
+      <c r="E157" s="10">
+        <v>58.903329999999997</v>
+      </c>
+      <c r="F157" s="10">
+        <v>58.903329999999997</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A158" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B158" s="10">
+        <v>54.85</v>
+      </c>
+      <c r="C158" s="10">
+        <v>54.85</v>
+      </c>
+      <c r="D158" s="10">
+        <v>54.85</v>
+      </c>
+      <c r="E158" s="10">
+        <v>54.85</v>
+      </c>
+      <c r="F158" s="10">
+        <v>54.85</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A159" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B159" s="10">
+        <v>59.786670000000001</v>
+      </c>
+      <c r="C159" s="10">
+        <v>59.786670000000001</v>
+      </c>
+      <c r="D159" s="10">
+        <v>59.786670000000001</v>
+      </c>
+      <c r="E159" s="10">
+        <v>59.786670000000001</v>
+      </c>
+      <c r="F159" s="10">
+        <v>59.786670000000001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A160" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B160" s="10">
+        <v>56.406669999999998</v>
+      </c>
+      <c r="C160" s="10">
+        <v>56.406669999999998</v>
+      </c>
+      <c r="D160" s="10">
+        <v>56.406669999999998</v>
+      </c>
+      <c r="E160" s="10">
+        <v>56.406669999999998</v>
+      </c>
+      <c r="F160" s="10">
+        <v>56.406669999999998</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A161" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B161" s="10">
+        <v>56.913330000000002</v>
+      </c>
+      <c r="C161" s="10">
+        <v>56.913330000000002</v>
+      </c>
+      <c r="D161" s="10">
+        <v>56.913330000000002</v>
+      </c>
+      <c r="E161" s="10">
+        <v>56.913330000000002</v>
+      </c>
+      <c r="F161" s="10">
+        <v>56.913330000000002</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A162" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B162" s="10">
+        <v>45.84</v>
+      </c>
+      <c r="C162" s="10">
+        <v>45.84</v>
+      </c>
+      <c r="D162" s="10">
+        <v>45.84</v>
+      </c>
+      <c r="E162" s="10">
+        <v>45.84</v>
+      </c>
+      <c r="F162" s="10">
+        <v>45.84</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A163" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B163" s="10">
+        <v>27.82667</v>
+      </c>
+      <c r="C163" s="10">
+        <v>27.82667</v>
+      </c>
+      <c r="D163" s="10">
+        <v>27.82667</v>
+      </c>
+      <c r="E163" s="10">
+        <v>27.82667</v>
+      </c>
+      <c r="F163" s="10">
+        <v>27.82667</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A164" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B164" s="10">
+        <v>40.886670000000002</v>
+      </c>
+      <c r="C164" s="10">
+        <v>40.886670000000002</v>
+      </c>
+      <c r="D164" s="10">
+        <v>40.886670000000002</v>
+      </c>
+      <c r="E164" s="10">
+        <v>40.886670000000002</v>
+      </c>
+      <c r="F164" s="10">
+        <v>40.886670000000002</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A165" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B165" s="10">
+        <v>42.50667</v>
+      </c>
+      <c r="C165" s="10">
+        <v>42.50667</v>
+      </c>
+      <c r="D165" s="10">
+        <v>42.50667</v>
+      </c>
+      <c r="E165" s="10">
+        <v>42.50667</v>
+      </c>
+      <c r="F165" s="10">
+        <v>42.50667</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A166" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B166" s="11">
+        <v>57.823329999999999</v>
+      </c>
+      <c r="C166" s="11">
+        <v>57.823329999999999</v>
+      </c>
+      <c r="D166" s="11">
+        <v>57.823329999999999</v>
+      </c>
+      <c r="E166" s="11">
+        <v>57.823329999999999</v>
+      </c>
+      <c r="F166" s="11">
+        <v>57.823329999999999</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A167" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B167" s="11">
+        <v>66.09</v>
+      </c>
+      <c r="C167" s="11">
+        <v>66.09</v>
+      </c>
+      <c r="D167" s="11">
+        <v>66.09</v>
+      </c>
+      <c r="E167" s="11">
+        <v>66.09</v>
+      </c>
+      <c r="F167" s="11">
+        <v>66.09</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A168" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B168" s="11">
+        <v>70.563329999999993</v>
+      </c>
+      <c r="C168" s="11">
+        <v>70.563329999999993</v>
+      </c>
+      <c r="D168" s="11">
+        <v>70.563329999999993</v>
+      </c>
+      <c r="E168" s="11">
+        <v>70.563329999999993</v>
+      </c>
+      <c r="F168" s="11">
+        <v>70.563329999999993</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A169" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B169" s="11">
+        <v>77.44</v>
+      </c>
+      <c r="C169" s="11">
+        <v>77.44</v>
+      </c>
+      <c r="D169" s="11">
+        <v>77.44</v>
+      </c>
+      <c r="E169" s="11">
+        <v>77.44</v>
+      </c>
+      <c r="F169" s="11">
+        <v>77.44</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A170" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B170" s="12">
+        <v>86.021900000000002</v>
+      </c>
+      <c r="C170" s="12">
+        <v>89.232330000000005</v>
+      </c>
+      <c r="D170" s="12">
+        <v>85.443449999999999</v>
+      </c>
+      <c r="E170" s="12">
+        <v>93.667450000000002</v>
+      </c>
+      <c r="F170" s="12">
+        <v>91.749949999999998</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A171" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B171" s="12">
+        <v>86.255099999999999</v>
+      </c>
+      <c r="C171" s="12">
+        <v>96.623509999999996</v>
+      </c>
+      <c r="D171" s="12">
+        <v>83.851370000000003</v>
+      </c>
+      <c r="E171" s="12">
+        <v>96.500510000000006</v>
+      </c>
+      <c r="F171" s="12">
+        <v>101.7443</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A172" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B172" s="12">
+        <v>83.36551</v>
+      </c>
+      <c r="C172" s="12">
+        <v>95.508690000000001</v>
+      </c>
+      <c r="D172" s="12">
+        <v>77.485690000000005</v>
+      </c>
+      <c r="E172" s="12">
+        <v>96.050200000000004</v>
+      </c>
+      <c r="F172" s="12">
+        <v>101.3952</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A173" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B173" s="12">
+        <v>80.037430000000001</v>
+      </c>
+      <c r="C173" s="12">
+        <v>91.262559999999993</v>
+      </c>
+      <c r="D173" s="12">
+        <v>69.992419999999996</v>
+      </c>
+      <c r="E173" s="12">
+        <v>92.383939999999996</v>
+      </c>
+      <c r="F173" s="12">
+        <v>96.862179999999995</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A174" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B174" s="12">
+        <v>76.386189999999999</v>
+      </c>
+      <c r="C174" s="12">
+        <v>86.519170000000003</v>
+      </c>
+      <c r="D174" s="12">
+        <v>63.676439999999999</v>
+      </c>
+      <c r="E174" s="12">
+        <v>88.334959999999995</v>
+      </c>
+      <c r="F174" s="12">
+        <v>91.003789999999995</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A175" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B175" s="12">
+        <v>72.902270000000001</v>
+      </c>
+      <c r="C175" s="12">
+        <v>80.315799999999996</v>
+      </c>
+      <c r="D175" s="12">
+        <v>60.179749999999999</v>
+      </c>
+      <c r="E175" s="12">
+        <v>84.419529999999995</v>
+      </c>
+      <c r="F175" s="12">
+        <v>85.314099999999996</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A176" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B176" s="12">
+        <v>69.986130000000003</v>
+      </c>
+      <c r="C176" s="12">
+        <v>75.315539999999999</v>
+      </c>
+      <c r="D176" s="12">
+        <v>59.463299999999997</v>
+      </c>
+      <c r="E176" s="12">
+        <v>80.954359999999994</v>
+      </c>
+      <c r="F176" s="12">
+        <v>80.183430000000001</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A177" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B177" s="12">
+        <v>67.606480000000005</v>
+      </c>
+      <c r="C177" s="12">
+        <v>69.849770000000007</v>
+      </c>
+      <c r="D177" s="12">
+        <v>61.15287</v>
+      </c>
+      <c r="E177" s="12">
+        <v>78.172960000000003</v>
+      </c>
+      <c r="F177" s="12">
+        <v>76.294399999999996</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A178" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B178" s="12">
+        <v>65.654570000000007</v>
+      </c>
+      <c r="C178" s="12">
+        <v>66.943179999999998</v>
+      </c>
+      <c r="D178" s="12">
+        <v>61.744309999999999</v>
+      </c>
+      <c r="E178" s="12">
+        <v>75.85257</v>
+      </c>
+      <c r="F178" s="12">
+        <v>72.974180000000004</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A179" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B179" s="12">
+        <v>64.275850000000005</v>
+      </c>
+      <c r="C179" s="12">
+        <v>64.572749999999999</v>
+      </c>
+      <c r="D179" s="12">
+        <v>61.96284</v>
+      </c>
+      <c r="E179" s="12">
+        <v>74.21208</v>
+      </c>
+      <c r="F179" s="12">
+        <v>70.890349999999998</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A180" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B180" s="12">
+        <v>63.441540000000003</v>
+      </c>
+      <c r="C180" s="12">
+        <v>63.60219</v>
+      </c>
+      <c r="D180" s="12">
+        <v>61.5259</v>
+      </c>
+      <c r="E180" s="12">
+        <v>73.255279999999999</v>
+      </c>
+      <c r="F180" s="12">
+        <v>69.417659999999998</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A181" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B181" s="12">
+        <v>63.124099999999999</v>
+      </c>
+      <c r="C181" s="12">
+        <v>63.284109999999998</v>
+      </c>
+      <c r="D181" s="12">
+        <v>60.841459999999998</v>
+      </c>
+      <c r="E181" s="12">
+        <v>72.779889999999995</v>
+      </c>
+      <c r="F181" s="12">
+        <v>68.519480000000001</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A182" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B182" s="12">
+        <v>63.18694</v>
+      </c>
+      <c r="C182" s="12">
+        <v>63.346960000000003</v>
+      </c>
+      <c r="D182" s="12">
+        <v>60.527880000000003</v>
+      </c>
+      <c r="E182" s="12">
+        <v>72.146129999999999</v>
+      </c>
+      <c r="F182" s="12">
+        <v>68.032229999999998</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A183" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B183" s="12">
+        <v>63.313519999999997</v>
+      </c>
+      <c r="C183" s="12">
+        <v>63.473640000000003</v>
+      </c>
+      <c r="D183" s="12">
+        <v>60.275230000000001</v>
+      </c>
+      <c r="E183" s="12">
+        <v>71.589479999999995</v>
+      </c>
+      <c r="F183" s="12">
+        <v>68.006330000000005</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A184" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B184" s="12">
+        <v>63.50356</v>
+      </c>
+      <c r="C184" s="12">
+        <v>63.66386</v>
+      </c>
+      <c r="D184" s="12">
+        <v>60.083030000000001</v>
+      </c>
+      <c r="E184" s="12">
+        <v>71.108720000000005</v>
+      </c>
+      <c r="F184" s="12">
+        <v>68.068539999999999</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A185" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B185" s="12">
+        <v>63.821159999999999</v>
+      </c>
+      <c r="C185" s="12">
+        <v>63.981740000000002</v>
+      </c>
+      <c r="D185" s="12">
+        <v>60.070300000000003</v>
+      </c>
+      <c r="E185" s="12">
+        <v>70.771529999999998</v>
+      </c>
+      <c r="F185" s="12">
+        <v>68.264089999999996</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A186" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B186" s="12">
+        <v>64.204179999999994</v>
+      </c>
+      <c r="C186" s="12">
+        <v>64.365340000000003</v>
+      </c>
+      <c r="D186" s="12">
+        <v>60.17615</v>
+      </c>
+      <c r="E186" s="12">
+        <v>70.575940000000003</v>
+      </c>
+      <c r="F186" s="12">
+        <v>68.521259999999998</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A187" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B187" s="12">
+        <v>64.589380000000006</v>
+      </c>
+      <c r="C187" s="12">
+        <v>64.751270000000005</v>
+      </c>
+      <c r="D187" s="12">
+        <v>60.317749999999997</v>
+      </c>
+      <c r="E187" s="12">
+        <v>70.450969999999998</v>
+      </c>
+      <c r="F187" s="12">
+        <v>68.896000000000001</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A188" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B188" s="12">
+        <v>64.976969999999994</v>
+      </c>
+      <c r="C188" s="12">
+        <v>65.139399999999995</v>
+      </c>
+      <c r="D188" s="12">
+        <v>60.459180000000003</v>
+      </c>
+      <c r="E188" s="12">
+        <v>70.368499999999997</v>
+      </c>
+      <c r="F188" s="12">
+        <v>69.276229999999998</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A189" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B189" s="12">
+        <v>65.366730000000004</v>
+      </c>
+      <c r="C189" s="12">
+        <v>65.53004</v>
+      </c>
+      <c r="D189" s="12">
+        <v>60.599989999999998</v>
+      </c>
+      <c r="E189" s="12">
+        <v>70.286289999999994</v>
+      </c>
+      <c r="F189" s="12">
+        <v>69.657200000000003</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A190" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B190" s="12">
+        <v>65.75891</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A191" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B191" s="12">
+        <v>66.153559999999999</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A192" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B192" s="12">
+        <v>66.550489999999996</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A193" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B193" s="12">
+        <v>66.950040000000001</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A194" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B194" s="12">
+        <v>67.351780000000005</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A195" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B195" s="12">
+        <v>67.755979999999994</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A196" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B196" s="12">
+        <v>68.162480000000002</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A197" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B197" s="12">
+        <v>68.571529999999996</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A198" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B198" s="12">
+        <v>68.983000000000004</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A199" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B199" s="12">
+        <v>69.396780000000007</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A200" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B200" s="12">
+        <v>69.813050000000004</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A201" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B201" s="12">
+        <v>70.231830000000002</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A202" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B202" s="12">
+        <v>70.653080000000003</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A203" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B203" s="12">
+        <v>71.076999999999998</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A204" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B204" s="12">
+        <v>71.503429999999994</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A205" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B205" s="12">
+        <v>71.932590000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010072F9387A9CEAC24DA659C20634E92B53" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9625e5ca472deb5945f7e45b29a5b4b0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3ce1adc9-595d-4b6e-94c7-d592be107ef0" xmlns:ns3="d66cf783-2e90-4651-8632-adfaa1cef5ce" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fd5e1b0a1fe90b62e38e6b0ce72bb6f5" ns2:_="" ns3:_="">
     <xsd:import namespace="3ce1adc9-595d-4b6e-94c7-d592be107ef0"/>
@@ -10636,6 +14706,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -10646,13 +14722,37 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7C017CB-1CB6-4F96-826E-D4B5469C524F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A744D15-1889-49F0-95BE-91E59F0E4E74}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3ce1adc9-595d-4b6e-94c7-d592be107ef0"/>
+    <ds:schemaRef ds:uri="d66cf783-2e90-4651-8632-adfaa1cef5ce"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A744D15-1889-49F0-95BE-91E59F0E4E74}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7C017CB-1CB6-4F96-826E-D4B5469C524F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAF27B42-6CA6-4285-93CF-3AB54D640074}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAF27B42-6CA6-4285-93CF-3AB54D640074}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/BaselineNationalForecasts.xlsx
+++ b/data/BaselineNationalForecasts.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmak\Documents\GitHub\housing_stats\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maln\Documents\GitHub\housing_stats\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2929E14-DD46-4078-927B-FE0FA74970A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94590781-243E-4A81-9E3B-8328FDC91BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quarterly" sheetId="1" r:id="rId1"/>
     <sheet name="Energy" sheetId="2" r:id="rId2"/>
+    <sheet name="COVID" sheetId="4" r:id="rId3"/>
+    <sheet name="Commodity" sheetId="3" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="Data">[1]sheet0!$C$2</definedName>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="425">
   <si>
     <t>Location</t>
   </si>
@@ -953,6 +955,366 @@
   </si>
   <si>
     <t>WTI_Return_Of_Inflation</t>
+  </si>
+  <si>
+    <t>WTI_CMHC</t>
+  </si>
+  <si>
+    <t>COMM_INDEX</t>
+  </si>
+  <si>
+    <t>1996Q1</t>
+  </si>
+  <si>
+    <t>1996Q2</t>
+  </si>
+  <si>
+    <t>1996Q3</t>
+  </si>
+  <si>
+    <t>1996Q4</t>
+  </si>
+  <si>
+    <t>1997Q1</t>
+  </si>
+  <si>
+    <t>1997Q2</t>
+  </si>
+  <si>
+    <t>1997Q3</t>
+  </si>
+  <si>
+    <t>1997Q4</t>
+  </si>
+  <si>
+    <t>1998Q1</t>
+  </si>
+  <si>
+    <t>1998Q2</t>
+  </si>
+  <si>
+    <t>1998Q3</t>
+  </si>
+  <si>
+    <t>1998Q4</t>
+  </si>
+  <si>
+    <t>1999Q1</t>
+  </si>
+  <si>
+    <t>1999Q2</t>
+  </si>
+  <si>
+    <t>1999Q3</t>
+  </si>
+  <si>
+    <t>1999Q4</t>
+  </si>
+  <si>
+    <t>2000Q1</t>
+  </si>
+  <si>
+    <t>2000Q2</t>
+  </si>
+  <si>
+    <t>2000Q3</t>
+  </si>
+  <si>
+    <t>2000Q4</t>
+  </si>
+  <si>
+    <t>2001Q1</t>
+  </si>
+  <si>
+    <t>2001Q2</t>
+  </si>
+  <si>
+    <t>2001Q3</t>
+  </si>
+  <si>
+    <t>2001Q4</t>
+  </si>
+  <si>
+    <t>2002Q1</t>
+  </si>
+  <si>
+    <t>2002Q2</t>
+  </si>
+  <si>
+    <t>2002Q3</t>
+  </si>
+  <si>
+    <t>2002Q4</t>
+  </si>
+  <si>
+    <t>2003Q1</t>
+  </si>
+  <si>
+    <t>2003Q2</t>
+  </si>
+  <si>
+    <t>2003Q3</t>
+  </si>
+  <si>
+    <t>2003Q4</t>
+  </si>
+  <si>
+    <t>2004Q1</t>
+  </si>
+  <si>
+    <t>2004Q2</t>
+  </si>
+  <si>
+    <t>2004Q3</t>
+  </si>
+  <si>
+    <t>2004Q4</t>
+  </si>
+  <si>
+    <t>2005Q1</t>
+  </si>
+  <si>
+    <t>2005Q2</t>
+  </si>
+  <si>
+    <t>2005Q3</t>
+  </si>
+  <si>
+    <t>2005Q4</t>
+  </si>
+  <si>
+    <t>2006Q1</t>
+  </si>
+  <si>
+    <t>2006Q2</t>
+  </si>
+  <si>
+    <t>2006Q3</t>
+  </si>
+  <si>
+    <t>2006Q4</t>
+  </si>
+  <si>
+    <t>2007Q1</t>
+  </si>
+  <si>
+    <t>2007Q2</t>
+  </si>
+  <si>
+    <t>2007Q3</t>
+  </si>
+  <si>
+    <t>2007Q4</t>
+  </si>
+  <si>
+    <t>2008Q1</t>
+  </si>
+  <si>
+    <t>2008Q2</t>
+  </si>
+  <si>
+    <t>2008Q3</t>
+  </si>
+  <si>
+    <t>2008Q4</t>
+  </si>
+  <si>
+    <t>2009Q1</t>
+  </si>
+  <si>
+    <t>2009Q2</t>
+  </si>
+  <si>
+    <t>2009Q3</t>
+  </si>
+  <si>
+    <t>2009Q4</t>
+  </si>
+  <si>
+    <t>2010Q1</t>
+  </si>
+  <si>
+    <t>2010Q2</t>
+  </si>
+  <si>
+    <t>2010Q3</t>
+  </si>
+  <si>
+    <t>2010Q4</t>
+  </si>
+  <si>
+    <t>2011Q1</t>
+  </si>
+  <si>
+    <t>2011Q2</t>
+  </si>
+  <si>
+    <t>2011Q3</t>
+  </si>
+  <si>
+    <t>2011Q4</t>
+  </si>
+  <si>
+    <t>2012Q1</t>
+  </si>
+  <si>
+    <t>2012Q2</t>
+  </si>
+  <si>
+    <t>2012Q3</t>
+  </si>
+  <si>
+    <t>2012Q4</t>
+  </si>
+  <si>
+    <t>2013Q1</t>
+  </si>
+  <si>
+    <t>2013Q2</t>
+  </si>
+  <si>
+    <t>2013Q3</t>
+  </si>
+  <si>
+    <t>2013Q4</t>
+  </si>
+  <si>
+    <t>2014Q1</t>
+  </si>
+  <si>
+    <t>2014Q2</t>
+  </si>
+  <si>
+    <t>2014Q3</t>
+  </si>
+  <si>
+    <t>2014Q4</t>
+  </si>
+  <si>
+    <t>2015Q1</t>
+  </si>
+  <si>
+    <t>2015Q2</t>
+  </si>
+  <si>
+    <t>2015Q3</t>
+  </si>
+  <si>
+    <t>2015Q4</t>
+  </si>
+  <si>
+    <t>2016Q1</t>
+  </si>
+  <si>
+    <t>2016Q2</t>
+  </si>
+  <si>
+    <t>2016Q3</t>
+  </si>
+  <si>
+    <t>2016Q4</t>
+  </si>
+  <si>
+    <t>2017Q1</t>
+  </si>
+  <si>
+    <t>2017Q2</t>
+  </si>
+  <si>
+    <t>2017Q3</t>
+  </si>
+  <si>
+    <t>2017Q4</t>
+  </si>
+  <si>
+    <t>2018Q1</t>
+  </si>
+  <si>
+    <t>2018Q2</t>
+  </si>
+  <si>
+    <t>2018Q3</t>
+  </si>
+  <si>
+    <t>2018Q4</t>
+  </si>
+  <si>
+    <t>2019Q1</t>
+  </si>
+  <si>
+    <t>2019Q2</t>
+  </si>
+  <si>
+    <t>2019Q3</t>
+  </si>
+  <si>
+    <t>2019Q4</t>
+  </si>
+  <si>
+    <t>2020Q1</t>
+  </si>
+  <si>
+    <t>2020Q2</t>
+  </si>
+  <si>
+    <t>2020Q3</t>
+  </si>
+  <si>
+    <t>2020Q4</t>
+  </si>
+  <si>
+    <t>2021Q1</t>
+  </si>
+  <si>
+    <t>2021Q2</t>
+  </si>
+  <si>
+    <t>2021Q3</t>
+  </si>
+  <si>
+    <t>2021Q4</t>
+  </si>
+  <si>
+    <t>2022Q1</t>
+  </si>
+  <si>
+    <t>2022Q2</t>
+  </si>
+  <si>
+    <t>2022Q3</t>
+  </si>
+  <si>
+    <t>2022Q4</t>
+  </si>
+  <si>
+    <t>2023Q1</t>
+  </si>
+  <si>
+    <t>2023Q2</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>2024Q4</t>
+  </si>
+  <si>
+    <t>COVID-19</t>
+  </si>
+  <si>
+    <t>Long COVID</t>
   </si>
 </sst>
 </file>
@@ -1017,7 +1379,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1049,12 +1411,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF363636"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF363636"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1072,6 +1445,7 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1430,7 +1804,7 @@
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25"/>
     <col min="4" max="4" width="50"/>
@@ -1444,7 +1818,7 @@
     <col min="220" max="221" width="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1485,7 +1859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1526,7 +1900,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -1567,7 +1941,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
@@ -1608,7 +1982,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
@@ -1649,7 +2023,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
@@ -1690,7 +2064,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>31</v>
       </c>
@@ -1731,7 +2105,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
@@ -1772,7 +2146,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
@@ -1813,7 +2187,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>34</v>
       </c>
@@ -1854,7 +2228,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>35</v>
       </c>
@@ -1895,7 +2269,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>36</v>
       </c>
@@ -1936,7 +2310,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1977,7 +2351,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>38</v>
       </c>
@@ -2018,7 +2392,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>39</v>
       </c>
@@ -2059,7 +2433,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>40</v>
       </c>
@@ -2100,7 +2474,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>41</v>
       </c>
@@ -2141,7 +2515,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>42</v>
       </c>
@@ -2182,7 +2556,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>43</v>
       </c>
@@ -2223,7 +2597,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>44</v>
       </c>
@@ -2264,7 +2638,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>45</v>
       </c>
@@ -2305,7 +2679,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>46</v>
       </c>
@@ -2346,7 +2720,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>47</v>
       </c>
@@ -2387,7 +2761,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>48</v>
       </c>
@@ -2428,7 +2802,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>49</v>
       </c>
@@ -2469,7 +2843,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>50</v>
       </c>
@@ -2510,7 +2884,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>51</v>
       </c>
@@ -2551,7 +2925,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>52</v>
       </c>
@@ -2592,7 +2966,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>53</v>
       </c>
@@ -2633,7 +3007,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>54</v>
       </c>
@@ -2674,7 +3048,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>55</v>
       </c>
@@ -2715,7 +3089,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>56</v>
       </c>
@@ -2756,7 +3130,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>57</v>
       </c>
@@ -2797,7 +3171,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>58</v>
       </c>
@@ -2838,7 +3212,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>59</v>
       </c>
@@ -2879,7 +3253,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>60</v>
       </c>
@@ -2920,7 +3294,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>61</v>
       </c>
@@ -2961,7 +3335,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>62</v>
       </c>
@@ -3002,7 +3376,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>63</v>
       </c>
@@ -3043,7 +3417,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>64</v>
       </c>
@@ -3084,7 +3458,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>65</v>
       </c>
@@ -3125,7 +3499,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>66</v>
       </c>
@@ -3166,7 +3540,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>67</v>
       </c>
@@ -3207,7 +3581,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>68</v>
       </c>
@@ -3248,7 +3622,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>69</v>
       </c>
@@ -3289,7 +3663,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>70</v>
       </c>
@@ -3330,7 +3704,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>71</v>
       </c>
@@ -3371,7 +3745,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>72</v>
       </c>
@@ -3412,7 +3786,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>73</v>
       </c>
@@ -3453,7 +3827,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>74</v>
       </c>
@@ -3494,7 +3868,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>75</v>
       </c>
@@ -3535,7 +3909,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>76</v>
       </c>
@@ -3576,7 +3950,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>77</v>
       </c>
@@ -3617,7 +3991,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>78</v>
       </c>
@@ -3658,7 +4032,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>79</v>
       </c>
@@ -3699,7 +4073,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>80</v>
       </c>
@@ -3740,7 +4114,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>81</v>
       </c>
@@ -3781,7 +4155,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>82</v>
       </c>
@@ -3822,7 +4196,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>83</v>
       </c>
@@ -3863,7 +4237,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>84</v>
       </c>
@@ -3904,7 +4278,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>85</v>
       </c>
@@ -3945,7 +4319,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>86</v>
       </c>
@@ -3986,7 +4360,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>87</v>
       </c>
@@ -4027,7 +4401,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>88</v>
       </c>
@@ -4068,7 +4442,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>89</v>
       </c>
@@ -4109,7 +4483,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>90</v>
       </c>
@@ -4150,7 +4524,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>91</v>
       </c>
@@ -4191,7 +4565,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>92</v>
       </c>
@@ -4232,7 +4606,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>93</v>
       </c>
@@ -4273,7 +4647,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>94</v>
       </c>
@@ -4314,7 +4688,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>95</v>
       </c>
@@ -4355,7 +4729,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>96</v>
       </c>
@@ -4396,7 +4770,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>97</v>
       </c>
@@ -4437,7 +4811,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>98</v>
       </c>
@@ -4478,7 +4852,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>99</v>
       </c>
@@ -4519,7 +4893,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>100</v>
       </c>
@@ -4560,7 +4934,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>101</v>
       </c>
@@ -4601,7 +4975,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>102</v>
       </c>
@@ -4642,7 +5016,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>103</v>
       </c>
@@ -4683,7 +5057,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>104</v>
       </c>
@@ -4724,7 +5098,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>105</v>
       </c>
@@ -4765,7 +5139,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>106</v>
       </c>
@@ -4806,7 +5180,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>107</v>
       </c>
@@ -4847,7 +5221,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>108</v>
       </c>
@@ -4888,7 +5262,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>109</v>
       </c>
@@ -4929,7 +5303,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>110</v>
       </c>
@@ -4970,7 +5344,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>111</v>
       </c>
@@ -5011,7 +5385,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>112</v>
       </c>
@@ -5052,7 +5426,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>113</v>
       </c>
@@ -5093,7 +5467,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>114</v>
       </c>
@@ -5134,7 +5508,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>115</v>
       </c>
@@ -5175,7 +5549,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>116</v>
       </c>
@@ -5216,7 +5590,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>117</v>
       </c>
@@ -5257,7 +5631,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>118</v>
       </c>
@@ -5298,7 +5672,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>119</v>
       </c>
@@ -5339,7 +5713,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>120</v>
       </c>
@@ -5380,7 +5754,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>121</v>
       </c>
@@ -5421,7 +5795,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>122</v>
       </c>
@@ -5462,7 +5836,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>123</v>
       </c>
@@ -5503,7 +5877,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>124</v>
       </c>
@@ -5544,7 +5918,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>125</v>
       </c>
@@ -5585,7 +5959,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>126</v>
       </c>
@@ -5626,7 +6000,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>127</v>
       </c>
@@ -5667,7 +6041,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>128</v>
       </c>
@@ -5708,7 +6082,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>129</v>
       </c>
@@ -5749,7 +6123,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>130</v>
       </c>
@@ -5790,7 +6164,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>131</v>
       </c>
@@ -5831,7 +6205,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>132</v>
       </c>
@@ -5872,7 +6246,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>133</v>
       </c>
@@ -5913,7 +6287,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>134</v>
       </c>
@@ -5954,7 +6328,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>135</v>
       </c>
@@ -5995,7 +6369,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>136</v>
       </c>
@@ -6036,7 +6410,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>137</v>
       </c>
@@ -6077,7 +6451,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>138</v>
       </c>
@@ -6118,7 +6492,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>139</v>
       </c>
@@ -6159,7 +6533,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>140</v>
       </c>
@@ -6200,7 +6574,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>141</v>
       </c>
@@ -6241,7 +6615,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>142</v>
       </c>
@@ -6282,7 +6656,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>143</v>
       </c>
@@ -6323,7 +6697,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>144</v>
       </c>
@@ -6364,7 +6738,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>145</v>
       </c>
@@ -6405,7 +6779,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>146</v>
       </c>
@@ -6446,7 +6820,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>147</v>
       </c>
@@ -6487,7 +6861,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>148</v>
       </c>
@@ -6528,7 +6902,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>149</v>
       </c>
@@ -6569,7 +6943,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>150</v>
       </c>
@@ -6610,7 +6984,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>151</v>
       </c>
@@ -6651,7 +7025,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>152</v>
       </c>
@@ -6692,7 +7066,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>153</v>
       </c>
@@ -6733,7 +7107,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>154</v>
       </c>
@@ -6774,7 +7148,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>155</v>
       </c>
@@ -6815,7 +7189,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>156</v>
       </c>
@@ -6856,7 +7230,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>157</v>
       </c>
@@ -6897,7 +7271,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>158</v>
       </c>
@@ -6938,7 +7312,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>159</v>
       </c>
@@ -6979,7 +7353,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>160</v>
       </c>
@@ -7020,7 +7394,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>161</v>
       </c>
@@ -7061,7 +7435,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>162</v>
       </c>
@@ -7102,7 +7476,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>163</v>
       </c>
@@ -7143,7 +7517,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>164</v>
       </c>
@@ -7184,7 +7558,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>165</v>
       </c>
@@ -7225,7 +7599,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>166</v>
       </c>
@@ -7266,7 +7640,7 @@
         <v>76.262969999999996</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>167</v>
       </c>
@@ -7307,7 +7681,7 @@
         <v>83.358310000000003</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>168</v>
       </c>
@@ -7348,7 +7722,7 @@
         <v>77.933639999999997</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>169</v>
       </c>
@@ -7389,7 +7763,7 @@
         <v>58.268940000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>170</v>
       </c>
@@ -7430,7 +7804,7 @@
         <v>34.737029999999997</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>171</v>
       </c>
@@ -7471,7 +7845,7 @@
         <v>47.319389999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>172</v>
       </c>
@@ -7512,7 +7886,7 @@
         <v>32.955150000000003</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>173</v>
       </c>
@@ -7553,7 +7927,7 @@
         <v>27.764089999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>174</v>
       </c>
@@ -7594,7 +7968,7 @@
         <v>20.28923</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>175</v>
       </c>
@@ -7635,7 +8009,7 @@
         <v>32.923690000000001</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>176</v>
       </c>
@@ -7676,7 +8050,7 @@
         <v>30.706969999999998</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>177</v>
       </c>
@@ -7717,7 +8091,7 @@
         <v>34.404919999999997</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>178</v>
       </c>
@@ -7758,7 +8132,7 @@
         <v>38.093539999999997</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>179</v>
       </c>
@@ -7799,7 +8173,7 @@
         <v>38.306310000000003</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>180</v>
       </c>
@@ -7840,7 +8214,7 @@
         <v>37.66816</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>181</v>
       </c>
@@ -7881,7 +8255,7 @@
         <v>38.644309999999997</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>182</v>
       </c>
@@ -7922,7 +8296,7 @@
         <v>37.049999999999997</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>183</v>
       </c>
@@ -7963,7 +8337,7 @@
         <v>49.77</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>184</v>
       </c>
@@ -8004,7 +8378,7 @@
         <v>41.9</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>185</v>
       </c>
@@ -8045,7 +8419,7 @@
         <v>25.49</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>186</v>
       </c>
@@ -8086,7 +8460,7 @@
         <v>44.1</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>187</v>
       </c>
@@ -8127,7 +8501,7 @@
         <v>47.44</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>188</v>
       </c>
@@ -8168,7 +8542,7 @@
         <v>43.81</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>189</v>
       </c>
@@ -8209,7 +8583,7 @@
         <v>37.86</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>190</v>
       </c>
@@ -8250,7 +8624,7 @@
         <v>29.08</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>191</v>
       </c>
@@ -8291,7 +8665,7 @@
         <v>19.739999999999998</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>192</v>
       </c>
@@ -8332,7 +8706,7 @@
         <v>31.212</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>193</v>
       </c>
@@ -8373,7 +8747,7 @@
         <v>31.51</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>194</v>
       </c>
@@ -8414,7 +8788,7 @@
         <v>32.052210000000002</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>195</v>
       </c>
@@ -8455,7 +8829,7 @@
         <v>31.160689999999999</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>196</v>
       </c>
@@ -8496,7 +8870,7 @@
         <v>31.80341</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>197</v>
       </c>
@@ -8537,7 +8911,7 @@
         <v>32.446779999999997</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>198</v>
       </c>
@@ -8578,7 +8952,7 @@
         <v>32.85192</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>199</v>
       </c>
@@ -8619,7 +8993,7 @@
         <v>33.512419999999999</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>200</v>
       </c>
@@ -8660,7 +9034,7 @@
         <v>33.749659999999999</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>201</v>
       </c>
@@ -8701,7 +9075,7 @@
         <v>34.069679999999998</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>202</v>
       </c>
@@ -8742,7 +9116,7 @@
         <v>34.250120000000003</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>203</v>
       </c>
@@ -8783,7 +9157,7 @@
         <v>34.392380000000003</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>204</v>
       </c>
@@ -8824,7 +9198,7 @@
         <v>34.566029999999998</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>205</v>
       </c>
@@ -8865,7 +9239,7 @@
         <v>34.731430000000003</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>206</v>
       </c>
@@ -8906,7 +9280,7 @@
         <v>34.934800000000003</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>207</v>
       </c>
@@ -8947,7 +9321,7 @@
         <v>35.129519999999999</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>208</v>
       </c>
@@ -8988,7 +9362,7 @@
         <v>35.322800000000001</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>209</v>
       </c>
@@ -9029,7 +9403,7 @@
         <v>35.517539999999997</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>210</v>
       </c>
@@ -9070,7 +9444,7 @@
         <v>35.711869999999998</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>211</v>
       </c>
@@ -9111,7 +9485,7 @@
         <v>35.908360000000002</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>212</v>
       </c>
@@ -9152,7 +9526,7 @@
         <v>36.07526</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>213</v>
       </c>
@@ -9193,7 +9567,7 @@
         <v>36.212249999999997</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>214</v>
       </c>
@@ -9234,7 +9608,7 @@
         <v>36.307839999999999</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>215</v>
       </c>
@@ -9275,7 +9649,7 @@
         <v>36.401069999999997</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>216</v>
       </c>
@@ -9316,7 +9690,7 @@
         <v>36.49456</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>217</v>
       </c>
@@ -9357,7 +9731,7 @@
         <v>36.586779999999997</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>218</v>
       </c>
@@ -9398,7 +9772,7 @@
         <v>36.677410000000002</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>219</v>
       </c>
@@ -9439,7 +9813,7 @@
         <v>36.766449999999999</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>220</v>
       </c>
@@ -9480,7 +9854,7 @@
         <v>36.856310000000001</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>221</v>
       </c>
@@ -9521,7 +9895,7 @@
         <v>36.946100000000001</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>222</v>
       </c>
@@ -9562,7 +9936,7 @@
         <v>37.05594</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>223</v>
       </c>
@@ -9603,7 +9977,7 @@
         <v>37.165419999999997</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>224</v>
       </c>
@@ -9644,7 +10018,7 @@
         <v>37.277810000000002</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>225</v>
       </c>
@@ -9685,7 +10059,7 @@
         <v>37.38608</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>226</v>
       </c>
@@ -9726,7 +10100,7 @@
         <v>37.51773</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>227</v>
       </c>
@@ -9767,7 +10141,7 @@
         <v>37.648359999999997</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>228</v>
       </c>
@@ -9808,7 +10182,7 @@
         <v>37.780500000000004</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>229</v>
       </c>
@@ -9849,7 +10223,7 @@
         <v>37.91301</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>230</v>
       </c>
@@ -9890,7 +10264,7 @@
         <v>38.088360000000002</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
         <v>231</v>
       </c>
@@ -9931,7 +10305,7 @@
         <v>38.263370000000002</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>232</v>
       </c>
@@ -9972,7 +10346,7 @@
         <v>38.462519999999998</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>233</v>
       </c>
@@ -10013,7 +10387,7 @@
         <v>38.662880000000001</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>296</v>
       </c>
@@ -10036,7 +10410,7 @@
       <c r="L210" s="5"/>
       <c r="M210" s="5"/>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
         <v>297</v>
       </c>
@@ -10059,7 +10433,7 @@
       <c r="L211" s="5"/>
       <c r="M211" s="5"/>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>298</v>
       </c>
@@ -10082,7 +10456,7 @@
       <c r="L212" s="5"/>
       <c r="M212" s="5"/>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>299</v>
       </c>
@@ -10105,7 +10479,7 @@
       <c r="L213" s="5"/>
       <c r="M213" s="5"/>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>234</v>
       </c>
@@ -10146,7 +10520,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>242</v>
       </c>
@@ -10187,7 +10561,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>245</v>
       </c>
@@ -10228,7 +10602,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>248</v>
       </c>
@@ -10269,7 +10643,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>250</v>
       </c>
@@ -10310,7 +10684,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>252</v>
       </c>
@@ -10351,7 +10725,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>255</v>
       </c>
@@ -10392,7 +10766,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>257</v>
       </c>
@@ -10433,7 +10807,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>270</v>
       </c>
@@ -10474,7 +10848,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>280</v>
       </c>
@@ -10515,7 +10889,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>283</v>
       </c>
@@ -10564,15 +10938,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4509B7CE-EAE7-4EFC-BF06-58A8650AF1F6}">
-  <dimension ref="A1:F205"/>
+  <dimension ref="A1:G205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="s">
         <v>300</v>
       </c>
@@ -10588,8 +10962,11 @@
       <c r="F1" s="9" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G1" s="13" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>30</v>
       </c>
@@ -10608,8 +10985,11 @@
       <c r="F2" s="10">
         <v>35.833329999999997</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G2" s="10">
+        <v>35.833329999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>31</v>
       </c>
@@ -10628,8 +11008,11 @@
       <c r="F3" s="10">
         <v>39.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G3" s="10">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
@@ -10648,8 +11031,11 @@
       <c r="F4" s="10">
         <v>37.833329999999997</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G4" s="10">
+        <v>37.833329999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>33</v>
       </c>
@@ -10668,8 +11054,11 @@
       <c r="F5" s="10">
         <v>36.333329999999997</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G5" s="10">
+        <v>36.333329999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>34</v>
       </c>
@@ -10688,8 +11077,11 @@
       <c r="F6" s="10">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G6" s="10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10708,8 +11100,11 @@
       <c r="F7" s="10">
         <v>37.333329999999997</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G7" s="10">
+        <v>37.333329999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>36</v>
       </c>
@@ -10728,8 +11123,11 @@
       <c r="F8" s="10">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G8" s="10">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>37</v>
       </c>
@@ -10748,8 +11146,11 @@
       <c r="F9" s="10">
         <v>35.333329999999997</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G9" s="10">
+        <v>35.333329999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>38</v>
       </c>
@@ -10768,8 +11169,11 @@
       <c r="F10" s="10">
         <v>31.296669999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G10" s="10">
+        <v>31.296669999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>39</v>
       </c>
@@ -10788,8 +11192,11 @@
       <c r="F11" s="10">
         <v>34.816670000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G11" s="10">
+        <v>34.816670000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>40</v>
       </c>
@@ -10808,8 +11215,11 @@
       <c r="F12" s="10">
         <v>34.58</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G12" s="10">
+        <v>34.58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>41</v>
       </c>
@@ -10828,8 +11238,11 @@
       <c r="F13" s="10">
         <v>33.85</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G13" s="10">
+        <v>33.85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>42</v>
       </c>
@@ -10848,8 +11261,11 @@
       <c r="F14" s="10">
         <v>29.65333</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G14" s="10">
+        <v>29.65333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>43</v>
       </c>
@@ -10868,8 +11284,11 @@
       <c r="F15" s="10">
         <v>30.536670000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G15" s="10">
+        <v>30.536670000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>44</v>
       </c>
@@ -10888,8 +11307,11 @@
       <c r="F16" s="10">
         <v>31.56</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G16" s="10">
+        <v>31.56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>45</v>
       </c>
@@ -10908,8 +11330,11 @@
       <c r="F17" s="10">
         <v>29.83</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G17" s="10">
+        <v>29.83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>46</v>
       </c>
@@ -10928,8 +11353,11 @@
       <c r="F18" s="10">
         <v>30.19867</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G18" s="10">
+        <v>30.19867</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>47</v>
       </c>
@@ -10948,8 +11376,11 @@
       <c r="F19" s="10">
         <v>30.36833</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G19" s="10">
+        <v>30.36833</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>48</v>
       </c>
@@ -10968,8 +11399,11 @@
       <c r="F20" s="10">
         <v>29.104330000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G20" s="10">
+        <v>29.104330000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>49</v>
       </c>
@@ -10988,8 +11422,11 @@
       <c r="F21" s="10">
         <v>27.430669999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G21" s="10">
+        <v>27.430669999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>50</v>
       </c>
@@ -11008,8 +11445,11 @@
       <c r="F22" s="10">
         <v>27.05</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G22" s="10">
+        <v>27.05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>51</v>
       </c>
@@ -11028,8 +11468,11 @@
       <c r="F23" s="10">
         <v>27.856999999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G23" s="10">
+        <v>27.856999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>52</v>
       </c>
@@ -11048,8 +11491,11 @@
       <c r="F24" s="10">
         <v>27.791</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G24" s="10">
+        <v>27.791</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>53</v>
       </c>
@@ -11068,8 +11514,11 @@
       <c r="F25" s="10">
         <v>29.193000000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G25" s="10">
+        <v>29.193000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>54</v>
       </c>
@@ -11088,8 +11537,11 @@
       <c r="F26" s="10">
         <v>17.001670000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G26" s="10">
+        <v>17.001670000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>55</v>
       </c>
@@ -11108,8 +11560,11 @@
       <c r="F27" s="10">
         <v>13.92</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G27" s="10">
+        <v>13.92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>56</v>
       </c>
@@ -11128,8 +11583,11 @@
       <c r="F28" s="10">
         <v>13.86</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G28" s="10">
+        <v>13.86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>57</v>
       </c>
@@ -11148,8 +11606,11 @@
       <c r="F29" s="10">
         <v>15.37833</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G29" s="10">
+        <v>15.37833</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>58</v>
       </c>
@@ -11168,8 +11629,11 @@
       <c r="F30" s="10">
         <v>18.228999999999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G30" s="10">
+        <v>18.228999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>59</v>
       </c>
@@ -11188,8 +11652,11 @@
       <c r="F31" s="10">
         <v>19.364000000000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G31" s="10">
+        <v>19.364000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>60</v>
       </c>
@@ -11208,8 +11675,11 @@
       <c r="F32" s="10">
         <v>20.385000000000002</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G32" s="10">
+        <v>20.385000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>61</v>
       </c>
@@ -11228,8 +11698,11 @@
       <c r="F33" s="10">
         <v>18.66967</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G33" s="10">
+        <v>18.66967</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>62</v>
       </c>
@@ -11248,8 +11721,11 @@
       <c r="F34" s="10">
         <v>16.713999999999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G34" s="10">
+        <v>16.713999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>63</v>
       </c>
@@ -11268,8 +11744,11 @@
       <c r="F35" s="10">
         <v>17.280999999999999</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G35" s="10">
+        <v>17.280999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>64</v>
       </c>
@@ -11288,8 +11767,11 @@
       <c r="F36" s="10">
         <v>15.163</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G36" s="10">
+        <v>15.163</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>65</v>
       </c>
@@ -11308,8 +11790,11 @@
       <c r="F37" s="10">
         <v>14.68033</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G37" s="10">
+        <v>14.68033</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>66</v>
       </c>
@@ -11328,8 +11813,11 @@
       <c r="F38" s="10">
         <v>18.417999999999999</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G38" s="10">
+        <v>18.417999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>67</v>
       </c>
@@ -11348,8 +11836,11 @@
       <c r="F39" s="10">
         <v>20.359000000000002</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G39" s="10">
+        <v>20.359000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>68</v>
       </c>
@@ -11368,8 +11859,11 @@
       <c r="F40" s="10">
         <v>19.253329999999998</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G40" s="10">
+        <v>19.253329999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>69</v>
       </c>
@@ -11388,8 +11882,11 @@
       <c r="F41" s="10">
         <v>20.332999999999998</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G41" s="10">
+        <v>20.332999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>70</v>
       </c>
@@ -11408,8 +11905,11 @@
       <c r="F42" s="10">
         <v>21.722329999999999</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G42" s="10">
+        <v>21.722329999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>71</v>
       </c>
@@ -11428,8 +11928,11 @@
       <c r="F43" s="10">
         <v>17.89667</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G43" s="10">
+        <v>17.89667</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>72</v>
       </c>
@@ -11448,8 +11951,11 @@
       <c r="F44" s="10">
         <v>26.499669999999998</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G44" s="10">
+        <v>26.499669999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>73</v>
       </c>
@@ -11468,8 +11974,11 @@
       <c r="F45" s="10">
         <v>31.853000000000002</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G45" s="10">
+        <v>31.853000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>74</v>
       </c>
@@ -11488,8 +11997,11 @@
       <c r="F46" s="10">
         <v>21.780670000000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G46" s="10">
+        <v>21.780670000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>75</v>
       </c>
@@ -11508,8 +12020,11 @@
       <c r="F47" s="10">
         <v>20.752669999999998</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G47" s="10">
+        <v>20.752669999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>76</v>
       </c>
@@ -11528,8 +12043,11 @@
       <c r="F48" s="10">
         <v>21.655000000000001</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G48" s="10">
+        <v>21.655000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>77</v>
       </c>
@@ -11548,8 +12066,11 @@
       <c r="F49" s="10">
         <v>21.73667</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G49" s="10">
+        <v>21.73667</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>78</v>
       </c>
@@ -11568,8 +12089,11 @@
       <c r="F50" s="10">
         <v>18.910329999999998</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G50" s="10">
+        <v>18.910329999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>79</v>
       </c>
@@ -11588,8 +12112,11 @@
       <c r="F51" s="10">
         <v>21.186</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G51" s="10">
+        <v>21.186</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>80</v>
       </c>
@@ -11608,8 +12135,11 @@
       <c r="F52" s="10">
         <v>21.67033</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G52" s="10">
+        <v>21.67033</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>81</v>
       </c>
@@ -11628,8 +12158,11 @@
       <c r="F53" s="10">
         <v>20.478999999999999</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G53" s="10">
+        <v>20.478999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>82</v>
       </c>
@@ -11648,8 +12181,11 @@
       <c r="F54" s="10">
         <v>19.824999999999999</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G54" s="10">
+        <v>19.824999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>83</v>
       </c>
@@ -11668,8 +12204,11 @@
       <c r="F55" s="10">
         <v>19.760000000000002</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G55" s="10">
+        <v>19.760000000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>84</v>
       </c>
@@ -11688,8 +12227,11 @@
       <c r="F56" s="10">
         <v>17.796330000000001</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G56" s="10">
+        <v>17.796330000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>85</v>
       </c>
@@ -11708,8 +12250,11 @@
       <c r="F57" s="10">
         <v>16.451329999999999</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G57" s="10">
+        <v>16.451329999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>86</v>
       </c>
@@ -11728,8 +12273,11 @@
       <c r="F58" s="10">
         <v>14.813330000000001</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G58" s="10">
+        <v>14.813330000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>87</v>
       </c>
@@ -11748,8 +12296,11 @@
       <c r="F59" s="10">
         <v>17.776669999999999</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G59" s="10">
+        <v>17.776669999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>88</v>
       </c>
@@ -11768,8 +12319,11 @@
       <c r="F60" s="10">
         <v>18.496670000000002</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G60" s="10">
+        <v>18.496670000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>89</v>
       </c>
@@ -11788,8 +12342,11 @@
       <c r="F61" s="10">
         <v>17.656669999999998</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G61" s="10">
+        <v>17.656669999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>90</v>
       </c>
@@ -11808,8 +12365,11 @@
       <c r="F62" s="10">
         <v>18.356670000000001</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G62" s="10">
+        <v>18.356670000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>91</v>
       </c>
@@ -11828,8 +12388,11 @@
       <c r="F63" s="10">
         <v>19.343330000000002</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G63" s="10">
+        <v>19.343330000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>92</v>
       </c>
@@ -11848,8 +12411,11 @@
       <c r="F64" s="10">
         <v>17.85333</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G64" s="10">
+        <v>17.85333</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>93</v>
       </c>
@@ -11868,8 +12434,11 @@
       <c r="F65" s="10">
         <v>18.156669999999998</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G65" s="10">
+        <v>18.156669999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>94</v>
       </c>
@@ -11888,8 +12457,11 @@
       <c r="F66" s="10">
         <v>19.77</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G66" s="10">
+        <v>19.77</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>95</v>
       </c>
@@ -11908,8 +12480,11 @@
       <c r="F67" s="10">
         <v>21.75667</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G67" s="10">
+        <v>21.75667</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>96</v>
       </c>
@@ -11928,8 +12503,11 @@
       <c r="F68" s="10">
         <v>22.42333</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G68" s="10">
+        <v>22.42333</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>97</v>
       </c>
@@ -11948,8 +12526,11 @@
       <c r="F69" s="10">
         <v>24.66667</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G69" s="10">
+        <v>24.66667</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>98</v>
       </c>
@@ -11968,8 +12549,11 @@
       <c r="F70" s="10">
         <v>22.79</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G70" s="10">
+        <v>22.79</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>99</v>
       </c>
@@ -11988,8 +12572,11 @@
       <c r="F71" s="10">
         <v>19.906669999999998</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G71" s="10">
+        <v>19.906669999999998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>100</v>
       </c>
@@ -12008,8 +12595,11 @@
       <c r="F72" s="10">
         <v>19.783329999999999</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G72" s="10">
+        <v>19.783329999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>101</v>
       </c>
@@ -12028,8 +12618,11 @@
       <c r="F73" s="10">
         <v>19.91667</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G73" s="10">
+        <v>19.91667</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>102</v>
       </c>
@@ -12048,8 +12641,11 @@
       <c r="F74" s="10">
         <v>15.93</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G74" s="10">
+        <v>15.93</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>103</v>
       </c>
@@ -12068,8 +12664,11 @@
       <c r="F75" s="10">
         <v>14.65333</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G75" s="10">
+        <v>14.65333</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>104</v>
       </c>
@@ -12088,8 +12687,11 @@
       <c r="F76" s="10">
         <v>14.13</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G76" s="10">
+        <v>14.13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>105</v>
       </c>
@@ -12108,8 +12710,11 @@
       <c r="F77" s="10">
         <v>12.84</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G77" s="10">
+        <v>12.84</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>106</v>
       </c>
@@ -12128,8 +12733,11 @@
       <c r="F78" s="10">
         <v>13.046670000000001</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G78" s="10">
+        <v>13.046670000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>107</v>
       </c>
@@ -12148,8 +12756,11 @@
       <c r="F79" s="10">
         <v>17.66</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G79" s="10">
+        <v>17.66</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>108</v>
       </c>
@@ -12168,8 +12779,11 @@
       <c r="F80" s="10">
         <v>21.73667</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G80" s="10">
+        <v>21.73667</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>109</v>
       </c>
@@ -12188,8 +12802,11 @@
       <c r="F81" s="10">
         <v>24.563330000000001</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G81" s="10">
+        <v>24.563330000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>110</v>
       </c>
@@ -12208,8 +12825,11 @@
       <c r="F82" s="10">
         <v>28.80667</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G82" s="10">
+        <v>28.80667</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>111</v>
       </c>
@@ -12228,8 +12848,11 @@
       <c r="F83" s="10">
         <v>28.783329999999999</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G83" s="10">
+        <v>28.783329999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>112</v>
       </c>
@@ -12248,8 +12871,11 @@
       <c r="F84" s="10">
         <v>31.623329999999999</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G84" s="10">
+        <v>31.623329999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>113</v>
       </c>
@@ -12268,8 +12894,11 @@
       <c r="F85" s="10">
         <v>31.98</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G85" s="10">
+        <v>31.98</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>114</v>
       </c>
@@ -12288,8 +12917,11 @@
       <c r="F86" s="10">
         <v>28.81</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G86" s="10">
+        <v>28.81</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>115</v>
       </c>
@@ -12308,8 +12940,11 @@
       <c r="F87" s="10">
         <v>27.883330000000001</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G87" s="10">
+        <v>27.883330000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>116</v>
       </c>
@@ -12328,8 +12963,11 @@
       <c r="F88" s="10">
         <v>26.6</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G88" s="10">
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>117</v>
       </c>
@@ -12348,8 +12986,11 @@
       <c r="F89" s="10">
         <v>20.40333</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G89" s="10">
+        <v>20.40333</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>118</v>
       </c>
@@ -12368,8 +13009,11 @@
       <c r="F90" s="10">
         <v>21.61</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G90" s="10">
+        <v>21.61</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>119</v>
       </c>
@@ -12388,8 +13032,11 @@
       <c r="F91" s="10">
         <v>26.27</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G91" s="10">
+        <v>26.27</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>120</v>
       </c>
@@ -12408,8 +13055,11 @@
       <c r="F92" s="10">
         <v>28.33</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G92" s="10">
+        <v>28.33</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>121</v>
       </c>
@@ -12428,8 +13078,11 @@
       <c r="F93" s="10">
         <v>28.18</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G93" s="10">
+        <v>28.18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>122</v>
       </c>
@@ -12448,8 +13101,11 @@
       <c r="F94" s="10">
         <v>34.119999999999997</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G94" s="10">
+        <v>34.119999999999997</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>123</v>
       </c>
@@ -12468,8 +13124,11 @@
       <c r="F95" s="10">
         <v>29.036670000000001</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G95" s="10">
+        <v>29.036670000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>124</v>
       </c>
@@ -12488,8 +13147,11 @@
       <c r="F96" s="10">
         <v>30.213329999999999</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G96" s="10">
+        <v>30.213329999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>125</v>
       </c>
@@ -12508,8 +13170,11 @@
       <c r="F97" s="10">
         <v>31.19</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G97" s="10">
+        <v>31.19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>126</v>
       </c>
@@ -12528,8 +13193,11 @@
       <c r="F98" s="10">
         <v>35.25667</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G98" s="10">
+        <v>35.25667</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>127</v>
       </c>
@@ -12548,8 +13216,11 @@
       <c r="F99" s="10">
         <v>38.33</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G99" s="10">
+        <v>38.33</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>128</v>
       </c>
@@ -12568,8 +13239,11 @@
       <c r="F100" s="10">
         <v>43.86</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G100" s="10">
+        <v>43.86</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>129</v>
       </c>
@@ -12588,8 +13262,11 @@
       <c r="F101" s="10">
         <v>48.306669999999997</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G101" s="10">
+        <v>48.306669999999997</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>130</v>
       </c>
@@ -12608,8 +13285,11 @@
       <c r="F102" s="10">
         <v>49.706670000000003</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G102" s="10">
+        <v>49.706670000000003</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>131</v>
       </c>
@@ -12628,8 +13308,11 @@
       <c r="F103" s="10">
         <v>53.043329999999997</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G103" s="10">
+        <v>53.043329999999997</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>132</v>
       </c>
@@ -12648,8 +13331,11 @@
       <c r="F104" s="10">
         <v>63.08</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G104" s="10">
+        <v>63.08</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>133</v>
       </c>
@@ -12668,8 +13354,11 @@
       <c r="F105" s="10">
         <v>60.033329999999999</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G105" s="10">
+        <v>60.033329999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>134</v>
       </c>
@@ -12688,8 +13377,11 @@
       <c r="F106" s="10">
         <v>63.346670000000003</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G106" s="10">
+        <v>63.346670000000003</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>135</v>
       </c>
@@ -12708,8 +13400,11 @@
       <c r="F107" s="10">
         <v>70.53</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G107" s="10">
+        <v>70.53</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>136</v>
       </c>
@@ -12728,8 +13423,11 @@
       <c r="F108" s="10">
         <v>70.443340000000006</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G108" s="10">
+        <v>70.443340000000006</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>137</v>
       </c>
@@ -12748,8 +13446,11 @@
       <c r="F109" s="10">
         <v>60.093330000000002</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G109" s="10">
+        <v>60.093330000000002</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>138</v>
       </c>
@@ -12768,8 +13469,11 @@
       <c r="F110" s="10">
         <v>58.13</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G110" s="10">
+        <v>58.13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>139</v>
       </c>
@@ -12788,8 +13492,11 @@
       <c r="F111" s="10">
         <v>64.97</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G111" s="10">
+        <v>64.97</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>140</v>
       </c>
@@ -12808,8 +13515,11 @@
       <c r="F112" s="10">
         <v>75.5</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G112" s="10">
+        <v>75.5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>141</v>
       </c>
@@ -12828,8 +13538,11 @@
       <c r="F113" s="10">
         <v>90.85</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G113" s="10">
+        <v>90.85</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>142</v>
       </c>
@@ -12848,8 +13561,11 @@
       <c r="F114" s="10">
         <v>97.953329999999994</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G114" s="10">
+        <v>97.953329999999994</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>143</v>
       </c>
@@ -12868,8 +13584,11 @@
       <c r="F115" s="10">
         <v>123.9633</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G115" s="10">
+        <v>123.9633</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>144</v>
       </c>
@@ -12888,8 +13607,11 @@
       <c r="F116" s="10">
         <v>117.9833</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G116" s="10">
+        <v>117.9833</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>145</v>
       </c>
@@ -12908,8 +13630,11 @@
       <c r="F117" s="10">
         <v>58.37</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G117" s="10">
+        <v>58.37</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>146</v>
       </c>
@@ -12928,8 +13653,11 @@
       <c r="F118" s="10">
         <v>42.96</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G118" s="10">
+        <v>42.96</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>147</v>
       </c>
@@ -12948,8 +13676,11 @@
       <c r="F119" s="10">
         <v>59.543329999999997</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G119" s="10">
+        <v>59.543329999999997</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>148</v>
       </c>
@@ -12968,8 +13699,11 @@
       <c r="F120" s="10">
         <v>68.203329999999994</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G120" s="10">
+        <v>68.203329999999994</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>149</v>
       </c>
@@ -12988,8 +13722,11 @@
       <c r="F121" s="10">
         <v>76.066670000000002</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G121" s="10">
+        <v>76.066670000000002</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>150</v>
       </c>
@@ -13008,8 +13745,11 @@
       <c r="F122" s="10">
         <v>78.626660000000001</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G122" s="10">
+        <v>78.626660000000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>151</v>
       </c>
@@ -13028,8 +13768,11 @@
       <c r="F123" s="10">
         <v>77.89</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G123" s="10">
+        <v>77.89</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>152</v>
       </c>
@@ -13048,8 +13791,11 @@
       <c r="F124" s="10">
         <v>76.166659999999993</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G124" s="10">
+        <v>76.166659999999993</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>153</v>
       </c>
@@ -13068,8 +13814,11 @@
       <c r="F125" s="10">
         <v>85.026660000000007</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G125" s="10">
+        <v>85.026660000000007</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>154</v>
       </c>
@@ -13088,8 +13837,11 @@
       <c r="F126" s="10">
         <v>93.98</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G126" s="10">
+        <v>93.98</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>155</v>
       </c>
@@ -13108,8 +13860,11 @@
       <c r="F127" s="10">
         <v>102.55329999999999</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G127" s="10">
+        <v>102.55329999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>156</v>
       </c>
@@ -13128,8 +13883,11 @@
       <c r="F128" s="10">
         <v>89.71</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G128" s="10">
+        <v>89.71</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>157</v>
       </c>
@@ -13148,8 +13906,11 @@
       <c r="F129" s="10">
         <v>94.063329999999993</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G129" s="10">
+        <v>94.063329999999993</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>158</v>
       </c>
@@ -13168,8 +13929,11 @@
       <c r="F130" s="10">
         <v>102.8933</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G130" s="10">
+        <v>102.8933</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>159</v>
       </c>
@@ -13188,8 +13952,11 @@
       <c r="F131" s="10">
         <v>93.48</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G131" s="10">
+        <v>93.48</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>160</v>
       </c>
@@ -13208,8 +13975,11 @@
       <c r="F132" s="10">
         <v>92.27</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G132" s="10">
+        <v>92.27</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>161</v>
       </c>
@@ -13228,8 +13998,11 @@
       <c r="F133" s="10">
         <v>88.16</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G133" s="10">
+        <v>88.16</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>162</v>
       </c>
@@ -13248,8 +14021,11 @@
       <c r="F134" s="10">
         <v>94.323329999999999</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G134" s="10">
+        <v>94.323329999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>163</v>
       </c>
@@ -13268,8 +14044,11 @@
       <c r="F135" s="10">
         <v>94.223339999999993</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G135" s="10">
+        <v>94.223339999999993</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>164</v>
       </c>
@@ -13288,8 +14067,11 @@
       <c r="F136" s="10">
         <v>105.85</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G136" s="10">
+        <v>105.85</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>165</v>
       </c>
@@ -13308,8 +14090,11 @@
       <c r="F137" s="10">
         <v>97.36</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G137" s="10">
+        <v>97.36</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>166</v>
       </c>
@@ -13328,8 +14113,11 @@
       <c r="F138" s="10">
         <v>98.746669999999995</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G138" s="10">
+        <v>98.746669999999995</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>167</v>
       </c>
@@ -13348,8 +14136,11 @@
       <c r="F139" s="10">
         <v>103.3467</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G139" s="10">
+        <v>103.3467</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>168</v>
       </c>
@@ -13368,8 +14159,11 @@
       <c r="F140" s="10">
         <v>97.78</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G140" s="10">
+        <v>97.78</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>169</v>
       </c>
@@ -13388,8 +14182,11 @@
       <c r="F141" s="10">
         <v>73.16</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G141" s="10">
+        <v>73.16</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>170</v>
       </c>
@@ -13408,8 +14205,11 @@
       <c r="F142" s="10">
         <v>48.64</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G142" s="10">
+        <v>48.64</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>171</v>
       </c>
@@ -13428,8 +14228,11 @@
       <c r="F143" s="10">
         <v>57.856670000000001</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G143" s="10">
+        <v>57.856670000000001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>172</v>
       </c>
@@ -13448,8 +14251,11 @@
       <c r="F144" s="10">
         <v>46.42</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G144" s="10">
+        <v>46.42</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>173</v>
       </c>
@@ -13468,8 +14274,11 @@
       <c r="F145" s="10">
         <v>42.023330000000001</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G145" s="10">
+        <v>42.023330000000001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>174</v>
       </c>
@@ -13488,8 +14297,11 @@
       <c r="F146" s="10">
         <v>33.356670000000001</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G146" s="10">
+        <v>33.356670000000001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>175</v>
       </c>
@@ -13508,8 +14320,11 @@
       <c r="F147" s="10">
         <v>45.44</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G147" s="10">
+        <v>45.44</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>176</v>
       </c>
@@ -13528,8 +14343,11 @@
       <c r="F148" s="10">
         <v>44.89</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G148" s="10">
+        <v>44.89</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>177</v>
       </c>
@@ -13548,8 +14366,11 @@
       <c r="F149" s="10">
         <v>49.2</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G149" s="10">
+        <v>49.2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>178</v>
       </c>
@@ -13568,8 +14389,11 @@
       <c r="F150" s="10">
         <v>51.833329999999997</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G150" s="10">
+        <v>51.833329999999997</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>179</v>
       </c>
@@ -13588,8 +14412,11 @@
       <c r="F151" s="10">
         <v>48.26</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G151" s="10">
+        <v>48.26</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>180</v>
       </c>
@@ -13608,8 +14435,11 @@
       <c r="F152" s="10">
         <v>48.163330000000002</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G152" s="10">
+        <v>48.163330000000002</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>181</v>
       </c>
@@ -13628,8 +14458,11 @@
       <c r="F153" s="10">
         <v>55.386670000000002</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G153" s="10">
+        <v>55.386670000000002</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>182</v>
       </c>
@@ -13648,8 +14481,11 @@
       <c r="F154" s="10">
         <v>62.876669999999997</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G154" s="10">
+        <v>62.876669999999997</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>183</v>
       </c>
@@ -13668,8 +14504,11 @@
       <c r="F155" s="10">
         <v>67.86</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G155" s="10">
+        <v>67.86</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>184</v>
       </c>
@@ -13688,8 +14527,11 @@
       <c r="F156" s="10">
         <v>69.72</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G156" s="10">
+        <v>69.72</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>185</v>
       </c>
@@ -13708,8 +14550,11 @@
       <c r="F157" s="10">
         <v>58.903329999999997</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G157" s="10">
+        <v>58.903329999999997</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>186</v>
       </c>
@@ -13728,8 +14573,11 @@
       <c r="F158" s="10">
         <v>54.85</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G158" s="10">
+        <v>54.85</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>187</v>
       </c>
@@ -13748,8 +14596,11 @@
       <c r="F159" s="10">
         <v>59.786670000000001</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G159" s="10">
+        <v>59.786670000000001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>188</v>
       </c>
@@ -13768,8 +14619,11 @@
       <c r="F160" s="10">
         <v>56.406669999999998</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G160" s="10">
+        <v>56.406669999999998</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>189</v>
       </c>
@@ -13788,8 +14642,11 @@
       <c r="F161" s="10">
         <v>56.913330000000002</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G161" s="10">
+        <v>56.913330000000002</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>190</v>
       </c>
@@ -13808,8 +14665,11 @@
       <c r="F162" s="10">
         <v>45.84</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G162" s="10">
+        <v>45.84</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>191</v>
       </c>
@@ -13828,8 +14688,11 @@
       <c r="F163" s="10">
         <v>27.82667</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G163" s="10">
+        <v>27.82667</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>192</v>
       </c>
@@ -13848,8 +14711,11 @@
       <c r="F164" s="10">
         <v>40.886670000000002</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G164" s="10">
+        <v>40.886670000000002</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>193</v>
       </c>
@@ -13868,8 +14734,11 @@
       <c r="F165" s="10">
         <v>42.50667</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G165" s="10">
+        <v>42.50667</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>194</v>
       </c>
@@ -13888,8 +14757,11 @@
       <c r="F166" s="11">
         <v>57.823329999999999</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G166" s="11">
+        <v>57.823329999999999</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>195</v>
       </c>
@@ -13908,8 +14780,11 @@
       <c r="F167" s="11">
         <v>66.09</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G167" s="11">
+        <v>66.09</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>196</v>
       </c>
@@ -13928,8 +14803,11 @@
       <c r="F168" s="11">
         <v>70.563329999999993</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G168" s="11">
+        <v>70.563329999999993</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>197</v>
       </c>
@@ -13948,8 +14826,11 @@
       <c r="F169" s="11">
         <v>77.44</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G169" s="11">
+        <v>77.44</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>198</v>
       </c>
@@ -13968,8 +14849,11 @@
       <c r="F170" s="12">
         <v>91.749949999999998</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G170">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>199</v>
       </c>
@@ -13988,8 +14872,11 @@
       <c r="F171" s="12">
         <v>101.7443</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G171">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>200</v>
       </c>
@@ -14008,8 +14895,11 @@
       <c r="F172" s="12">
         <v>101.3952</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G172">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>201</v>
       </c>
@@ -14028,8 +14918,11 @@
       <c r="F173" s="12">
         <v>96.862179999999995</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G173">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>202</v>
       </c>
@@ -14048,8 +14941,11 @@
       <c r="F174" s="12">
         <v>91.003789999999995</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G174">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>203</v>
       </c>
@@ -14068,8 +14964,11 @@
       <c r="F175" s="12">
         <v>85.314099999999996</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G175">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>204</v>
       </c>
@@ -14088,8 +14987,11 @@
       <c r="F176" s="12">
         <v>80.183430000000001</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G176">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>205</v>
       </c>
@@ -14108,8 +15010,11 @@
       <c r="F177" s="12">
         <v>76.294399999999996</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G177">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>206</v>
       </c>
@@ -14128,8 +15033,11 @@
       <c r="F178" s="12">
         <v>72.974180000000004</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G178">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>207</v>
       </c>
@@ -14148,8 +15056,11 @@
       <c r="F179" s="12">
         <v>70.890349999999998</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G179">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>208</v>
       </c>
@@ -14168,8 +15079,11 @@
       <c r="F180" s="12">
         <v>69.417659999999998</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G180">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>209</v>
       </c>
@@ -14188,8 +15102,11 @@
       <c r="F181" s="12">
         <v>68.519480000000001</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G181">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>210</v>
       </c>
@@ -14209,7 +15126,7 @@
         <v>68.032229999999998</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>211</v>
       </c>
@@ -14229,7 +15146,7 @@
         <v>68.006330000000005</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>212</v>
       </c>
@@ -14249,7 +15166,7 @@
         <v>68.068539999999999</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>213</v>
       </c>
@@ -14269,7 +15186,7 @@
         <v>68.264089999999996</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>214</v>
       </c>
@@ -14289,7 +15206,7 @@
         <v>68.521259999999998</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>215</v>
       </c>
@@ -14309,7 +15226,7 @@
         <v>68.896000000000001</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>216</v>
       </c>
@@ -14329,7 +15246,7 @@
         <v>69.276229999999998</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>217</v>
       </c>
@@ -14349,7 +15266,7 @@
         <v>69.657200000000003</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>218</v>
       </c>
@@ -14357,7 +15274,7 @@
         <v>65.75891</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>219</v>
       </c>
@@ -14365,7 +15282,7 @@
         <v>66.153559999999999</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>220</v>
       </c>
@@ -14373,7 +15290,7 @@
         <v>66.550489999999996</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>221</v>
       </c>
@@ -14381,7 +15298,7 @@
         <v>66.950040000000001</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>222</v>
       </c>
@@ -14389,7 +15306,7 @@
         <v>67.351780000000005</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>223</v>
       </c>
@@ -14397,7 +15314,7 @@
         <v>67.755979999999994</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>224</v>
       </c>
@@ -14405,7 +15322,7 @@
         <v>68.162480000000002</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>225</v>
       </c>
@@ -14413,7 +15330,7 @@
         <v>68.571529999999996</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>226</v>
       </c>
@@ -14421,7 +15338,7 @@
         <v>68.983000000000004</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>227</v>
       </c>
@@ -14429,7 +15346,7 @@
         <v>69.396780000000007</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>228</v>
       </c>
@@ -14437,7 +15354,7 @@
         <v>69.813050000000004</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>229</v>
       </c>
@@ -14445,7 +15362,7 @@
         <v>70.231830000000002</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>230</v>
       </c>
@@ -14453,7 +15370,7 @@
         <v>70.653080000000003</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>231</v>
       </c>
@@ -14461,7 +15378,7 @@
         <v>71.076999999999998</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>232</v>
       </c>
@@ -14469,7 +15386,7 @@
         <v>71.503429999999994</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>233</v>
       </c>
@@ -14480,6 +15397,3045 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8405955-763D-4064-9732-FE6F2B26F855}">
+  <dimension ref="A1:C189"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F192" sqref="F192"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B163">
+        <v>1</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B164">
+        <v>1</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B165">
+        <v>1</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+      <c r="C166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
+      <c r="C168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B169">
+        <v>0</v>
+      </c>
+      <c r="C169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B171">
+        <v>0</v>
+      </c>
+      <c r="C171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B172">
+        <v>0</v>
+      </c>
+      <c r="C172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+      <c r="C173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B174">
+        <v>0</v>
+      </c>
+      <c r="C174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B176">
+        <v>0</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B177">
+        <v>0</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B178">
+        <v>0</v>
+      </c>
+      <c r="C178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B179">
+        <v>0</v>
+      </c>
+      <c r="C179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B180">
+        <v>0</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B181">
+        <v>0</v>
+      </c>
+      <c r="C181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B182">
+        <v>0</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B183">
+        <v>0</v>
+      </c>
+      <c r="C183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B184">
+        <v>0</v>
+      </c>
+      <c r="C184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B185">
+        <v>0</v>
+      </c>
+      <c r="C185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B186">
+        <v>0</v>
+      </c>
+      <c r="C186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B187">
+        <v>0</v>
+      </c>
+      <c r="C187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B188">
+        <v>0</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B189">
+        <v>0</v>
+      </c>
+      <c r="C189">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98B2E0B2-27D8-4CE6-B338-B55F5217B6A2}">
+  <dimension ref="A1:B117"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B2">
+        <v>290.43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B3">
+        <v>298.64999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B4">
+        <v>295.10000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B5">
+        <v>302.82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>311</v>
+      </c>
+      <c r="B6">
+        <v>296.81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>312</v>
+      </c>
+      <c r="B7">
+        <v>281.183333333333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>313</v>
+      </c>
+      <c r="B8">
+        <v>275.02333333333303</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>314</v>
+      </c>
+      <c r="B9">
+        <v>276.303333333333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>315</v>
+      </c>
+      <c r="B10">
+        <v>249.576666666666</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>316</v>
+      </c>
+      <c r="B11">
+        <v>245.326666666666</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>317</v>
+      </c>
+      <c r="B12">
+        <v>233.613333333333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>318</v>
+      </c>
+      <c r="B13">
+        <v>227.97333333333299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>319</v>
+      </c>
+      <c r="B14">
+        <v>230.463333333333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>320</v>
+      </c>
+      <c r="B15">
+        <v>252.74666666666599</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>321</v>
+      </c>
+      <c r="B16">
+        <v>271.803333333333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>322</v>
+      </c>
+      <c r="B17">
+        <v>281.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>323</v>
+      </c>
+      <c r="B18">
+        <v>304.22333333333302</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>324</v>
+      </c>
+      <c r="B19">
+        <v>320.59333333333302</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>325</v>
+      </c>
+      <c r="B20">
+        <v>333.69333333333299</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>326</v>
+      </c>
+      <c r="B21">
+        <v>352.85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>327</v>
+      </c>
+      <c r="B22">
+        <v>332.21333333333303</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>328</v>
+      </c>
+      <c r="B23">
+        <v>317.75333333333299</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>329</v>
+      </c>
+      <c r="B24">
+        <v>273.63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>330</v>
+      </c>
+      <c r="B25">
+        <v>237.64666666666599</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>331</v>
+      </c>
+      <c r="B26">
+        <v>252.92333333333301</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>332</v>
+      </c>
+      <c r="B27">
+        <v>279.68666666666599</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>333</v>
+      </c>
+      <c r="B28">
+        <v>276.863333333333</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>334</v>
+      </c>
+      <c r="B29">
+        <v>289.27666666666602</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>335</v>
+      </c>
+      <c r="B30">
+        <v>339.84666666666601</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>336</v>
+      </c>
+      <c r="B31">
+        <v>326.56333333333299</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>337</v>
+      </c>
+      <c r="B32">
+        <v>325.42333333333301</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>338</v>
+      </c>
+      <c r="B33">
+        <v>334.49666666666599</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>339</v>
+      </c>
+      <c r="B34">
+        <v>372.26666666666603</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>340</v>
+      </c>
+      <c r="B35">
+        <v>402.12333333333299</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>341</v>
+      </c>
+      <c r="B36">
+        <v>408.57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>342</v>
+      </c>
+      <c r="B37">
+        <v>427.09666666666601</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>343</v>
+      </c>
+      <c r="B38">
+        <v>448.69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>344</v>
+      </c>
+      <c r="B39">
+        <v>467.046666666666</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>345</v>
+      </c>
+      <c r="B40">
+        <v>537.236666666666</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>346</v>
+      </c>
+      <c r="B41">
+        <v>569.15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>347</v>
+      </c>
+      <c r="B42">
+        <v>529.50666666666598</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>348</v>
+      </c>
+      <c r="B43">
+        <v>546.106666666666</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>349</v>
+      </c>
+      <c r="B44">
+        <v>539.31333333333305</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>350</v>
+      </c>
+      <c r="B45">
+        <v>520.96666666666601</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>351</v>
+      </c>
+      <c r="B46">
+        <v>529.106666666666</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>352</v>
+      </c>
+      <c r="B47">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>353</v>
+      </c>
+      <c r="B48">
+        <v>561.55666666666605</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>354</v>
+      </c>
+      <c r="B49">
+        <v>614.41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>355</v>
+      </c>
+      <c r="B50">
+        <v>687.88333333333298</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>356</v>
+      </c>
+      <c r="B51">
+        <v>825.86666666666599</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>357</v>
+      </c>
+      <c r="B52">
+        <v>765.55333333333294</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>358</v>
+      </c>
+      <c r="B53">
+        <v>469.07666666666597</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>359</v>
+      </c>
+      <c r="B54">
+        <v>397.33333333333297</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>360</v>
+      </c>
+      <c r="B55">
+        <v>453.65333333333302</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>361</v>
+      </c>
+      <c r="B56">
+        <v>471.36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>362</v>
+      </c>
+      <c r="B57">
+        <v>523.82333333333304</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>363</v>
+      </c>
+      <c r="B58">
+        <v>563.59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>364</v>
+      </c>
+      <c r="B59">
+        <v>552.25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>365</v>
+      </c>
+      <c r="B60">
+        <v>539.13333333333298</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>366</v>
+      </c>
+      <c r="B61">
+        <v>585.72</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>367</v>
+      </c>
+      <c r="B62">
+        <v>648.01</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>368</v>
+      </c>
+      <c r="B63">
+        <v>691.58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>369</v>
+      </c>
+      <c r="B64">
+        <v>654.04</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>370</v>
+      </c>
+      <c r="B65">
+        <v>641.41666666666595</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>371</v>
+      </c>
+      <c r="B66">
+        <v>644.09666666666601</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>372</v>
+      </c>
+      <c r="B67">
+        <v>615.17666666666605</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>373</v>
+      </c>
+      <c r="B68">
+        <v>619.24666666666599</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>374</v>
+      </c>
+      <c r="B69">
+        <v>604.13333333333298</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>375</v>
+      </c>
+      <c r="B70">
+        <v>616.363333333333</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>376</v>
+      </c>
+      <c r="B71">
+        <v>623.856666666666</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>377</v>
+      </c>
+      <c r="B72">
+        <v>638.53333333333296</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>378</v>
+      </c>
+      <c r="B73">
+        <v>596.08000000000004</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>379</v>
+      </c>
+      <c r="B74">
+        <v>629.65666666666596</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>380</v>
+      </c>
+      <c r="B75">
+        <v>650.08666666666602</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>381</v>
+      </c>
+      <c r="B76">
+        <v>622.53333333333296</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>382</v>
+      </c>
+      <c r="B77">
+        <v>521.22666666666601</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>383</v>
+      </c>
+      <c r="B78">
+        <v>399.54</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>384</v>
+      </c>
+      <c r="B79">
+        <v>434.20333333333298</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>385</v>
+      </c>
+      <c r="B80">
+        <v>372.82333333333298</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>386</v>
+      </c>
+      <c r="B81">
+        <v>340.95333333333298</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>387</v>
+      </c>
+      <c r="B82">
+        <v>304.57666666666597</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>388</v>
+      </c>
+      <c r="B83">
+        <v>365.553333333333</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>389</v>
+      </c>
+      <c r="B84">
+        <v>362.46666666666601</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>390</v>
+      </c>
+      <c r="B85">
+        <v>375.09333333333302</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>391</v>
+      </c>
+      <c r="B86">
+        <v>400.03</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>392</v>
+      </c>
+      <c r="B87">
+        <v>400.38333333333298</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>393</v>
+      </c>
+      <c r="B88">
+        <v>405.62333333333299</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>394</v>
+      </c>
+      <c r="B89">
+        <v>426.14333333333298</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>395</v>
+      </c>
+      <c r="B90">
+        <v>443.356666666666</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>396</v>
+      </c>
+      <c r="B91">
+        <v>484.046666666666</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>397</v>
+      </c>
+      <c r="B92">
+        <v>456.28666666666601</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>398</v>
+      </c>
+      <c r="B93">
+        <v>393.7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>399</v>
+      </c>
+      <c r="B94">
+        <v>429.21666666666601</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>400</v>
+      </c>
+      <c r="B95">
+        <v>439.41333333333301</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>401</v>
+      </c>
+      <c r="B96">
+        <v>425.34</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>402</v>
+      </c>
+      <c r="B97">
+        <v>415.39</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>403</v>
+      </c>
+      <c r="B98">
+        <v>370.85</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>404</v>
+      </c>
+      <c r="B99">
+        <v>312.8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>405</v>
+      </c>
+      <c r="B100">
+        <v>412.3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>406</v>
+      </c>
+      <c r="B101">
+        <v>429.40333333333302</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>407</v>
+      </c>
+      <c r="B102">
+        <v>520.68666666666604</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>408</v>
+      </c>
+      <c r="B103">
+        <v>590.71333333333303</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>409</v>
+      </c>
+      <c r="B104">
+        <v>587.56666666666604</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>410</v>
+      </c>
+      <c r="B105">
+        <v>633.84</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>411</v>
+      </c>
+      <c r="B106">
+        <v>692.1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>412</v>
+      </c>
+      <c r="B107">
+        <v>700.84543541234598</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>413</v>
+      </c>
+      <c r="B108">
+        <v>684.01448968785201</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>414</v>
+      </c>
+      <c r="B109">
+        <v>671.09664195312905</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>415</v>
+      </c>
+      <c r="B110">
+        <v>669.91108502009001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>416</v>
+      </c>
+      <c r="B111">
+        <v>671.05833834431405</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>417</v>
+      </c>
+      <c r="B112">
+        <v>667.18689003039799</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>418</v>
+      </c>
+      <c r="B113">
+        <v>663.03639069723897</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>419</v>
+      </c>
+      <c r="B114">
+        <v>663.09153717812899</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>420</v>
+      </c>
+      <c r="B115">
+        <v>662.66548869260203</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>421</v>
+      </c>
+      <c r="B116">
+        <v>660.02903110141006</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>422</v>
+      </c>
+      <c r="B117">
+        <v>657.64811959213796</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/data/BaselineNationalForecasts.xlsx
+++ b/data/BaselineNationalForecasts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maln\Documents\GitHub\housing_stats\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94590781-243E-4A81-9E3B-8328FDC91BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76325A1E-F749-46CE-AF58-4B5C98FAD67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quarterly" sheetId="1" r:id="rId1"/>
@@ -1427,22 +1427,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1465,7 +1463,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="sheet0"/>
@@ -1800,8 +1798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M224"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10940,29 +10938,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4509B7CE-EAE7-4EFC-BF06-58A8650AF1F6}">
   <dimension ref="A1:G205"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="H183" sqref="H183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="11" t="s">
         <v>305</v>
       </c>
     </row>
@@ -10970,22 +10968,22 @@
       <c r="A2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="4">
         <v>35.833329999999997</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="4">
         <v>35.833329999999997</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="4">
         <v>35.833329999999997</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="4">
         <v>35.833329999999997</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="4">
         <v>35.833329999999997</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="4">
         <v>35.833329999999997</v>
       </c>
     </row>
@@ -10993,22 +10991,22 @@
       <c r="A3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="4">
         <v>39.5</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="4">
         <v>39.5</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="4">
         <v>39.5</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="4">
         <v>39.5</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="4">
         <v>39.5</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="4">
         <v>39.5</v>
       </c>
     </row>
@@ -11016,22 +11014,22 @@
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="4">
         <v>37.833329999999997</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="4">
         <v>37.833329999999997</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="4">
         <v>37.833329999999997</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="4">
         <v>37.833329999999997</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="4">
         <v>37.833329999999997</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="4">
         <v>37.833329999999997</v>
       </c>
     </row>
@@ -11039,22 +11037,22 @@
       <c r="A5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="4">
         <v>36.333329999999997</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="4">
         <v>36.333329999999997</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="4">
         <v>36.333329999999997</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="4">
         <v>36.333329999999997</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="4">
         <v>36.333329999999997</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="4">
         <v>36.333329999999997</v>
       </c>
     </row>
@@ -11062,22 +11060,22 @@
       <c r="A6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="4">
         <v>38</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="4">
         <v>38</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="4">
         <v>38</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="4">
         <v>38</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="4">
         <v>38</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="4">
         <v>38</v>
       </c>
     </row>
@@ -11085,22 +11083,22 @@
       <c r="A7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="4">
         <v>37.333329999999997</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="4">
         <v>37.333329999999997</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="4">
         <v>37.333329999999997</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="4">
         <v>37.333329999999997</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="4">
         <v>37.333329999999997</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="4">
         <v>37.333329999999997</v>
       </c>
     </row>
@@ -11108,22 +11106,22 @@
       <c r="A8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="4">
         <v>36</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="4">
         <v>36</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="4">
         <v>36</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="4">
         <v>36</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="4">
         <v>36</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="4">
         <v>36</v>
       </c>
     </row>
@@ -11131,22 +11129,22 @@
       <c r="A9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="4">
         <v>35.333329999999997</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="4">
         <v>35.333329999999997</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="4">
         <v>35.333329999999997</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="4">
         <v>35.333329999999997</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="4">
         <v>35.333329999999997</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="4">
         <v>35.333329999999997</v>
       </c>
     </row>
@@ -11154,22 +11152,22 @@
       <c r="A10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="4">
         <v>31.296669999999999</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="4">
         <v>31.296669999999999</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="4">
         <v>31.296669999999999</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="4">
         <v>31.296669999999999</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="4">
         <v>31.296669999999999</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="4">
         <v>31.296669999999999</v>
       </c>
     </row>
@@ -11177,22 +11175,22 @@
       <c r="A11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="4">
         <v>34.816670000000002</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="4">
         <v>34.816670000000002</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="4">
         <v>34.816670000000002</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="4">
         <v>34.816670000000002</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="4">
         <v>34.816670000000002</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="4">
         <v>34.816670000000002</v>
       </c>
     </row>
@@ -11200,22 +11198,22 @@
       <c r="A12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="4">
         <v>34.58</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="4">
         <v>34.58</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="4">
         <v>34.58</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="4">
         <v>34.58</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="4">
         <v>34.58</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="4">
         <v>34.58</v>
       </c>
     </row>
@@ -11223,22 +11221,22 @@
       <c r="A13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="4">
         <v>33.85</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="4">
         <v>33.85</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="4">
         <v>33.85</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="4">
         <v>33.85</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="4">
         <v>33.85</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="4">
         <v>33.85</v>
       </c>
     </row>
@@ -11246,22 +11244,22 @@
       <c r="A14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="4">
         <v>29.65333</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="4">
         <v>29.65333</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="4">
         <v>29.65333</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="4">
         <v>29.65333</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="4">
         <v>29.65333</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="4">
         <v>29.65333</v>
       </c>
     </row>
@@ -11269,22 +11267,22 @@
       <c r="A15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="4">
         <v>30.536670000000001</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="4">
         <v>30.536670000000001</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="4">
         <v>30.536670000000001</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="4">
         <v>30.536670000000001</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="4">
         <v>30.536670000000001</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="4">
         <v>30.536670000000001</v>
       </c>
     </row>
@@ -11292,22 +11290,22 @@
       <c r="A16" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="4">
         <v>31.56</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="4">
         <v>31.56</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="4">
         <v>31.56</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="4">
         <v>31.56</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="4">
         <v>31.56</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="4">
         <v>31.56</v>
       </c>
     </row>
@@ -11315,22 +11313,22 @@
       <c r="A17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="4">
         <v>29.83</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="4">
         <v>29.83</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="4">
         <v>29.83</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="4">
         <v>29.83</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="4">
         <v>29.83</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="4">
         <v>29.83</v>
       </c>
     </row>
@@ -11338,22 +11336,22 @@
       <c r="A18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="4">
         <v>30.19867</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="4">
         <v>30.19867</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="4">
         <v>30.19867</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="4">
         <v>30.19867</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="4">
         <v>30.19867</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="4">
         <v>30.19867</v>
       </c>
     </row>
@@ -11361,22 +11359,22 @@
       <c r="A19" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="4">
         <v>30.36833</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="4">
         <v>30.36833</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="4">
         <v>30.36833</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="4">
         <v>30.36833</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="4">
         <v>30.36833</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="4">
         <v>30.36833</v>
       </c>
     </row>
@@ -11384,22 +11382,22 @@
       <c r="A20" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="4">
         <v>29.104330000000001</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="4">
         <v>29.104330000000001</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="4">
         <v>29.104330000000001</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="4">
         <v>29.104330000000001</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="4">
         <v>29.104330000000001</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="4">
         <v>29.104330000000001</v>
       </c>
     </row>
@@ -11407,22 +11405,22 @@
       <c r="A21" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="4">
         <v>27.430669999999999</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="4">
         <v>27.430669999999999</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="4">
         <v>27.430669999999999</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="4">
         <v>27.430669999999999</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="4">
         <v>27.430669999999999</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="4">
         <v>27.430669999999999</v>
       </c>
     </row>
@@ -11430,22 +11428,22 @@
       <c r="A22" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="4">
         <v>27.05</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="4">
         <v>27.05</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="4">
         <v>27.05</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="4">
         <v>27.05</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="4">
         <v>27.05</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="4">
         <v>27.05</v>
       </c>
     </row>
@@ -11453,22 +11451,22 @@
       <c r="A23" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="4">
         <v>27.856999999999999</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="4">
         <v>27.856999999999999</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="4">
         <v>27.856999999999999</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="4">
         <v>27.856999999999999</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="4">
         <v>27.856999999999999</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23" s="4">
         <v>27.856999999999999</v>
       </c>
     </row>
@@ -11476,22 +11474,22 @@
       <c r="A24" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="4">
         <v>27.791</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="4">
         <v>27.791</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="4">
         <v>27.791</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="4">
         <v>27.791</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="4">
         <v>27.791</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G24" s="4">
         <v>27.791</v>
       </c>
     </row>
@@ -11499,22 +11497,22 @@
       <c r="A25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="4">
         <v>29.193000000000001</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="4">
         <v>29.193000000000001</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="4">
         <v>29.193000000000001</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="4">
         <v>29.193000000000001</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="4">
         <v>29.193000000000001</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25" s="4">
         <v>29.193000000000001</v>
       </c>
     </row>
@@ -11522,22 +11520,22 @@
       <c r="A26" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="4">
         <v>17.001670000000001</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="4">
         <v>17.001670000000001</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="4">
         <v>17.001670000000001</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="4">
         <v>17.001670000000001</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="4">
         <v>17.001670000000001</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G26" s="4">
         <v>17.001670000000001</v>
       </c>
     </row>
@@ -11545,22 +11543,22 @@
       <c r="A27" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="4">
         <v>13.92</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="4">
         <v>13.92</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="4">
         <v>13.92</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="4">
         <v>13.92</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="4">
         <v>13.92</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G27" s="4">
         <v>13.92</v>
       </c>
     </row>
@@ -11568,22 +11566,22 @@
       <c r="A28" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="4">
         <v>13.86</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="4">
         <v>13.86</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="4">
         <v>13.86</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="4">
         <v>13.86</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="4">
         <v>13.86</v>
       </c>
-      <c r="G28" s="10">
+      <c r="G28" s="4">
         <v>13.86</v>
       </c>
     </row>
@@ -11591,22 +11589,22 @@
       <c r="A29" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="4">
         <v>15.37833</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="4">
         <v>15.37833</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="4">
         <v>15.37833</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="4">
         <v>15.37833</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="4">
         <v>15.37833</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G29" s="4">
         <v>15.37833</v>
       </c>
     </row>
@@ -11614,22 +11612,22 @@
       <c r="A30" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="4">
         <v>18.228999999999999</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="4">
         <v>18.228999999999999</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="4">
         <v>18.228999999999999</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="4">
         <v>18.228999999999999</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="4">
         <v>18.228999999999999</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G30" s="4">
         <v>18.228999999999999</v>
       </c>
     </row>
@@ -11637,22 +11635,22 @@
       <c r="A31" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="4">
         <v>19.364000000000001</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="4">
         <v>19.364000000000001</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="4">
         <v>19.364000000000001</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="4">
         <v>19.364000000000001</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31" s="4">
         <v>19.364000000000001</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G31" s="4">
         <v>19.364000000000001</v>
       </c>
     </row>
@@ -11660,22 +11658,22 @@
       <c r="A32" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="4">
         <v>20.385000000000002</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="4">
         <v>20.385000000000002</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="4">
         <v>20.385000000000002</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E32" s="4">
         <v>20.385000000000002</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F32" s="4">
         <v>20.385000000000002</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G32" s="4">
         <v>20.385000000000002</v>
       </c>
     </row>
@@ -11683,22 +11681,22 @@
       <c r="A33" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="4">
         <v>18.66967</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="4">
         <v>18.66967</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="4">
         <v>18.66967</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E33" s="4">
         <v>18.66967</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F33" s="4">
         <v>18.66967</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G33" s="4">
         <v>18.66967</v>
       </c>
     </row>
@@ -11706,22 +11704,22 @@
       <c r="A34" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B34" s="4">
         <v>16.713999999999999</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="4">
         <v>16.713999999999999</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="4">
         <v>16.713999999999999</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="4">
         <v>16.713999999999999</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F34" s="4">
         <v>16.713999999999999</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G34" s="4">
         <v>16.713999999999999</v>
       </c>
     </row>
@@ -11729,22 +11727,22 @@
       <c r="A35" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35" s="4">
         <v>17.280999999999999</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="4">
         <v>17.280999999999999</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="4">
         <v>17.280999999999999</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E35" s="4">
         <v>17.280999999999999</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F35" s="4">
         <v>17.280999999999999</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G35" s="4">
         <v>17.280999999999999</v>
       </c>
     </row>
@@ -11752,22 +11750,22 @@
       <c r="A36" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B36" s="4">
         <v>15.163</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="4">
         <v>15.163</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="4">
         <v>15.163</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="4">
         <v>15.163</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F36" s="4">
         <v>15.163</v>
       </c>
-      <c r="G36" s="10">
+      <c r="G36" s="4">
         <v>15.163</v>
       </c>
     </row>
@@ -11775,22 +11773,22 @@
       <c r="A37" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B37" s="4">
         <v>14.68033</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37" s="4">
         <v>14.68033</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D37" s="4">
         <v>14.68033</v>
       </c>
-      <c r="E37" s="10">
+      <c r="E37" s="4">
         <v>14.68033</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F37" s="4">
         <v>14.68033</v>
       </c>
-      <c r="G37" s="10">
+      <c r="G37" s="4">
         <v>14.68033</v>
       </c>
     </row>
@@ -11798,22 +11796,22 @@
       <c r="A38" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B38" s="10">
+      <c r="B38" s="4">
         <v>18.417999999999999</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C38" s="4">
         <v>18.417999999999999</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D38" s="4">
         <v>18.417999999999999</v>
       </c>
-      <c r="E38" s="10">
+      <c r="E38" s="4">
         <v>18.417999999999999</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F38" s="4">
         <v>18.417999999999999</v>
       </c>
-      <c r="G38" s="10">
+      <c r="G38" s="4">
         <v>18.417999999999999</v>
       </c>
     </row>
@@ -11821,22 +11819,22 @@
       <c r="A39" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B39" s="4">
         <v>20.359000000000002</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C39" s="4">
         <v>20.359000000000002</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D39" s="4">
         <v>20.359000000000002</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E39" s="4">
         <v>20.359000000000002</v>
       </c>
-      <c r="F39" s="10">
+      <c r="F39" s="4">
         <v>20.359000000000002</v>
       </c>
-      <c r="G39" s="10">
+      <c r="G39" s="4">
         <v>20.359000000000002</v>
       </c>
     </row>
@@ -11844,22 +11842,22 @@
       <c r="A40" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B40" s="4">
         <v>19.253329999999998</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="4">
         <v>19.253329999999998</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40" s="4">
         <v>19.253329999999998</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E40" s="4">
         <v>19.253329999999998</v>
       </c>
-      <c r="F40" s="10">
+      <c r="F40" s="4">
         <v>19.253329999999998</v>
       </c>
-      <c r="G40" s="10">
+      <c r="G40" s="4">
         <v>19.253329999999998</v>
       </c>
     </row>
@@ -11867,22 +11865,22 @@
       <c r="A41" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B41" s="4">
         <v>20.332999999999998</v>
       </c>
-      <c r="C41" s="10">
+      <c r="C41" s="4">
         <v>20.332999999999998</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D41" s="4">
         <v>20.332999999999998</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E41" s="4">
         <v>20.332999999999998</v>
       </c>
-      <c r="F41" s="10">
+      <c r="F41" s="4">
         <v>20.332999999999998</v>
       </c>
-      <c r="G41" s="10">
+      <c r="G41" s="4">
         <v>20.332999999999998</v>
       </c>
     </row>
@@ -11890,22 +11888,22 @@
       <c r="A42" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B42" s="10">
+      <c r="B42" s="4">
         <v>21.722329999999999</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C42" s="4">
         <v>21.722329999999999</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D42" s="4">
         <v>21.722329999999999</v>
       </c>
-      <c r="E42" s="10">
+      <c r="E42" s="4">
         <v>21.722329999999999</v>
       </c>
-      <c r="F42" s="10">
+      <c r="F42" s="4">
         <v>21.722329999999999</v>
       </c>
-      <c r="G42" s="10">
+      <c r="G42" s="4">
         <v>21.722329999999999</v>
       </c>
     </row>
@@ -11913,22 +11911,22 @@
       <c r="A43" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B43" s="10">
+      <c r="B43" s="4">
         <v>17.89667</v>
       </c>
-      <c r="C43" s="10">
+      <c r="C43" s="4">
         <v>17.89667</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D43" s="4">
         <v>17.89667</v>
       </c>
-      <c r="E43" s="10">
+      <c r="E43" s="4">
         <v>17.89667</v>
       </c>
-      <c r="F43" s="10">
+      <c r="F43" s="4">
         <v>17.89667</v>
       </c>
-      <c r="G43" s="10">
+      <c r="G43" s="4">
         <v>17.89667</v>
       </c>
     </row>
@@ -11936,22 +11934,22 @@
       <c r="A44" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B44" s="4">
         <v>26.499669999999998</v>
       </c>
-      <c r="C44" s="10">
+      <c r="C44" s="4">
         <v>26.499669999999998</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D44" s="4">
         <v>26.499669999999998</v>
       </c>
-      <c r="E44" s="10">
+      <c r="E44" s="4">
         <v>26.499669999999998</v>
       </c>
-      <c r="F44" s="10">
+      <c r="F44" s="4">
         <v>26.499669999999998</v>
       </c>
-      <c r="G44" s="10">
+      <c r="G44" s="4">
         <v>26.499669999999998</v>
       </c>
     </row>
@@ -11959,22 +11957,22 @@
       <c r="A45" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B45" s="10">
+      <c r="B45" s="4">
         <v>31.853000000000002</v>
       </c>
-      <c r="C45" s="10">
+      <c r="C45" s="4">
         <v>31.853000000000002</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D45" s="4">
         <v>31.853000000000002</v>
       </c>
-      <c r="E45" s="10">
+      <c r="E45" s="4">
         <v>31.853000000000002</v>
       </c>
-      <c r="F45" s="10">
+      <c r="F45" s="4">
         <v>31.853000000000002</v>
       </c>
-      <c r="G45" s="10">
+      <c r="G45" s="4">
         <v>31.853000000000002</v>
       </c>
     </row>
@@ -11982,22 +11980,22 @@
       <c r="A46" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B46" s="10">
+      <c r="B46" s="4">
         <v>21.780670000000001</v>
       </c>
-      <c r="C46" s="10">
+      <c r="C46" s="4">
         <v>21.780670000000001</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D46" s="4">
         <v>21.780670000000001</v>
       </c>
-      <c r="E46" s="10">
+      <c r="E46" s="4">
         <v>21.780670000000001</v>
       </c>
-      <c r="F46" s="10">
+      <c r="F46" s="4">
         <v>21.780670000000001</v>
       </c>
-      <c r="G46" s="10">
+      <c r="G46" s="4">
         <v>21.780670000000001</v>
       </c>
     </row>
@@ -12005,22 +12003,22 @@
       <c r="A47" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B47" s="10">
+      <c r="B47" s="4">
         <v>20.752669999999998</v>
       </c>
-      <c r="C47" s="10">
+      <c r="C47" s="4">
         <v>20.752669999999998</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D47" s="4">
         <v>20.752669999999998</v>
       </c>
-      <c r="E47" s="10">
+      <c r="E47" s="4">
         <v>20.752669999999998</v>
       </c>
-      <c r="F47" s="10">
+      <c r="F47" s="4">
         <v>20.752669999999998</v>
       </c>
-      <c r="G47" s="10">
+      <c r="G47" s="4">
         <v>20.752669999999998</v>
       </c>
     </row>
@@ -12028,22 +12026,22 @@
       <c r="A48" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B48" s="10">
+      <c r="B48" s="4">
         <v>21.655000000000001</v>
       </c>
-      <c r="C48" s="10">
+      <c r="C48" s="4">
         <v>21.655000000000001</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D48" s="4">
         <v>21.655000000000001</v>
       </c>
-      <c r="E48" s="10">
+      <c r="E48" s="4">
         <v>21.655000000000001</v>
       </c>
-      <c r="F48" s="10">
+      <c r="F48" s="4">
         <v>21.655000000000001</v>
       </c>
-      <c r="G48" s="10">
+      <c r="G48" s="4">
         <v>21.655000000000001</v>
       </c>
     </row>
@@ -12051,22 +12049,22 @@
       <c r="A49" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B49" s="10">
+      <c r="B49" s="4">
         <v>21.73667</v>
       </c>
-      <c r="C49" s="10">
+      <c r="C49" s="4">
         <v>21.73667</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D49" s="4">
         <v>21.73667</v>
       </c>
-      <c r="E49" s="10">
+      <c r="E49" s="4">
         <v>21.73667</v>
       </c>
-      <c r="F49" s="10">
+      <c r="F49" s="4">
         <v>21.73667</v>
       </c>
-      <c r="G49" s="10">
+      <c r="G49" s="4">
         <v>21.73667</v>
       </c>
     </row>
@@ -12074,22 +12072,22 @@
       <c r="A50" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B50" s="10">
+      <c r="B50" s="4">
         <v>18.910329999999998</v>
       </c>
-      <c r="C50" s="10">
+      <c r="C50" s="4">
         <v>18.910329999999998</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D50" s="4">
         <v>18.910329999999998</v>
       </c>
-      <c r="E50" s="10">
+      <c r="E50" s="4">
         <v>18.910329999999998</v>
       </c>
-      <c r="F50" s="10">
+      <c r="F50" s="4">
         <v>18.910329999999998</v>
       </c>
-      <c r="G50" s="10">
+      <c r="G50" s="4">
         <v>18.910329999999998</v>
       </c>
     </row>
@@ -12097,22 +12095,22 @@
       <c r="A51" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B51" s="10">
+      <c r="B51" s="4">
         <v>21.186</v>
       </c>
-      <c r="C51" s="10">
+      <c r="C51" s="4">
         <v>21.186</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D51" s="4">
         <v>21.186</v>
       </c>
-      <c r="E51" s="10">
+      <c r="E51" s="4">
         <v>21.186</v>
       </c>
-      <c r="F51" s="10">
+      <c r="F51" s="4">
         <v>21.186</v>
       </c>
-      <c r="G51" s="10">
+      <c r="G51" s="4">
         <v>21.186</v>
       </c>
     </row>
@@ -12120,22 +12118,22 @@
       <c r="A52" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B52" s="10">
+      <c r="B52" s="4">
         <v>21.67033</v>
       </c>
-      <c r="C52" s="10">
+      <c r="C52" s="4">
         <v>21.67033</v>
       </c>
-      <c r="D52" s="10">
+      <c r="D52" s="4">
         <v>21.67033</v>
       </c>
-      <c r="E52" s="10">
+      <c r="E52" s="4">
         <v>21.67033</v>
       </c>
-      <c r="F52" s="10">
+      <c r="F52" s="4">
         <v>21.67033</v>
       </c>
-      <c r="G52" s="10">
+      <c r="G52" s="4">
         <v>21.67033</v>
       </c>
     </row>
@@ -12143,22 +12141,22 @@
       <c r="A53" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B53" s="10">
+      <c r="B53" s="4">
         <v>20.478999999999999</v>
       </c>
-      <c r="C53" s="10">
+      <c r="C53" s="4">
         <v>20.478999999999999</v>
       </c>
-      <c r="D53" s="10">
+      <c r="D53" s="4">
         <v>20.478999999999999</v>
       </c>
-      <c r="E53" s="10">
+      <c r="E53" s="4">
         <v>20.478999999999999</v>
       </c>
-      <c r="F53" s="10">
+      <c r="F53" s="4">
         <v>20.478999999999999</v>
       </c>
-      <c r="G53" s="10">
+      <c r="G53" s="4">
         <v>20.478999999999999</v>
       </c>
     </row>
@@ -12166,22 +12164,22 @@
       <c r="A54" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B54" s="10">
+      <c r="B54" s="4">
         <v>19.824999999999999</v>
       </c>
-      <c r="C54" s="10">
+      <c r="C54" s="4">
         <v>19.824999999999999</v>
       </c>
-      <c r="D54" s="10">
+      <c r="D54" s="4">
         <v>19.824999999999999</v>
       </c>
-      <c r="E54" s="10">
+      <c r="E54" s="4">
         <v>19.824999999999999</v>
       </c>
-      <c r="F54" s="10">
+      <c r="F54" s="4">
         <v>19.824999999999999</v>
       </c>
-      <c r="G54" s="10">
+      <c r="G54" s="4">
         <v>19.824999999999999</v>
       </c>
     </row>
@@ -12189,22 +12187,22 @@
       <c r="A55" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B55" s="10">
+      <c r="B55" s="4">
         <v>19.760000000000002</v>
       </c>
-      <c r="C55" s="10">
+      <c r="C55" s="4">
         <v>19.760000000000002</v>
       </c>
-      <c r="D55" s="10">
+      <c r="D55" s="4">
         <v>19.760000000000002</v>
       </c>
-      <c r="E55" s="10">
+      <c r="E55" s="4">
         <v>19.760000000000002</v>
       </c>
-      <c r="F55" s="10">
+      <c r="F55" s="4">
         <v>19.760000000000002</v>
       </c>
-      <c r="G55" s="10">
+      <c r="G55" s="4">
         <v>19.760000000000002</v>
       </c>
     </row>
@@ -12212,22 +12210,22 @@
       <c r="A56" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B56" s="10">
+      <c r="B56" s="4">
         <v>17.796330000000001</v>
       </c>
-      <c r="C56" s="10">
+      <c r="C56" s="4">
         <v>17.796330000000001</v>
       </c>
-      <c r="D56" s="10">
+      <c r="D56" s="4">
         <v>17.796330000000001</v>
       </c>
-      <c r="E56" s="10">
+      <c r="E56" s="4">
         <v>17.796330000000001</v>
       </c>
-      <c r="F56" s="10">
+      <c r="F56" s="4">
         <v>17.796330000000001</v>
       </c>
-      <c r="G56" s="10">
+      <c r="G56" s="4">
         <v>17.796330000000001</v>
       </c>
     </row>
@@ -12235,22 +12233,22 @@
       <c r="A57" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B57" s="10">
+      <c r="B57" s="4">
         <v>16.451329999999999</v>
       </c>
-      <c r="C57" s="10">
+      <c r="C57" s="4">
         <v>16.451329999999999</v>
       </c>
-      <c r="D57" s="10">
+      <c r="D57" s="4">
         <v>16.451329999999999</v>
       </c>
-      <c r="E57" s="10">
+      <c r="E57" s="4">
         <v>16.451329999999999</v>
       </c>
-      <c r="F57" s="10">
+      <c r="F57" s="4">
         <v>16.451329999999999</v>
       </c>
-      <c r="G57" s="10">
+      <c r="G57" s="4">
         <v>16.451329999999999</v>
       </c>
     </row>
@@ -12258,22 +12256,22 @@
       <c r="A58" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B58" s="10">
+      <c r="B58" s="4">
         <v>14.813330000000001</v>
       </c>
-      <c r="C58" s="10">
+      <c r="C58" s="4">
         <v>14.813330000000001</v>
       </c>
-      <c r="D58" s="10">
+      <c r="D58" s="4">
         <v>14.813330000000001</v>
       </c>
-      <c r="E58" s="10">
+      <c r="E58" s="4">
         <v>14.813330000000001</v>
       </c>
-      <c r="F58" s="10">
+      <c r="F58" s="4">
         <v>14.813330000000001</v>
       </c>
-      <c r="G58" s="10">
+      <c r="G58" s="4">
         <v>14.813330000000001</v>
       </c>
     </row>
@@ -12281,22 +12279,22 @@
       <c r="A59" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B59" s="10">
+      <c r="B59" s="4">
         <v>17.776669999999999</v>
       </c>
-      <c r="C59" s="10">
+      <c r="C59" s="4">
         <v>17.776669999999999</v>
       </c>
-      <c r="D59" s="10">
+      <c r="D59" s="4">
         <v>17.776669999999999</v>
       </c>
-      <c r="E59" s="10">
+      <c r="E59" s="4">
         <v>17.776669999999999</v>
       </c>
-      <c r="F59" s="10">
+      <c r="F59" s="4">
         <v>17.776669999999999</v>
       </c>
-      <c r="G59" s="10">
+      <c r="G59" s="4">
         <v>17.776669999999999</v>
       </c>
     </row>
@@ -12304,22 +12302,22 @@
       <c r="A60" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B60" s="10">
+      <c r="B60" s="4">
         <v>18.496670000000002</v>
       </c>
-      <c r="C60" s="10">
+      <c r="C60" s="4">
         <v>18.496670000000002</v>
       </c>
-      <c r="D60" s="10">
+      <c r="D60" s="4">
         <v>18.496670000000002</v>
       </c>
-      <c r="E60" s="10">
+      <c r="E60" s="4">
         <v>18.496670000000002</v>
       </c>
-      <c r="F60" s="10">
+      <c r="F60" s="4">
         <v>18.496670000000002</v>
       </c>
-      <c r="G60" s="10">
+      <c r="G60" s="4">
         <v>18.496670000000002</v>
       </c>
     </row>
@@ -12327,22 +12325,22 @@
       <c r="A61" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B61" s="10">
+      <c r="B61" s="4">
         <v>17.656669999999998</v>
       </c>
-      <c r="C61" s="10">
+      <c r="C61" s="4">
         <v>17.656669999999998</v>
       </c>
-      <c r="D61" s="10">
+      <c r="D61" s="4">
         <v>17.656669999999998</v>
       </c>
-      <c r="E61" s="10">
+      <c r="E61" s="4">
         <v>17.656669999999998</v>
       </c>
-      <c r="F61" s="10">
+      <c r="F61" s="4">
         <v>17.656669999999998</v>
       </c>
-      <c r="G61" s="10">
+      <c r="G61" s="4">
         <v>17.656669999999998</v>
       </c>
     </row>
@@ -12350,22 +12348,22 @@
       <c r="A62" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B62" s="10">
+      <c r="B62" s="4">
         <v>18.356670000000001</v>
       </c>
-      <c r="C62" s="10">
+      <c r="C62" s="4">
         <v>18.356670000000001</v>
       </c>
-      <c r="D62" s="10">
+      <c r="D62" s="4">
         <v>18.356670000000001</v>
       </c>
-      <c r="E62" s="10">
+      <c r="E62" s="4">
         <v>18.356670000000001</v>
       </c>
-      <c r="F62" s="10">
+      <c r="F62" s="4">
         <v>18.356670000000001</v>
       </c>
-      <c r="G62" s="10">
+      <c r="G62" s="4">
         <v>18.356670000000001</v>
       </c>
     </row>
@@ -12373,22 +12371,22 @@
       <c r="A63" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B63" s="10">
+      <c r="B63" s="4">
         <v>19.343330000000002</v>
       </c>
-      <c r="C63" s="10">
+      <c r="C63" s="4">
         <v>19.343330000000002</v>
       </c>
-      <c r="D63" s="10">
+      <c r="D63" s="4">
         <v>19.343330000000002</v>
       </c>
-      <c r="E63" s="10">
+      <c r="E63" s="4">
         <v>19.343330000000002</v>
       </c>
-      <c r="F63" s="10">
+      <c r="F63" s="4">
         <v>19.343330000000002</v>
       </c>
-      <c r="G63" s="10">
+      <c r="G63" s="4">
         <v>19.343330000000002</v>
       </c>
     </row>
@@ -12396,22 +12394,22 @@
       <c r="A64" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B64" s="10">
+      <c r="B64" s="4">
         <v>17.85333</v>
       </c>
-      <c r="C64" s="10">
+      <c r="C64" s="4">
         <v>17.85333</v>
       </c>
-      <c r="D64" s="10">
+      <c r="D64" s="4">
         <v>17.85333</v>
       </c>
-      <c r="E64" s="10">
+      <c r="E64" s="4">
         <v>17.85333</v>
       </c>
-      <c r="F64" s="10">
+      <c r="F64" s="4">
         <v>17.85333</v>
       </c>
-      <c r="G64" s="10">
+      <c r="G64" s="4">
         <v>17.85333</v>
       </c>
     </row>
@@ -12419,22 +12417,22 @@
       <c r="A65" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B65" s="10">
+      <c r="B65" s="4">
         <v>18.156669999999998</v>
       </c>
-      <c r="C65" s="10">
+      <c r="C65" s="4">
         <v>18.156669999999998</v>
       </c>
-      <c r="D65" s="10">
+      <c r="D65" s="4">
         <v>18.156669999999998</v>
       </c>
-      <c r="E65" s="10">
+      <c r="E65" s="4">
         <v>18.156669999999998</v>
       </c>
-      <c r="F65" s="10">
+      <c r="F65" s="4">
         <v>18.156669999999998</v>
       </c>
-      <c r="G65" s="10">
+      <c r="G65" s="4">
         <v>18.156669999999998</v>
       </c>
     </row>
@@ -12442,22 +12440,22 @@
       <c r="A66" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B66" s="10">
+      <c r="B66" s="4">
         <v>19.77</v>
       </c>
-      <c r="C66" s="10">
+      <c r="C66" s="4">
         <v>19.77</v>
       </c>
-      <c r="D66" s="10">
+      <c r="D66" s="4">
         <v>19.77</v>
       </c>
-      <c r="E66" s="10">
+      <c r="E66" s="4">
         <v>19.77</v>
       </c>
-      <c r="F66" s="10">
+      <c r="F66" s="4">
         <v>19.77</v>
       </c>
-      <c r="G66" s="10">
+      <c r="G66" s="4">
         <v>19.77</v>
       </c>
     </row>
@@ -12465,22 +12463,22 @@
       <c r="A67" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B67" s="10">
+      <c r="B67" s="4">
         <v>21.75667</v>
       </c>
-      <c r="C67" s="10">
+      <c r="C67" s="4">
         <v>21.75667</v>
       </c>
-      <c r="D67" s="10">
+      <c r="D67" s="4">
         <v>21.75667</v>
       </c>
-      <c r="E67" s="10">
+      <c r="E67" s="4">
         <v>21.75667</v>
       </c>
-      <c r="F67" s="10">
+      <c r="F67" s="4">
         <v>21.75667</v>
       </c>
-      <c r="G67" s="10">
+      <c r="G67" s="4">
         <v>21.75667</v>
       </c>
     </row>
@@ -12488,22 +12486,22 @@
       <c r="A68" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B68" s="10">
+      <c r="B68" s="4">
         <v>22.42333</v>
       </c>
-      <c r="C68" s="10">
+      <c r="C68" s="4">
         <v>22.42333</v>
       </c>
-      <c r="D68" s="10">
+      <c r="D68" s="4">
         <v>22.42333</v>
       </c>
-      <c r="E68" s="10">
+      <c r="E68" s="4">
         <v>22.42333</v>
       </c>
-      <c r="F68" s="10">
+      <c r="F68" s="4">
         <v>22.42333</v>
       </c>
-      <c r="G68" s="10">
+      <c r="G68" s="4">
         <v>22.42333</v>
       </c>
     </row>
@@ -12511,22 +12509,22 @@
       <c r="A69" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B69" s="10">
+      <c r="B69" s="4">
         <v>24.66667</v>
       </c>
-      <c r="C69" s="10">
+      <c r="C69" s="4">
         <v>24.66667</v>
       </c>
-      <c r="D69" s="10">
+      <c r="D69" s="4">
         <v>24.66667</v>
       </c>
-      <c r="E69" s="10">
+      <c r="E69" s="4">
         <v>24.66667</v>
       </c>
-      <c r="F69" s="10">
+      <c r="F69" s="4">
         <v>24.66667</v>
       </c>
-      <c r="G69" s="10">
+      <c r="G69" s="4">
         <v>24.66667</v>
       </c>
     </row>
@@ -12534,22 +12532,22 @@
       <c r="A70" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B70" s="10">
+      <c r="B70" s="4">
         <v>22.79</v>
       </c>
-      <c r="C70" s="10">
+      <c r="C70" s="4">
         <v>22.79</v>
       </c>
-      <c r="D70" s="10">
+      <c r="D70" s="4">
         <v>22.79</v>
       </c>
-      <c r="E70" s="10">
+      <c r="E70" s="4">
         <v>22.79</v>
       </c>
-      <c r="F70" s="10">
+      <c r="F70" s="4">
         <v>22.79</v>
       </c>
-      <c r="G70" s="10">
+      <c r="G70" s="4">
         <v>22.79</v>
       </c>
     </row>
@@ -12557,22 +12555,22 @@
       <c r="A71" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B71" s="10">
+      <c r="B71" s="4">
         <v>19.906669999999998</v>
       </c>
-      <c r="C71" s="10">
+      <c r="C71" s="4">
         <v>19.906669999999998</v>
       </c>
-      <c r="D71" s="10">
+      <c r="D71" s="4">
         <v>19.906669999999998</v>
       </c>
-      <c r="E71" s="10">
+      <c r="E71" s="4">
         <v>19.906669999999998</v>
       </c>
-      <c r="F71" s="10">
+      <c r="F71" s="4">
         <v>19.906669999999998</v>
       </c>
-      <c r="G71" s="10">
+      <c r="G71" s="4">
         <v>19.906669999999998</v>
       </c>
     </row>
@@ -12580,22 +12578,22 @@
       <c r="A72" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B72" s="10">
+      <c r="B72" s="4">
         <v>19.783329999999999</v>
       </c>
-      <c r="C72" s="10">
+      <c r="C72" s="4">
         <v>19.783329999999999</v>
       </c>
-      <c r="D72" s="10">
+      <c r="D72" s="4">
         <v>19.783329999999999</v>
       </c>
-      <c r="E72" s="10">
+      <c r="E72" s="4">
         <v>19.783329999999999</v>
       </c>
-      <c r="F72" s="10">
+      <c r="F72" s="4">
         <v>19.783329999999999</v>
       </c>
-      <c r="G72" s="10">
+      <c r="G72" s="4">
         <v>19.783329999999999</v>
       </c>
     </row>
@@ -12603,22 +12601,22 @@
       <c r="A73" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B73" s="10">
+      <c r="B73" s="4">
         <v>19.91667</v>
       </c>
-      <c r="C73" s="10">
+      <c r="C73" s="4">
         <v>19.91667</v>
       </c>
-      <c r="D73" s="10">
+      <c r="D73" s="4">
         <v>19.91667</v>
       </c>
-      <c r="E73" s="10">
+      <c r="E73" s="4">
         <v>19.91667</v>
       </c>
-      <c r="F73" s="10">
+      <c r="F73" s="4">
         <v>19.91667</v>
       </c>
-      <c r="G73" s="10">
+      <c r="G73" s="4">
         <v>19.91667</v>
       </c>
     </row>
@@ -12626,22 +12624,22 @@
       <c r="A74" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B74" s="10">
+      <c r="B74" s="4">
         <v>15.93</v>
       </c>
-      <c r="C74" s="10">
+      <c r="C74" s="4">
         <v>15.93</v>
       </c>
-      <c r="D74" s="10">
+      <c r="D74" s="4">
         <v>15.93</v>
       </c>
-      <c r="E74" s="10">
+      <c r="E74" s="4">
         <v>15.93</v>
       </c>
-      <c r="F74" s="10">
+      <c r="F74" s="4">
         <v>15.93</v>
       </c>
-      <c r="G74" s="10">
+      <c r="G74" s="4">
         <v>15.93</v>
       </c>
     </row>
@@ -12649,22 +12647,22 @@
       <c r="A75" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B75" s="10">
+      <c r="B75" s="4">
         <v>14.65333</v>
       </c>
-      <c r="C75" s="10">
+      <c r="C75" s="4">
         <v>14.65333</v>
       </c>
-      <c r="D75" s="10">
+      <c r="D75" s="4">
         <v>14.65333</v>
       </c>
-      <c r="E75" s="10">
+      <c r="E75" s="4">
         <v>14.65333</v>
       </c>
-      <c r="F75" s="10">
+      <c r="F75" s="4">
         <v>14.65333</v>
       </c>
-      <c r="G75" s="10">
+      <c r="G75" s="4">
         <v>14.65333</v>
       </c>
     </row>
@@ -12672,22 +12670,22 @@
       <c r="A76" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B76" s="10">
+      <c r="B76" s="4">
         <v>14.13</v>
       </c>
-      <c r="C76" s="10">
+      <c r="C76" s="4">
         <v>14.13</v>
       </c>
-      <c r="D76" s="10">
+      <c r="D76" s="4">
         <v>14.13</v>
       </c>
-      <c r="E76" s="10">
+      <c r="E76" s="4">
         <v>14.13</v>
       </c>
-      <c r="F76" s="10">
+      <c r="F76" s="4">
         <v>14.13</v>
       </c>
-      <c r="G76" s="10">
+      <c r="G76" s="4">
         <v>14.13</v>
       </c>
     </row>
@@ -12695,22 +12693,22 @@
       <c r="A77" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B77" s="10">
+      <c r="B77" s="4">
         <v>12.84</v>
       </c>
-      <c r="C77" s="10">
+      <c r="C77" s="4">
         <v>12.84</v>
       </c>
-      <c r="D77" s="10">
+      <c r="D77" s="4">
         <v>12.84</v>
       </c>
-      <c r="E77" s="10">
+      <c r="E77" s="4">
         <v>12.84</v>
       </c>
-      <c r="F77" s="10">
+      <c r="F77" s="4">
         <v>12.84</v>
       </c>
-      <c r="G77" s="10">
+      <c r="G77" s="4">
         <v>12.84</v>
       </c>
     </row>
@@ -12718,22 +12716,22 @@
       <c r="A78" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B78" s="10">
+      <c r="B78" s="4">
         <v>13.046670000000001</v>
       </c>
-      <c r="C78" s="10">
+      <c r="C78" s="4">
         <v>13.046670000000001</v>
       </c>
-      <c r="D78" s="10">
+      <c r="D78" s="4">
         <v>13.046670000000001</v>
       </c>
-      <c r="E78" s="10">
+      <c r="E78" s="4">
         <v>13.046670000000001</v>
       </c>
-      <c r="F78" s="10">
+      <c r="F78" s="4">
         <v>13.046670000000001</v>
       </c>
-      <c r="G78" s="10">
+      <c r="G78" s="4">
         <v>13.046670000000001</v>
       </c>
     </row>
@@ -12741,22 +12739,22 @@
       <c r="A79" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B79" s="10">
+      <c r="B79" s="4">
         <v>17.66</v>
       </c>
-      <c r="C79" s="10">
+      <c r="C79" s="4">
         <v>17.66</v>
       </c>
-      <c r="D79" s="10">
+      <c r="D79" s="4">
         <v>17.66</v>
       </c>
-      <c r="E79" s="10">
+      <c r="E79" s="4">
         <v>17.66</v>
       </c>
-      <c r="F79" s="10">
+      <c r="F79" s="4">
         <v>17.66</v>
       </c>
-      <c r="G79" s="10">
+      <c r="G79" s="4">
         <v>17.66</v>
       </c>
     </row>
@@ -12764,22 +12762,22 @@
       <c r="A80" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B80" s="10">
+      <c r="B80" s="4">
         <v>21.73667</v>
       </c>
-      <c r="C80" s="10">
+      <c r="C80" s="4">
         <v>21.73667</v>
       </c>
-      <c r="D80" s="10">
+      <c r="D80" s="4">
         <v>21.73667</v>
       </c>
-      <c r="E80" s="10">
+      <c r="E80" s="4">
         <v>21.73667</v>
       </c>
-      <c r="F80" s="10">
+      <c r="F80" s="4">
         <v>21.73667</v>
       </c>
-      <c r="G80" s="10">
+      <c r="G80" s="4">
         <v>21.73667</v>
       </c>
     </row>
@@ -12787,22 +12785,22 @@
       <c r="A81" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B81" s="10">
+      <c r="B81" s="4">
         <v>24.563330000000001</v>
       </c>
-      <c r="C81" s="10">
+      <c r="C81" s="4">
         <v>24.563330000000001</v>
       </c>
-      <c r="D81" s="10">
+      <c r="D81" s="4">
         <v>24.563330000000001</v>
       </c>
-      <c r="E81" s="10">
+      <c r="E81" s="4">
         <v>24.563330000000001</v>
       </c>
-      <c r="F81" s="10">
+      <c r="F81" s="4">
         <v>24.563330000000001</v>
       </c>
-      <c r="G81" s="10">
+      <c r="G81" s="4">
         <v>24.563330000000001</v>
       </c>
     </row>
@@ -12810,22 +12808,22 @@
       <c r="A82" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B82" s="10">
+      <c r="B82" s="4">
         <v>28.80667</v>
       </c>
-      <c r="C82" s="10">
+      <c r="C82" s="4">
         <v>28.80667</v>
       </c>
-      <c r="D82" s="10">
+      <c r="D82" s="4">
         <v>28.80667</v>
       </c>
-      <c r="E82" s="10">
+      <c r="E82" s="4">
         <v>28.80667</v>
       </c>
-      <c r="F82" s="10">
+      <c r="F82" s="4">
         <v>28.80667</v>
       </c>
-      <c r="G82" s="10">
+      <c r="G82" s="4">
         <v>28.80667</v>
       </c>
     </row>
@@ -12833,22 +12831,22 @@
       <c r="A83" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B83" s="10">
+      <c r="B83" s="4">
         <v>28.783329999999999</v>
       </c>
-      <c r="C83" s="10">
+      <c r="C83" s="4">
         <v>28.783329999999999</v>
       </c>
-      <c r="D83" s="10">
+      <c r="D83" s="4">
         <v>28.783329999999999</v>
       </c>
-      <c r="E83" s="10">
+      <c r="E83" s="4">
         <v>28.783329999999999</v>
       </c>
-      <c r="F83" s="10">
+      <c r="F83" s="4">
         <v>28.783329999999999</v>
       </c>
-      <c r="G83" s="10">
+      <c r="G83" s="4">
         <v>28.783329999999999</v>
       </c>
     </row>
@@ -12856,22 +12854,22 @@
       <c r="A84" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B84" s="10">
+      <c r="B84" s="4">
         <v>31.623329999999999</v>
       </c>
-      <c r="C84" s="10">
+      <c r="C84" s="4">
         <v>31.623329999999999</v>
       </c>
-      <c r="D84" s="10">
+      <c r="D84" s="4">
         <v>31.623329999999999</v>
       </c>
-      <c r="E84" s="10">
+      <c r="E84" s="4">
         <v>31.623329999999999</v>
       </c>
-      <c r="F84" s="10">
+      <c r="F84" s="4">
         <v>31.623329999999999</v>
       </c>
-      <c r="G84" s="10">
+      <c r="G84" s="4">
         <v>31.623329999999999</v>
       </c>
     </row>
@@ -12879,22 +12877,22 @@
       <c r="A85" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B85" s="10">
+      <c r="B85" s="4">
         <v>31.98</v>
       </c>
-      <c r="C85" s="10">
+      <c r="C85" s="4">
         <v>31.98</v>
       </c>
-      <c r="D85" s="10">
+      <c r="D85" s="4">
         <v>31.98</v>
       </c>
-      <c r="E85" s="10">
+      <c r="E85" s="4">
         <v>31.98</v>
       </c>
-      <c r="F85" s="10">
+      <c r="F85" s="4">
         <v>31.98</v>
       </c>
-      <c r="G85" s="10">
+      <c r="G85" s="4">
         <v>31.98</v>
       </c>
     </row>
@@ -12902,22 +12900,22 @@
       <c r="A86" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B86" s="10">
+      <c r="B86" s="4">
         <v>28.81</v>
       </c>
-      <c r="C86" s="10">
+      <c r="C86" s="4">
         <v>28.81</v>
       </c>
-      <c r="D86" s="10">
+      <c r="D86" s="4">
         <v>28.81</v>
       </c>
-      <c r="E86" s="10">
+      <c r="E86" s="4">
         <v>28.81</v>
       </c>
-      <c r="F86" s="10">
+      <c r="F86" s="4">
         <v>28.81</v>
       </c>
-      <c r="G86" s="10">
+      <c r="G86" s="4">
         <v>28.81</v>
       </c>
     </row>
@@ -12925,22 +12923,22 @@
       <c r="A87" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B87" s="10">
+      <c r="B87" s="4">
         <v>27.883330000000001</v>
       </c>
-      <c r="C87" s="10">
+      <c r="C87" s="4">
         <v>27.883330000000001</v>
       </c>
-      <c r="D87" s="10">
+      <c r="D87" s="4">
         <v>27.883330000000001</v>
       </c>
-      <c r="E87" s="10">
+      <c r="E87" s="4">
         <v>27.883330000000001</v>
       </c>
-      <c r="F87" s="10">
+      <c r="F87" s="4">
         <v>27.883330000000001</v>
       </c>
-      <c r="G87" s="10">
+      <c r="G87" s="4">
         <v>27.883330000000001</v>
       </c>
     </row>
@@ -12948,22 +12946,22 @@
       <c r="A88" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B88" s="10">
+      <c r="B88" s="4">
         <v>26.6</v>
       </c>
-      <c r="C88" s="10">
+      <c r="C88" s="4">
         <v>26.6</v>
       </c>
-      <c r="D88" s="10">
+      <c r="D88" s="4">
         <v>26.6</v>
       </c>
-      <c r="E88" s="10">
+      <c r="E88" s="4">
         <v>26.6</v>
       </c>
-      <c r="F88" s="10">
+      <c r="F88" s="4">
         <v>26.6</v>
       </c>
-      <c r="G88" s="10">
+      <c r="G88" s="4">
         <v>26.6</v>
       </c>
     </row>
@@ -12971,22 +12969,22 @@
       <c r="A89" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B89" s="10">
+      <c r="B89" s="4">
         <v>20.40333</v>
       </c>
-      <c r="C89" s="10">
+      <c r="C89" s="4">
         <v>20.40333</v>
       </c>
-      <c r="D89" s="10">
+      <c r="D89" s="4">
         <v>20.40333</v>
       </c>
-      <c r="E89" s="10">
+      <c r="E89" s="4">
         <v>20.40333</v>
       </c>
-      <c r="F89" s="10">
+      <c r="F89" s="4">
         <v>20.40333</v>
       </c>
-      <c r="G89" s="10">
+      <c r="G89" s="4">
         <v>20.40333</v>
       </c>
     </row>
@@ -12994,22 +12992,22 @@
       <c r="A90" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B90" s="10">
+      <c r="B90" s="4">
         <v>21.61</v>
       </c>
-      <c r="C90" s="10">
+      <c r="C90" s="4">
         <v>21.61</v>
       </c>
-      <c r="D90" s="10">
+      <c r="D90" s="4">
         <v>21.61</v>
       </c>
-      <c r="E90" s="10">
+      <c r="E90" s="4">
         <v>21.61</v>
       </c>
-      <c r="F90" s="10">
+      <c r="F90" s="4">
         <v>21.61</v>
       </c>
-      <c r="G90" s="10">
+      <c r="G90" s="4">
         <v>21.61</v>
       </c>
     </row>
@@ -13017,22 +13015,22 @@
       <c r="A91" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B91" s="10">
+      <c r="B91" s="4">
         <v>26.27</v>
       </c>
-      <c r="C91" s="10">
+      <c r="C91" s="4">
         <v>26.27</v>
       </c>
-      <c r="D91" s="10">
+      <c r="D91" s="4">
         <v>26.27</v>
       </c>
-      <c r="E91" s="10">
+      <c r="E91" s="4">
         <v>26.27</v>
       </c>
-      <c r="F91" s="10">
+      <c r="F91" s="4">
         <v>26.27</v>
       </c>
-      <c r="G91" s="10">
+      <c r="G91" s="4">
         <v>26.27</v>
       </c>
     </row>
@@ -13040,22 +13038,22 @@
       <c r="A92" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B92" s="10">
+      <c r="B92" s="4">
         <v>28.33</v>
       </c>
-      <c r="C92" s="10">
+      <c r="C92" s="4">
         <v>28.33</v>
       </c>
-      <c r="D92" s="10">
+      <c r="D92" s="4">
         <v>28.33</v>
       </c>
-      <c r="E92" s="10">
+      <c r="E92" s="4">
         <v>28.33</v>
       </c>
-      <c r="F92" s="10">
+      <c r="F92" s="4">
         <v>28.33</v>
       </c>
-      <c r="G92" s="10">
+      <c r="G92" s="4">
         <v>28.33</v>
       </c>
     </row>
@@ -13063,22 +13061,22 @@
       <c r="A93" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B93" s="10">
+      <c r="B93" s="4">
         <v>28.18</v>
       </c>
-      <c r="C93" s="10">
+      <c r="C93" s="4">
         <v>28.18</v>
       </c>
-      <c r="D93" s="10">
+      <c r="D93" s="4">
         <v>28.18</v>
       </c>
-      <c r="E93" s="10">
+      <c r="E93" s="4">
         <v>28.18</v>
       </c>
-      <c r="F93" s="10">
+      <c r="F93" s="4">
         <v>28.18</v>
       </c>
-      <c r="G93" s="10">
+      <c r="G93" s="4">
         <v>28.18</v>
       </c>
     </row>
@@ -13086,22 +13084,22 @@
       <c r="A94" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B94" s="10">
+      <c r="B94" s="4">
         <v>34.119999999999997</v>
       </c>
-      <c r="C94" s="10">
+      <c r="C94" s="4">
         <v>34.119999999999997</v>
       </c>
-      <c r="D94" s="10">
+      <c r="D94" s="4">
         <v>34.119999999999997</v>
       </c>
-      <c r="E94" s="10">
+      <c r="E94" s="4">
         <v>34.119999999999997</v>
       </c>
-      <c r="F94" s="10">
+      <c r="F94" s="4">
         <v>34.119999999999997</v>
       </c>
-      <c r="G94" s="10">
+      <c r="G94" s="4">
         <v>34.119999999999997</v>
       </c>
     </row>
@@ -13109,22 +13107,22 @@
       <c r="A95" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B95" s="10">
+      <c r="B95" s="4">
         <v>29.036670000000001</v>
       </c>
-      <c r="C95" s="10">
+      <c r="C95" s="4">
         <v>29.036670000000001</v>
       </c>
-      <c r="D95" s="10">
+      <c r="D95" s="4">
         <v>29.036670000000001</v>
       </c>
-      <c r="E95" s="10">
+      <c r="E95" s="4">
         <v>29.036670000000001</v>
       </c>
-      <c r="F95" s="10">
+      <c r="F95" s="4">
         <v>29.036670000000001</v>
       </c>
-      <c r="G95" s="10">
+      <c r="G95" s="4">
         <v>29.036670000000001</v>
       </c>
     </row>
@@ -13132,22 +13130,22 @@
       <c r="A96" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B96" s="10">
+      <c r="B96" s="4">
         <v>30.213329999999999</v>
       </c>
-      <c r="C96" s="10">
+      <c r="C96" s="4">
         <v>30.213329999999999</v>
       </c>
-      <c r="D96" s="10">
+      <c r="D96" s="4">
         <v>30.213329999999999</v>
       </c>
-      <c r="E96" s="10">
+      <c r="E96" s="4">
         <v>30.213329999999999</v>
       </c>
-      <c r="F96" s="10">
+      <c r="F96" s="4">
         <v>30.213329999999999</v>
       </c>
-      <c r="G96" s="10">
+      <c r="G96" s="4">
         <v>30.213329999999999</v>
       </c>
     </row>
@@ -13155,22 +13153,22 @@
       <c r="A97" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B97" s="10">
+      <c r="B97" s="4">
         <v>31.19</v>
       </c>
-      <c r="C97" s="10">
+      <c r="C97" s="4">
         <v>31.19</v>
       </c>
-      <c r="D97" s="10">
+      <c r="D97" s="4">
         <v>31.19</v>
       </c>
-      <c r="E97" s="10">
+      <c r="E97" s="4">
         <v>31.19</v>
       </c>
-      <c r="F97" s="10">
+      <c r="F97" s="4">
         <v>31.19</v>
       </c>
-      <c r="G97" s="10">
+      <c r="G97" s="4">
         <v>31.19</v>
       </c>
     </row>
@@ -13178,22 +13176,22 @@
       <c r="A98" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B98" s="10">
+      <c r="B98" s="4">
         <v>35.25667</v>
       </c>
-      <c r="C98" s="10">
+      <c r="C98" s="4">
         <v>35.25667</v>
       </c>
-      <c r="D98" s="10">
+      <c r="D98" s="4">
         <v>35.25667</v>
       </c>
-      <c r="E98" s="10">
+      <c r="E98" s="4">
         <v>35.25667</v>
       </c>
-      <c r="F98" s="10">
+      <c r="F98" s="4">
         <v>35.25667</v>
       </c>
-      <c r="G98" s="10">
+      <c r="G98" s="4">
         <v>35.25667</v>
       </c>
     </row>
@@ -13201,22 +13199,22 @@
       <c r="A99" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B99" s="10">
+      <c r="B99" s="4">
         <v>38.33</v>
       </c>
-      <c r="C99" s="10">
+      <c r="C99" s="4">
         <v>38.33</v>
       </c>
-      <c r="D99" s="10">
+      <c r="D99" s="4">
         <v>38.33</v>
       </c>
-      <c r="E99" s="10">
+      <c r="E99" s="4">
         <v>38.33</v>
       </c>
-      <c r="F99" s="10">
+      <c r="F99" s="4">
         <v>38.33</v>
       </c>
-      <c r="G99" s="10">
+      <c r="G99" s="4">
         <v>38.33</v>
       </c>
     </row>
@@ -13224,22 +13222,22 @@
       <c r="A100" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B100" s="10">
+      <c r="B100" s="4">
         <v>43.86</v>
       </c>
-      <c r="C100" s="10">
+      <c r="C100" s="4">
         <v>43.86</v>
       </c>
-      <c r="D100" s="10">
+      <c r="D100" s="4">
         <v>43.86</v>
       </c>
-      <c r="E100" s="10">
+      <c r="E100" s="4">
         <v>43.86</v>
       </c>
-      <c r="F100" s="10">
+      <c r="F100" s="4">
         <v>43.86</v>
       </c>
-      <c r="G100" s="10">
+      <c r="G100" s="4">
         <v>43.86</v>
       </c>
     </row>
@@ -13247,22 +13245,22 @@
       <c r="A101" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B101" s="10">
+      <c r="B101" s="4">
         <v>48.306669999999997</v>
       </c>
-      <c r="C101" s="10">
+      <c r="C101" s="4">
         <v>48.306669999999997</v>
       </c>
-      <c r="D101" s="10">
+      <c r="D101" s="4">
         <v>48.306669999999997</v>
       </c>
-      <c r="E101" s="10">
+      <c r="E101" s="4">
         <v>48.306669999999997</v>
       </c>
-      <c r="F101" s="10">
+      <c r="F101" s="4">
         <v>48.306669999999997</v>
       </c>
-      <c r="G101" s="10">
+      <c r="G101" s="4">
         <v>48.306669999999997</v>
       </c>
     </row>
@@ -13270,22 +13268,22 @@
       <c r="A102" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B102" s="10">
+      <c r="B102" s="4">
         <v>49.706670000000003</v>
       </c>
-      <c r="C102" s="10">
+      <c r="C102" s="4">
         <v>49.706670000000003</v>
       </c>
-      <c r="D102" s="10">
+      <c r="D102" s="4">
         <v>49.706670000000003</v>
       </c>
-      <c r="E102" s="10">
+      <c r="E102" s="4">
         <v>49.706670000000003</v>
       </c>
-      <c r="F102" s="10">
+      <c r="F102" s="4">
         <v>49.706670000000003</v>
       </c>
-      <c r="G102" s="10">
+      <c r="G102" s="4">
         <v>49.706670000000003</v>
       </c>
     </row>
@@ -13293,22 +13291,22 @@
       <c r="A103" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B103" s="10">
+      <c r="B103" s="4">
         <v>53.043329999999997</v>
       </c>
-      <c r="C103" s="10">
+      <c r="C103" s="4">
         <v>53.043329999999997</v>
       </c>
-      <c r="D103" s="10">
+      <c r="D103" s="4">
         <v>53.043329999999997</v>
       </c>
-      <c r="E103" s="10">
+      <c r="E103" s="4">
         <v>53.043329999999997</v>
       </c>
-      <c r="F103" s="10">
+      <c r="F103" s="4">
         <v>53.043329999999997</v>
       </c>
-      <c r="G103" s="10">
+      <c r="G103" s="4">
         <v>53.043329999999997</v>
       </c>
     </row>
@@ -13316,22 +13314,22 @@
       <c r="A104" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B104" s="10">
+      <c r="B104" s="4">
         <v>63.08</v>
       </c>
-      <c r="C104" s="10">
+      <c r="C104" s="4">
         <v>63.08</v>
       </c>
-      <c r="D104" s="10">
+      <c r="D104" s="4">
         <v>63.08</v>
       </c>
-      <c r="E104" s="10">
+      <c r="E104" s="4">
         <v>63.08</v>
       </c>
-      <c r="F104" s="10">
+      <c r="F104" s="4">
         <v>63.08</v>
       </c>
-      <c r="G104" s="10">
+      <c r="G104" s="4">
         <v>63.08</v>
       </c>
     </row>
@@ -13339,22 +13337,22 @@
       <c r="A105" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B105" s="10">
+      <c r="B105" s="4">
         <v>60.033329999999999</v>
       </c>
-      <c r="C105" s="10">
+      <c r="C105" s="4">
         <v>60.033329999999999</v>
       </c>
-      <c r="D105" s="10">
+      <c r="D105" s="4">
         <v>60.033329999999999</v>
       </c>
-      <c r="E105" s="10">
+      <c r="E105" s="4">
         <v>60.033329999999999</v>
       </c>
-      <c r="F105" s="10">
+      <c r="F105" s="4">
         <v>60.033329999999999</v>
       </c>
-      <c r="G105" s="10">
+      <c r="G105" s="4">
         <v>60.033329999999999</v>
       </c>
     </row>
@@ -13362,22 +13360,22 @@
       <c r="A106" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B106" s="10">
+      <c r="B106" s="4">
         <v>63.346670000000003</v>
       </c>
-      <c r="C106" s="10">
+      <c r="C106" s="4">
         <v>63.346670000000003</v>
       </c>
-      <c r="D106" s="10">
+      <c r="D106" s="4">
         <v>63.346670000000003</v>
       </c>
-      <c r="E106" s="10">
+      <c r="E106" s="4">
         <v>63.346670000000003</v>
       </c>
-      <c r="F106" s="10">
+      <c r="F106" s="4">
         <v>63.346670000000003</v>
       </c>
-      <c r="G106" s="10">
+      <c r="G106" s="4">
         <v>63.346670000000003</v>
       </c>
     </row>
@@ -13385,22 +13383,22 @@
       <c r="A107" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B107" s="10">
+      <c r="B107" s="4">
         <v>70.53</v>
       </c>
-      <c r="C107" s="10">
+      <c r="C107" s="4">
         <v>70.53</v>
       </c>
-      <c r="D107" s="10">
+      <c r="D107" s="4">
         <v>70.53</v>
       </c>
-      <c r="E107" s="10">
+      <c r="E107" s="4">
         <v>70.53</v>
       </c>
-      <c r="F107" s="10">
+      <c r="F107" s="4">
         <v>70.53</v>
       </c>
-      <c r="G107" s="10">
+      <c r="G107" s="4">
         <v>70.53</v>
       </c>
     </row>
@@ -13408,22 +13406,22 @@
       <c r="A108" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B108" s="10">
+      <c r="B108" s="4">
         <v>70.443340000000006</v>
       </c>
-      <c r="C108" s="10">
+      <c r="C108" s="4">
         <v>70.443340000000006</v>
       </c>
-      <c r="D108" s="10">
+      <c r="D108" s="4">
         <v>70.443340000000006</v>
       </c>
-      <c r="E108" s="10">
+      <c r="E108" s="4">
         <v>70.443340000000006</v>
       </c>
-      <c r="F108" s="10">
+      <c r="F108" s="4">
         <v>70.443340000000006</v>
       </c>
-      <c r="G108" s="10">
+      <c r="G108" s="4">
         <v>70.443340000000006</v>
       </c>
     </row>
@@ -13431,22 +13429,22 @@
       <c r="A109" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B109" s="10">
+      <c r="B109" s="4">
         <v>60.093330000000002</v>
       </c>
-      <c r="C109" s="10">
+      <c r="C109" s="4">
         <v>60.093330000000002</v>
       </c>
-      <c r="D109" s="10">
+      <c r="D109" s="4">
         <v>60.093330000000002</v>
       </c>
-      <c r="E109" s="10">
+      <c r="E109" s="4">
         <v>60.093330000000002</v>
       </c>
-      <c r="F109" s="10">
+      <c r="F109" s="4">
         <v>60.093330000000002</v>
       </c>
-      <c r="G109" s="10">
+      <c r="G109" s="4">
         <v>60.093330000000002</v>
       </c>
     </row>
@@ -13454,22 +13452,22 @@
       <c r="A110" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B110" s="10">
+      <c r="B110" s="4">
         <v>58.13</v>
       </c>
-      <c r="C110" s="10">
+      <c r="C110" s="4">
         <v>58.13</v>
       </c>
-      <c r="D110" s="10">
+      <c r="D110" s="4">
         <v>58.13</v>
       </c>
-      <c r="E110" s="10">
+      <c r="E110" s="4">
         <v>58.13</v>
       </c>
-      <c r="F110" s="10">
+      <c r="F110" s="4">
         <v>58.13</v>
       </c>
-      <c r="G110" s="10">
+      <c r="G110" s="4">
         <v>58.13</v>
       </c>
     </row>
@@ -13477,22 +13475,22 @@
       <c r="A111" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B111" s="10">
+      <c r="B111" s="4">
         <v>64.97</v>
       </c>
-      <c r="C111" s="10">
+      <c r="C111" s="4">
         <v>64.97</v>
       </c>
-      <c r="D111" s="10">
+      <c r="D111" s="4">
         <v>64.97</v>
       </c>
-      <c r="E111" s="10">
+      <c r="E111" s="4">
         <v>64.97</v>
       </c>
-      <c r="F111" s="10">
+      <c r="F111" s="4">
         <v>64.97</v>
       </c>
-      <c r="G111" s="10">
+      <c r="G111" s="4">
         <v>64.97</v>
       </c>
     </row>
@@ -13500,22 +13498,22 @@
       <c r="A112" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B112" s="10">
+      <c r="B112" s="4">
         <v>75.5</v>
       </c>
-      <c r="C112" s="10">
+      <c r="C112" s="4">
         <v>75.5</v>
       </c>
-      <c r="D112" s="10">
+      <c r="D112" s="4">
         <v>75.5</v>
       </c>
-      <c r="E112" s="10">
+      <c r="E112" s="4">
         <v>75.5</v>
       </c>
-      <c r="F112" s="10">
+      <c r="F112" s="4">
         <v>75.5</v>
       </c>
-      <c r="G112" s="10">
+      <c r="G112" s="4">
         <v>75.5</v>
       </c>
     </row>
@@ -13523,22 +13521,22 @@
       <c r="A113" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B113" s="10">
+      <c r="B113" s="4">
         <v>90.85</v>
       </c>
-      <c r="C113" s="10">
+      <c r="C113" s="4">
         <v>90.85</v>
       </c>
-      <c r="D113" s="10">
+      <c r="D113" s="4">
         <v>90.85</v>
       </c>
-      <c r="E113" s="10">
+      <c r="E113" s="4">
         <v>90.85</v>
       </c>
-      <c r="F113" s="10">
+      <c r="F113" s="4">
         <v>90.85</v>
       </c>
-      <c r="G113" s="10">
+      <c r="G113" s="4">
         <v>90.85</v>
       </c>
     </row>
@@ -13546,22 +13544,22 @@
       <c r="A114" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B114" s="10">
+      <c r="B114" s="4">
         <v>97.953329999999994</v>
       </c>
-      <c r="C114" s="10">
+      <c r="C114" s="4">
         <v>97.953329999999994</v>
       </c>
-      <c r="D114" s="10">
+      <c r="D114" s="4">
         <v>97.953329999999994</v>
       </c>
-      <c r="E114" s="10">
+      <c r="E114" s="4">
         <v>97.953329999999994</v>
       </c>
-      <c r="F114" s="10">
+      <c r="F114" s="4">
         <v>97.953329999999994</v>
       </c>
-      <c r="G114" s="10">
+      <c r="G114" s="4">
         <v>97.953329999999994</v>
       </c>
     </row>
@@ -13569,22 +13567,22 @@
       <c r="A115" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B115" s="10">
+      <c r="B115" s="4">
         <v>123.9633</v>
       </c>
-      <c r="C115" s="10">
+      <c r="C115" s="4">
         <v>123.9633</v>
       </c>
-      <c r="D115" s="10">
+      <c r="D115" s="4">
         <v>123.9633</v>
       </c>
-      <c r="E115" s="10">
+      <c r="E115" s="4">
         <v>123.9633</v>
       </c>
-      <c r="F115" s="10">
+      <c r="F115" s="4">
         <v>123.9633</v>
       </c>
-      <c r="G115" s="10">
+      <c r="G115" s="4">
         <v>123.9633</v>
       </c>
     </row>
@@ -13592,22 +13590,22 @@
       <c r="A116" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B116" s="10">
+      <c r="B116" s="4">
         <v>117.9833</v>
       </c>
-      <c r="C116" s="10">
+      <c r="C116" s="4">
         <v>117.9833</v>
       </c>
-      <c r="D116" s="10">
+      <c r="D116" s="4">
         <v>117.9833</v>
       </c>
-      <c r="E116" s="10">
+      <c r="E116" s="4">
         <v>117.9833</v>
       </c>
-      <c r="F116" s="10">
+      <c r="F116" s="4">
         <v>117.9833</v>
       </c>
-      <c r="G116" s="10">
+      <c r="G116" s="4">
         <v>117.9833</v>
       </c>
     </row>
@@ -13615,22 +13613,22 @@
       <c r="A117" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B117" s="10">
+      <c r="B117" s="4">
         <v>58.37</v>
       </c>
-      <c r="C117" s="10">
+      <c r="C117" s="4">
         <v>58.37</v>
       </c>
-      <c r="D117" s="10">
+      <c r="D117" s="4">
         <v>58.37</v>
       </c>
-      <c r="E117" s="10">
+      <c r="E117" s="4">
         <v>58.37</v>
       </c>
-      <c r="F117" s="10">
+      <c r="F117" s="4">
         <v>58.37</v>
       </c>
-      <c r="G117" s="10">
+      <c r="G117" s="4">
         <v>58.37</v>
       </c>
     </row>
@@ -13638,22 +13636,22 @@
       <c r="A118" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B118" s="10">
+      <c r="B118" s="4">
         <v>42.96</v>
       </c>
-      <c r="C118" s="10">
+      <c r="C118" s="4">
         <v>42.96</v>
       </c>
-      <c r="D118" s="10">
+      <c r="D118" s="4">
         <v>42.96</v>
       </c>
-      <c r="E118" s="10">
+      <c r="E118" s="4">
         <v>42.96</v>
       </c>
-      <c r="F118" s="10">
+      <c r="F118" s="4">
         <v>42.96</v>
       </c>
-      <c r="G118" s="10">
+      <c r="G118" s="4">
         <v>42.96</v>
       </c>
     </row>
@@ -13661,22 +13659,22 @@
       <c r="A119" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B119" s="10">
+      <c r="B119" s="4">
         <v>59.543329999999997</v>
       </c>
-      <c r="C119" s="10">
+      <c r="C119" s="4">
         <v>59.543329999999997</v>
       </c>
-      <c r="D119" s="10">
+      <c r="D119" s="4">
         <v>59.543329999999997</v>
       </c>
-      <c r="E119" s="10">
+      <c r="E119" s="4">
         <v>59.543329999999997</v>
       </c>
-      <c r="F119" s="10">
+      <c r="F119" s="4">
         <v>59.543329999999997</v>
       </c>
-      <c r="G119" s="10">
+      <c r="G119" s="4">
         <v>59.543329999999997</v>
       </c>
     </row>
@@ -13684,22 +13682,22 @@
       <c r="A120" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B120" s="10">
+      <c r="B120" s="4">
         <v>68.203329999999994</v>
       </c>
-      <c r="C120" s="10">
+      <c r="C120" s="4">
         <v>68.203329999999994</v>
       </c>
-      <c r="D120" s="10">
+      <c r="D120" s="4">
         <v>68.203329999999994</v>
       </c>
-      <c r="E120" s="10">
+      <c r="E120" s="4">
         <v>68.203329999999994</v>
       </c>
-      <c r="F120" s="10">
+      <c r="F120" s="4">
         <v>68.203329999999994</v>
       </c>
-      <c r="G120" s="10">
+      <c r="G120" s="4">
         <v>68.203329999999994</v>
       </c>
     </row>
@@ -13707,22 +13705,22 @@
       <c r="A121" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B121" s="10">
+      <c r="B121" s="4">
         <v>76.066670000000002</v>
       </c>
-      <c r="C121" s="10">
+      <c r="C121" s="4">
         <v>76.066670000000002</v>
       </c>
-      <c r="D121" s="10">
+      <c r="D121" s="4">
         <v>76.066670000000002</v>
       </c>
-      <c r="E121" s="10">
+      <c r="E121" s="4">
         <v>76.066670000000002</v>
       </c>
-      <c r="F121" s="10">
+      <c r="F121" s="4">
         <v>76.066670000000002</v>
       </c>
-      <c r="G121" s="10">
+      <c r="G121" s="4">
         <v>76.066670000000002</v>
       </c>
     </row>
@@ -13730,22 +13728,22 @@
       <c r="A122" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B122" s="10">
+      <c r="B122" s="4">
         <v>78.626660000000001</v>
       </c>
-      <c r="C122" s="10">
+      <c r="C122" s="4">
         <v>78.626660000000001</v>
       </c>
-      <c r="D122" s="10">
+      <c r="D122" s="4">
         <v>78.626660000000001</v>
       </c>
-      <c r="E122" s="10">
+      <c r="E122" s="4">
         <v>78.626660000000001</v>
       </c>
-      <c r="F122" s="10">
+      <c r="F122" s="4">
         <v>78.626660000000001</v>
       </c>
-      <c r="G122" s="10">
+      <c r="G122" s="4">
         <v>78.626660000000001</v>
       </c>
     </row>
@@ -13753,22 +13751,22 @@
       <c r="A123" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B123" s="10">
+      <c r="B123" s="4">
         <v>77.89</v>
       </c>
-      <c r="C123" s="10">
+      <c r="C123" s="4">
         <v>77.89</v>
       </c>
-      <c r="D123" s="10">
+      <c r="D123" s="4">
         <v>77.89</v>
       </c>
-      <c r="E123" s="10">
+      <c r="E123" s="4">
         <v>77.89</v>
       </c>
-      <c r="F123" s="10">
+      <c r="F123" s="4">
         <v>77.89</v>
       </c>
-      <c r="G123" s="10">
+      <c r="G123" s="4">
         <v>77.89</v>
       </c>
     </row>
@@ -13776,22 +13774,22 @@
       <c r="A124" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B124" s="10">
+      <c r="B124" s="4">
         <v>76.166659999999993</v>
       </c>
-      <c r="C124" s="10">
+      <c r="C124" s="4">
         <v>76.166659999999993</v>
       </c>
-      <c r="D124" s="10">
+      <c r="D124" s="4">
         <v>76.166659999999993</v>
       </c>
-      <c r="E124" s="10">
+      <c r="E124" s="4">
         <v>76.166659999999993</v>
       </c>
-      <c r="F124" s="10">
+      <c r="F124" s="4">
         <v>76.166659999999993</v>
       </c>
-      <c r="G124" s="10">
+      <c r="G124" s="4">
         <v>76.166659999999993</v>
       </c>
     </row>
@@ -13799,22 +13797,22 @@
       <c r="A125" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B125" s="10">
+      <c r="B125" s="4">
         <v>85.026660000000007</v>
       </c>
-      <c r="C125" s="10">
+      <c r="C125" s="4">
         <v>85.026660000000007</v>
       </c>
-      <c r="D125" s="10">
+      <c r="D125" s="4">
         <v>85.026660000000007</v>
       </c>
-      <c r="E125" s="10">
+      <c r="E125" s="4">
         <v>85.026660000000007</v>
       </c>
-      <c r="F125" s="10">
+      <c r="F125" s="4">
         <v>85.026660000000007</v>
       </c>
-      <c r="G125" s="10">
+      <c r="G125" s="4">
         <v>85.026660000000007</v>
       </c>
     </row>
@@ -13822,22 +13820,22 @@
       <c r="A126" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B126" s="10">
+      <c r="B126" s="4">
         <v>93.98</v>
       </c>
-      <c r="C126" s="10">
+      <c r="C126" s="4">
         <v>93.98</v>
       </c>
-      <c r="D126" s="10">
+      <c r="D126" s="4">
         <v>93.98</v>
       </c>
-      <c r="E126" s="10">
+      <c r="E126" s="4">
         <v>93.98</v>
       </c>
-      <c r="F126" s="10">
+      <c r="F126" s="4">
         <v>93.98</v>
       </c>
-      <c r="G126" s="10">
+      <c r="G126" s="4">
         <v>93.98</v>
       </c>
     </row>
@@ -13845,22 +13843,22 @@
       <c r="A127" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B127" s="10">
+      <c r="B127" s="4">
         <v>102.55329999999999</v>
       </c>
-      <c r="C127" s="10">
+      <c r="C127" s="4">
         <v>102.55329999999999</v>
       </c>
-      <c r="D127" s="10">
+      <c r="D127" s="4">
         <v>102.55329999999999</v>
       </c>
-      <c r="E127" s="10">
+      <c r="E127" s="4">
         <v>102.55329999999999</v>
       </c>
-      <c r="F127" s="10">
+      <c r="F127" s="4">
         <v>102.55329999999999</v>
       </c>
-      <c r="G127" s="10">
+      <c r="G127" s="4">
         <v>102.55329999999999</v>
       </c>
     </row>
@@ -13868,22 +13866,22 @@
       <c r="A128" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B128" s="10">
+      <c r="B128" s="4">
         <v>89.71</v>
       </c>
-      <c r="C128" s="10">
+      <c r="C128" s="4">
         <v>89.71</v>
       </c>
-      <c r="D128" s="10">
+      <c r="D128" s="4">
         <v>89.71</v>
       </c>
-      <c r="E128" s="10">
+      <c r="E128" s="4">
         <v>89.71</v>
       </c>
-      <c r="F128" s="10">
+      <c r="F128" s="4">
         <v>89.71</v>
       </c>
-      <c r="G128" s="10">
+      <c r="G128" s="4">
         <v>89.71</v>
       </c>
     </row>
@@ -13891,22 +13889,22 @@
       <c r="A129" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B129" s="10">
+      <c r="B129" s="4">
         <v>94.063329999999993</v>
       </c>
-      <c r="C129" s="10">
+      <c r="C129" s="4">
         <v>94.063329999999993</v>
       </c>
-      <c r="D129" s="10">
+      <c r="D129" s="4">
         <v>94.063329999999993</v>
       </c>
-      <c r="E129" s="10">
+      <c r="E129" s="4">
         <v>94.063329999999993</v>
       </c>
-      <c r="F129" s="10">
+      <c r="F129" s="4">
         <v>94.063329999999993</v>
       </c>
-      <c r="G129" s="10">
+      <c r="G129" s="4">
         <v>94.063329999999993</v>
       </c>
     </row>
@@ -13914,22 +13912,22 @@
       <c r="A130" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B130" s="10">
+      <c r="B130" s="4">
         <v>102.8933</v>
       </c>
-      <c r="C130" s="10">
+      <c r="C130" s="4">
         <v>102.8933</v>
       </c>
-      <c r="D130" s="10">
+      <c r="D130" s="4">
         <v>102.8933</v>
       </c>
-      <c r="E130" s="10">
+      <c r="E130" s="4">
         <v>102.8933</v>
       </c>
-      <c r="F130" s="10">
+      <c r="F130" s="4">
         <v>102.8933</v>
       </c>
-      <c r="G130" s="10">
+      <c r="G130" s="4">
         <v>102.8933</v>
       </c>
     </row>
@@ -13937,22 +13935,22 @@
       <c r="A131" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B131" s="10">
+      <c r="B131" s="4">
         <v>93.48</v>
       </c>
-      <c r="C131" s="10">
+      <c r="C131" s="4">
         <v>93.48</v>
       </c>
-      <c r="D131" s="10">
+      <c r="D131" s="4">
         <v>93.48</v>
       </c>
-      <c r="E131" s="10">
+      <c r="E131" s="4">
         <v>93.48</v>
       </c>
-      <c r="F131" s="10">
+      <c r="F131" s="4">
         <v>93.48</v>
       </c>
-      <c r="G131" s="10">
+      <c r="G131" s="4">
         <v>93.48</v>
       </c>
     </row>
@@ -13960,22 +13958,22 @@
       <c r="A132" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B132" s="10">
+      <c r="B132" s="4">
         <v>92.27</v>
       </c>
-      <c r="C132" s="10">
+      <c r="C132" s="4">
         <v>92.27</v>
       </c>
-      <c r="D132" s="10">
+      <c r="D132" s="4">
         <v>92.27</v>
       </c>
-      <c r="E132" s="10">
+      <c r="E132" s="4">
         <v>92.27</v>
       </c>
-      <c r="F132" s="10">
+      <c r="F132" s="4">
         <v>92.27</v>
       </c>
-      <c r="G132" s="10">
+      <c r="G132" s="4">
         <v>92.27</v>
       </c>
     </row>
@@ -13983,22 +13981,22 @@
       <c r="A133" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B133" s="10">
+      <c r="B133" s="4">
         <v>88.16</v>
       </c>
-      <c r="C133" s="10">
+      <c r="C133" s="4">
         <v>88.16</v>
       </c>
-      <c r="D133" s="10">
+      <c r="D133" s="4">
         <v>88.16</v>
       </c>
-      <c r="E133" s="10">
+      <c r="E133" s="4">
         <v>88.16</v>
       </c>
-      <c r="F133" s="10">
+      <c r="F133" s="4">
         <v>88.16</v>
       </c>
-      <c r="G133" s="10">
+      <c r="G133" s="4">
         <v>88.16</v>
       </c>
     </row>
@@ -14006,22 +14004,22 @@
       <c r="A134" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B134" s="10">
+      <c r="B134" s="4">
         <v>94.323329999999999</v>
       </c>
-      <c r="C134" s="10">
+      <c r="C134" s="4">
         <v>94.323329999999999</v>
       </c>
-      <c r="D134" s="10">
+      <c r="D134" s="4">
         <v>94.323329999999999</v>
       </c>
-      <c r="E134" s="10">
+      <c r="E134" s="4">
         <v>94.323329999999999</v>
       </c>
-      <c r="F134" s="10">
+      <c r="F134" s="4">
         <v>94.323329999999999</v>
       </c>
-      <c r="G134" s="10">
+      <c r="G134" s="4">
         <v>94.323329999999999</v>
       </c>
     </row>
@@ -14029,22 +14027,22 @@
       <c r="A135" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B135" s="10">
+      <c r="B135" s="4">
         <v>94.223339999999993</v>
       </c>
-      <c r="C135" s="10">
+      <c r="C135" s="4">
         <v>94.223339999999993</v>
       </c>
-      <c r="D135" s="10">
+      <c r="D135" s="4">
         <v>94.223339999999993</v>
       </c>
-      <c r="E135" s="10">
+      <c r="E135" s="4">
         <v>94.223339999999993</v>
       </c>
-      <c r="F135" s="10">
+      <c r="F135" s="4">
         <v>94.223339999999993</v>
       </c>
-      <c r="G135" s="10">
+      <c r="G135" s="4">
         <v>94.223339999999993</v>
       </c>
     </row>
@@ -14052,22 +14050,22 @@
       <c r="A136" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B136" s="10">
+      <c r="B136" s="4">
         <v>105.85</v>
       </c>
-      <c r="C136" s="10">
+      <c r="C136" s="4">
         <v>105.85</v>
       </c>
-      <c r="D136" s="10">
+      <c r="D136" s="4">
         <v>105.85</v>
       </c>
-      <c r="E136" s="10">
+      <c r="E136" s="4">
         <v>105.85</v>
       </c>
-      <c r="F136" s="10">
+      <c r="F136" s="4">
         <v>105.85</v>
       </c>
-      <c r="G136" s="10">
+      <c r="G136" s="4">
         <v>105.85</v>
       </c>
     </row>
@@ -14075,22 +14073,22 @@
       <c r="A137" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B137" s="10">
+      <c r="B137" s="4">
         <v>97.36</v>
       </c>
-      <c r="C137" s="10">
+      <c r="C137" s="4">
         <v>97.36</v>
       </c>
-      <c r="D137" s="10">
+      <c r="D137" s="4">
         <v>97.36</v>
       </c>
-      <c r="E137" s="10">
+      <c r="E137" s="4">
         <v>97.36</v>
       </c>
-      <c r="F137" s="10">
+      <c r="F137" s="4">
         <v>97.36</v>
       </c>
-      <c r="G137" s="10">
+      <c r="G137" s="4">
         <v>97.36</v>
       </c>
     </row>
@@ -14098,22 +14096,22 @@
       <c r="A138" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B138" s="10">
+      <c r="B138" s="4">
         <v>98.746669999999995</v>
       </c>
-      <c r="C138" s="10">
+      <c r="C138" s="4">
         <v>98.746669999999995</v>
       </c>
-      <c r="D138" s="10">
+      <c r="D138" s="4">
         <v>98.746669999999995</v>
       </c>
-      <c r="E138" s="10">
+      <c r="E138" s="4">
         <v>98.746669999999995</v>
       </c>
-      <c r="F138" s="10">
+      <c r="F138" s="4">
         <v>98.746669999999995</v>
       </c>
-      <c r="G138" s="10">
+      <c r="G138" s="4">
         <v>98.746669999999995</v>
       </c>
     </row>
@@ -14121,22 +14119,22 @@
       <c r="A139" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B139" s="10">
+      <c r="B139" s="4">
         <v>103.3467</v>
       </c>
-      <c r="C139" s="10">
+      <c r="C139" s="4">
         <v>103.3467</v>
       </c>
-      <c r="D139" s="10">
+      <c r="D139" s="4">
         <v>103.3467</v>
       </c>
-      <c r="E139" s="10">
+      <c r="E139" s="4">
         <v>103.3467</v>
       </c>
-      <c r="F139" s="10">
+      <c r="F139" s="4">
         <v>103.3467</v>
       </c>
-      <c r="G139" s="10">
+      <c r="G139" s="4">
         <v>103.3467</v>
       </c>
     </row>
@@ -14144,22 +14142,22 @@
       <c r="A140" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B140" s="10">
+      <c r="B140" s="4">
         <v>97.78</v>
       </c>
-      <c r="C140" s="10">
+      <c r="C140" s="4">
         <v>97.78</v>
       </c>
-      <c r="D140" s="10">
+      <c r="D140" s="4">
         <v>97.78</v>
       </c>
-      <c r="E140" s="10">
+      <c r="E140" s="4">
         <v>97.78</v>
       </c>
-      <c r="F140" s="10">
+      <c r="F140" s="4">
         <v>97.78</v>
       </c>
-      <c r="G140" s="10">
+      <c r="G140" s="4">
         <v>97.78</v>
       </c>
     </row>
@@ -14167,22 +14165,22 @@
       <c r="A141" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B141" s="10">
+      <c r="B141" s="4">
         <v>73.16</v>
       </c>
-      <c r="C141" s="10">
+      <c r="C141" s="4">
         <v>73.16</v>
       </c>
-      <c r="D141" s="10">
+      <c r="D141" s="4">
         <v>73.16</v>
       </c>
-      <c r="E141" s="10">
+      <c r="E141" s="4">
         <v>73.16</v>
       </c>
-      <c r="F141" s="10">
+      <c r="F141" s="4">
         <v>73.16</v>
       </c>
-      <c r="G141" s="10">
+      <c r="G141" s="4">
         <v>73.16</v>
       </c>
     </row>
@@ -14190,22 +14188,22 @@
       <c r="A142" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B142" s="10">
+      <c r="B142" s="4">
         <v>48.64</v>
       </c>
-      <c r="C142" s="10">
+      <c r="C142" s="4">
         <v>48.64</v>
       </c>
-      <c r="D142" s="10">
+      <c r="D142" s="4">
         <v>48.64</v>
       </c>
-      <c r="E142" s="10">
+      <c r="E142" s="4">
         <v>48.64</v>
       </c>
-      <c r="F142" s="10">
+      <c r="F142" s="4">
         <v>48.64</v>
       </c>
-      <c r="G142" s="10">
+      <c r="G142" s="4">
         <v>48.64</v>
       </c>
     </row>
@@ -14213,22 +14211,22 @@
       <c r="A143" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B143" s="10">
+      <c r="B143" s="4">
         <v>57.856670000000001</v>
       </c>
-      <c r="C143" s="10">
+      <c r="C143" s="4">
         <v>57.856670000000001</v>
       </c>
-      <c r="D143" s="10">
+      <c r="D143" s="4">
         <v>57.856670000000001</v>
       </c>
-      <c r="E143" s="10">
+      <c r="E143" s="4">
         <v>57.856670000000001</v>
       </c>
-      <c r="F143" s="10">
+      <c r="F143" s="4">
         <v>57.856670000000001</v>
       </c>
-      <c r="G143" s="10">
+      <c r="G143" s="4">
         <v>57.856670000000001</v>
       </c>
     </row>
@@ -14236,22 +14234,22 @@
       <c r="A144" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B144" s="10">
+      <c r="B144" s="4">
         <v>46.42</v>
       </c>
-      <c r="C144" s="10">
+      <c r="C144" s="4">
         <v>46.42</v>
       </c>
-      <c r="D144" s="10">
+      <c r="D144" s="4">
         <v>46.42</v>
       </c>
-      <c r="E144" s="10">
+      <c r="E144" s="4">
         <v>46.42</v>
       </c>
-      <c r="F144" s="10">
+      <c r="F144" s="4">
         <v>46.42</v>
       </c>
-      <c r="G144" s="10">
+      <c r="G144" s="4">
         <v>46.42</v>
       </c>
     </row>
@@ -14259,22 +14257,22 @@
       <c r="A145" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B145" s="10">
+      <c r="B145" s="4">
         <v>42.023330000000001</v>
       </c>
-      <c r="C145" s="10">
+      <c r="C145" s="4">
         <v>42.023330000000001</v>
       </c>
-      <c r="D145" s="10">
+      <c r="D145" s="4">
         <v>42.023330000000001</v>
       </c>
-      <c r="E145" s="10">
+      <c r="E145" s="4">
         <v>42.023330000000001</v>
       </c>
-      <c r="F145" s="10">
+      <c r="F145" s="4">
         <v>42.023330000000001</v>
       </c>
-      <c r="G145" s="10">
+      <c r="G145" s="4">
         <v>42.023330000000001</v>
       </c>
     </row>
@@ -14282,22 +14280,22 @@
       <c r="A146" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B146" s="10">
+      <c r="B146" s="4">
         <v>33.356670000000001</v>
       </c>
-      <c r="C146" s="10">
+      <c r="C146" s="4">
         <v>33.356670000000001</v>
       </c>
-      <c r="D146" s="10">
+      <c r="D146" s="4">
         <v>33.356670000000001</v>
       </c>
-      <c r="E146" s="10">
+      <c r="E146" s="4">
         <v>33.356670000000001</v>
       </c>
-      <c r="F146" s="10">
+      <c r="F146" s="4">
         <v>33.356670000000001</v>
       </c>
-      <c r="G146" s="10">
+      <c r="G146" s="4">
         <v>33.356670000000001</v>
       </c>
     </row>
@@ -14305,22 +14303,22 @@
       <c r="A147" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B147" s="10">
+      <c r="B147" s="4">
         <v>45.44</v>
       </c>
-      <c r="C147" s="10">
+      <c r="C147" s="4">
         <v>45.44</v>
       </c>
-      <c r="D147" s="10">
+      <c r="D147" s="4">
         <v>45.44</v>
       </c>
-      <c r="E147" s="10">
+      <c r="E147" s="4">
         <v>45.44</v>
       </c>
-      <c r="F147" s="10">
+      <c r="F147" s="4">
         <v>45.44</v>
       </c>
-      <c r="G147" s="10">
+      <c r="G147" s="4">
         <v>45.44</v>
       </c>
     </row>
@@ -14328,22 +14326,22 @@
       <c r="A148" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B148" s="10">
+      <c r="B148" s="4">
         <v>44.89</v>
       </c>
-      <c r="C148" s="10">
+      <c r="C148" s="4">
         <v>44.89</v>
       </c>
-      <c r="D148" s="10">
+      <c r="D148" s="4">
         <v>44.89</v>
       </c>
-      <c r="E148" s="10">
+      <c r="E148" s="4">
         <v>44.89</v>
       </c>
-      <c r="F148" s="10">
+      <c r="F148" s="4">
         <v>44.89</v>
       </c>
-      <c r="G148" s="10">
+      <c r="G148" s="4">
         <v>44.89</v>
       </c>
     </row>
@@ -14351,22 +14349,22 @@
       <c r="A149" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B149" s="10">
+      <c r="B149" s="4">
         <v>49.2</v>
       </c>
-      <c r="C149" s="10">
+      <c r="C149" s="4">
         <v>49.2</v>
       </c>
-      <c r="D149" s="10">
+      <c r="D149" s="4">
         <v>49.2</v>
       </c>
-      <c r="E149" s="10">
+      <c r="E149" s="4">
         <v>49.2</v>
       </c>
-      <c r="F149" s="10">
+      <c r="F149" s="4">
         <v>49.2</v>
       </c>
-      <c r="G149" s="10">
+      <c r="G149" s="4">
         <v>49.2</v>
       </c>
     </row>
@@ -14374,22 +14372,22 @@
       <c r="A150" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B150" s="10">
+      <c r="B150" s="4">
         <v>51.833329999999997</v>
       </c>
-      <c r="C150" s="10">
+      <c r="C150" s="4">
         <v>51.833329999999997</v>
       </c>
-      <c r="D150" s="10">
+      <c r="D150" s="4">
         <v>51.833329999999997</v>
       </c>
-      <c r="E150" s="10">
+      <c r="E150" s="4">
         <v>51.833329999999997</v>
       </c>
-      <c r="F150" s="10">
+      <c r="F150" s="4">
         <v>51.833329999999997</v>
       </c>
-      <c r="G150" s="10">
+      <c r="G150" s="4">
         <v>51.833329999999997</v>
       </c>
     </row>
@@ -14397,22 +14395,22 @@
       <c r="A151" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B151" s="10">
+      <c r="B151" s="4">
         <v>48.26</v>
       </c>
-      <c r="C151" s="10">
+      <c r="C151" s="4">
         <v>48.26</v>
       </c>
-      <c r="D151" s="10">
+      <c r="D151" s="4">
         <v>48.26</v>
       </c>
-      <c r="E151" s="10">
+      <c r="E151" s="4">
         <v>48.26</v>
       </c>
-      <c r="F151" s="10">
+      <c r="F151" s="4">
         <v>48.26</v>
       </c>
-      <c r="G151" s="10">
+      <c r="G151" s="4">
         <v>48.26</v>
       </c>
     </row>
@@ -14420,22 +14418,22 @@
       <c r="A152" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B152" s="10">
+      <c r="B152" s="4">
         <v>48.163330000000002</v>
       </c>
-      <c r="C152" s="10">
+      <c r="C152" s="4">
         <v>48.163330000000002</v>
       </c>
-      <c r="D152" s="10">
+      <c r="D152" s="4">
         <v>48.163330000000002</v>
       </c>
-      <c r="E152" s="10">
+      <c r="E152" s="4">
         <v>48.163330000000002</v>
       </c>
-      <c r="F152" s="10">
+      <c r="F152" s="4">
         <v>48.163330000000002</v>
       </c>
-      <c r="G152" s="10">
+      <c r="G152" s="4">
         <v>48.163330000000002</v>
       </c>
     </row>
@@ -14443,22 +14441,22 @@
       <c r="A153" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B153" s="10">
+      <c r="B153" s="4">
         <v>55.386670000000002</v>
       </c>
-      <c r="C153" s="10">
+      <c r="C153" s="4">
         <v>55.386670000000002</v>
       </c>
-      <c r="D153" s="10">
+      <c r="D153" s="4">
         <v>55.386670000000002</v>
       </c>
-      <c r="E153" s="10">
+      <c r="E153" s="4">
         <v>55.386670000000002</v>
       </c>
-      <c r="F153" s="10">
+      <c r="F153" s="4">
         <v>55.386670000000002</v>
       </c>
-      <c r="G153" s="10">
+      <c r="G153" s="4">
         <v>55.386670000000002</v>
       </c>
     </row>
@@ -14466,22 +14464,22 @@
       <c r="A154" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B154" s="10">
+      <c r="B154" s="4">
         <v>62.876669999999997</v>
       </c>
-      <c r="C154" s="10">
+      <c r="C154" s="4">
         <v>62.876669999999997</v>
       </c>
-      <c r="D154" s="10">
+      <c r="D154" s="4">
         <v>62.876669999999997</v>
       </c>
-      <c r="E154" s="10">
+      <c r="E154" s="4">
         <v>62.876669999999997</v>
       </c>
-      <c r="F154" s="10">
+      <c r="F154" s="4">
         <v>62.876669999999997</v>
       </c>
-      <c r="G154" s="10">
+      <c r="G154" s="4">
         <v>62.876669999999997</v>
       </c>
     </row>
@@ -14489,22 +14487,22 @@
       <c r="A155" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B155" s="10">
+      <c r="B155" s="4">
         <v>67.86</v>
       </c>
-      <c r="C155" s="10">
+      <c r="C155" s="4">
         <v>67.86</v>
       </c>
-      <c r="D155" s="10">
+      <c r="D155" s="4">
         <v>67.86</v>
       </c>
-      <c r="E155" s="10">
+      <c r="E155" s="4">
         <v>67.86</v>
       </c>
-      <c r="F155" s="10">
+      <c r="F155" s="4">
         <v>67.86</v>
       </c>
-      <c r="G155" s="10">
+      <c r="G155" s="4">
         <v>67.86</v>
       </c>
     </row>
@@ -14512,22 +14510,22 @@
       <c r="A156" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B156" s="10">
+      <c r="B156" s="4">
         <v>69.72</v>
       </c>
-      <c r="C156" s="10">
+      <c r="C156" s="4">
         <v>69.72</v>
       </c>
-      <c r="D156" s="10">
+      <c r="D156" s="4">
         <v>69.72</v>
       </c>
-      <c r="E156" s="10">
+      <c r="E156" s="4">
         <v>69.72</v>
       </c>
-      <c r="F156" s="10">
+      <c r="F156" s="4">
         <v>69.72</v>
       </c>
-      <c r="G156" s="10">
+      <c r="G156" s="4">
         <v>69.72</v>
       </c>
     </row>
@@ -14535,22 +14533,22 @@
       <c r="A157" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B157" s="10">
+      <c r="B157" s="4">
         <v>58.903329999999997</v>
       </c>
-      <c r="C157" s="10">
+      <c r="C157" s="4">
         <v>58.903329999999997</v>
       </c>
-      <c r="D157" s="10">
+      <c r="D157" s="4">
         <v>58.903329999999997</v>
       </c>
-      <c r="E157" s="10">
+      <c r="E157" s="4">
         <v>58.903329999999997</v>
       </c>
-      <c r="F157" s="10">
+      <c r="F157" s="4">
         <v>58.903329999999997</v>
       </c>
-      <c r="G157" s="10">
+      <c r="G157" s="4">
         <v>58.903329999999997</v>
       </c>
     </row>
@@ -14558,22 +14556,22 @@
       <c r="A158" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B158" s="10">
+      <c r="B158" s="4">
         <v>54.85</v>
       </c>
-      <c r="C158" s="10">
+      <c r="C158" s="4">
         <v>54.85</v>
       </c>
-      <c r="D158" s="10">
+      <c r="D158" s="4">
         <v>54.85</v>
       </c>
-      <c r="E158" s="10">
+      <c r="E158" s="4">
         <v>54.85</v>
       </c>
-      <c r="F158" s="10">
+      <c r="F158" s="4">
         <v>54.85</v>
       </c>
-      <c r="G158" s="10">
+      <c r="G158" s="4">
         <v>54.85</v>
       </c>
     </row>
@@ -14581,22 +14579,22 @@
       <c r="A159" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B159" s="10">
+      <c r="B159" s="4">
         <v>59.786670000000001</v>
       </c>
-      <c r="C159" s="10">
+      <c r="C159" s="4">
         <v>59.786670000000001</v>
       </c>
-      <c r="D159" s="10">
+      <c r="D159" s="4">
         <v>59.786670000000001</v>
       </c>
-      <c r="E159" s="10">
+      <c r="E159" s="4">
         <v>59.786670000000001</v>
       </c>
-      <c r="F159" s="10">
+      <c r="F159" s="4">
         <v>59.786670000000001</v>
       </c>
-      <c r="G159" s="10">
+      <c r="G159" s="4">
         <v>59.786670000000001</v>
       </c>
     </row>
@@ -14604,22 +14602,22 @@
       <c r="A160" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B160" s="10">
+      <c r="B160" s="4">
         <v>56.406669999999998</v>
       </c>
-      <c r="C160" s="10">
+      <c r="C160" s="4">
         <v>56.406669999999998</v>
       </c>
-      <c r="D160" s="10">
+      <c r="D160" s="4">
         <v>56.406669999999998</v>
       </c>
-      <c r="E160" s="10">
+      <c r="E160" s="4">
         <v>56.406669999999998</v>
       </c>
-      <c r="F160" s="10">
+      <c r="F160" s="4">
         <v>56.406669999999998</v>
       </c>
-      <c r="G160" s="10">
+      <c r="G160" s="4">
         <v>56.406669999999998</v>
       </c>
     </row>
@@ -14627,22 +14625,22 @@
       <c r="A161" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B161" s="10">
+      <c r="B161" s="4">
         <v>56.913330000000002</v>
       </c>
-      <c r="C161" s="10">
+      <c r="C161" s="4">
         <v>56.913330000000002</v>
       </c>
-      <c r="D161" s="10">
+      <c r="D161" s="4">
         <v>56.913330000000002</v>
       </c>
-      <c r="E161" s="10">
+      <c r="E161" s="4">
         <v>56.913330000000002</v>
       </c>
-      <c r="F161" s="10">
+      <c r="F161" s="4">
         <v>56.913330000000002</v>
       </c>
-      <c r="G161" s="10">
+      <c r="G161" s="4">
         <v>56.913330000000002</v>
       </c>
     </row>
@@ -14650,22 +14648,22 @@
       <c r="A162" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B162" s="10">
+      <c r="B162" s="4">
         <v>45.84</v>
       </c>
-      <c r="C162" s="10">
+      <c r="C162" s="4">
         <v>45.84</v>
       </c>
-      <c r="D162" s="10">
+      <c r="D162" s="4">
         <v>45.84</v>
       </c>
-      <c r="E162" s="10">
+      <c r="E162" s="4">
         <v>45.84</v>
       </c>
-      <c r="F162" s="10">
+      <c r="F162" s="4">
         <v>45.84</v>
       </c>
-      <c r="G162" s="10">
+      <c r="G162" s="4">
         <v>45.84</v>
       </c>
     </row>
@@ -14673,22 +14671,22 @@
       <c r="A163" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B163" s="10">
+      <c r="B163" s="4">
         <v>27.82667</v>
       </c>
-      <c r="C163" s="10">
+      <c r="C163" s="4">
         <v>27.82667</v>
       </c>
-      <c r="D163" s="10">
+      <c r="D163" s="4">
         <v>27.82667</v>
       </c>
-      <c r="E163" s="10">
+      <c r="E163" s="4">
         <v>27.82667</v>
       </c>
-      <c r="F163" s="10">
+      <c r="F163" s="4">
         <v>27.82667</v>
       </c>
-      <c r="G163" s="10">
+      <c r="G163" s="4">
         <v>27.82667</v>
       </c>
     </row>
@@ -14696,22 +14694,22 @@
       <c r="A164" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B164" s="10">
+      <c r="B164" s="4">
         <v>40.886670000000002</v>
       </c>
-      <c r="C164" s="10">
+      <c r="C164" s="4">
         <v>40.886670000000002</v>
       </c>
-      <c r="D164" s="10">
+      <c r="D164" s="4">
         <v>40.886670000000002</v>
       </c>
-      <c r="E164" s="10">
+      <c r="E164" s="4">
         <v>40.886670000000002</v>
       </c>
-      <c r="F164" s="10">
+      <c r="F164" s="4">
         <v>40.886670000000002</v>
       </c>
-      <c r="G164" s="10">
+      <c r="G164" s="4">
         <v>40.886670000000002</v>
       </c>
     </row>
@@ -14719,22 +14717,22 @@
       <c r="A165" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B165" s="10">
+      <c r="B165" s="4">
         <v>42.50667</v>
       </c>
-      <c r="C165" s="10">
+      <c r="C165" s="4">
         <v>42.50667</v>
       </c>
-      <c r="D165" s="10">
+      <c r="D165" s="4">
         <v>42.50667</v>
       </c>
-      <c r="E165" s="10">
+      <c r="E165" s="4">
         <v>42.50667</v>
       </c>
-      <c r="F165" s="10">
+      <c r="F165" s="4">
         <v>42.50667</v>
       </c>
-      <c r="G165" s="10">
+      <c r="G165" s="4">
         <v>42.50667</v>
       </c>
     </row>
@@ -14742,22 +14740,22 @@
       <c r="A166" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B166" s="11">
+      <c r="B166" s="9">
         <v>57.823329999999999</v>
       </c>
-      <c r="C166" s="11">
+      <c r="C166" s="9">
         <v>57.823329999999999</v>
       </c>
-      <c r="D166" s="11">
+      <c r="D166" s="9">
         <v>57.823329999999999</v>
       </c>
-      <c r="E166" s="11">
+      <c r="E166" s="9">
         <v>57.823329999999999</v>
       </c>
-      <c r="F166" s="11">
+      <c r="F166" s="9">
         <v>57.823329999999999</v>
       </c>
-      <c r="G166" s="11">
+      <c r="G166" s="9">
         <v>57.823329999999999</v>
       </c>
     </row>
@@ -14765,22 +14763,22 @@
       <c r="A167" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B167" s="11">
+      <c r="B167" s="9">
         <v>66.09</v>
       </c>
-      <c r="C167" s="11">
+      <c r="C167" s="9">
         <v>66.09</v>
       </c>
-      <c r="D167" s="11">
+      <c r="D167" s="9">
         <v>66.09</v>
       </c>
-      <c r="E167" s="11">
+      <c r="E167" s="9">
         <v>66.09</v>
       </c>
-      <c r="F167" s="11">
+      <c r="F167" s="9">
         <v>66.09</v>
       </c>
-      <c r="G167" s="11">
+      <c r="G167" s="9">
         <v>66.09</v>
       </c>
     </row>
@@ -14788,22 +14786,22 @@
       <c r="A168" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B168" s="11">
+      <c r="B168" s="9">
         <v>70.563329999999993</v>
       </c>
-      <c r="C168" s="11">
+      <c r="C168" s="9">
         <v>70.563329999999993</v>
       </c>
-      <c r="D168" s="11">
+      <c r="D168" s="9">
         <v>70.563329999999993</v>
       </c>
-      <c r="E168" s="11">
+      <c r="E168" s="9">
         <v>70.563329999999993</v>
       </c>
-      <c r="F168" s="11">
+      <c r="F168" s="9">
         <v>70.563329999999993</v>
       </c>
-      <c r="G168" s="11">
+      <c r="G168" s="9">
         <v>70.563329999999993</v>
       </c>
     </row>
@@ -14811,22 +14809,22 @@
       <c r="A169" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B169" s="11">
+      <c r="B169" s="9">
         <v>77.44</v>
       </c>
-      <c r="C169" s="11">
+      <c r="C169" s="9">
         <v>77.44</v>
       </c>
-      <c r="D169" s="11">
+      <c r="D169" s="9">
         <v>77.44</v>
       </c>
-      <c r="E169" s="11">
+      <c r="E169" s="9">
         <v>77.44</v>
       </c>
-      <c r="F169" s="11">
+      <c r="F169" s="9">
         <v>77.44</v>
       </c>
-      <c r="G169" s="11">
+      <c r="G169" s="9">
         <v>77.44</v>
       </c>
     </row>
@@ -14834,19 +14832,19 @@
       <c r="A170" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B170" s="12">
+      <c r="B170" s="10">
         <v>86.021900000000002</v>
       </c>
-      <c r="C170" s="12">
+      <c r="C170" s="10">
         <v>89.232330000000005</v>
       </c>
-      <c r="D170" s="12">
+      <c r="D170" s="10">
         <v>85.443449999999999</v>
       </c>
-      <c r="E170" s="12">
+      <c r="E170" s="10">
         <v>93.667450000000002</v>
       </c>
-      <c r="F170" s="12">
+      <c r="F170" s="10">
         <v>91.749949999999998</v>
       </c>
       <c r="G170">
@@ -14857,19 +14855,19 @@
       <c r="A171" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B171" s="12">
+      <c r="B171" s="10">
         <v>86.255099999999999</v>
       </c>
-      <c r="C171" s="12">
+      <c r="C171" s="10">
         <v>96.623509999999996</v>
       </c>
-      <c r="D171" s="12">
+      <c r="D171" s="10">
         <v>83.851370000000003</v>
       </c>
-      <c r="E171" s="12">
+      <c r="E171" s="10">
         <v>96.500510000000006</v>
       </c>
-      <c r="F171" s="12">
+      <c r="F171" s="10">
         <v>101.7443</v>
       </c>
       <c r="G171">
@@ -14880,19 +14878,19 @@
       <c r="A172" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B172" s="12">
+      <c r="B172" s="10">
         <v>83.36551</v>
       </c>
-      <c r="C172" s="12">
+      <c r="C172" s="10">
         <v>95.508690000000001</v>
       </c>
-      <c r="D172" s="12">
+      <c r="D172" s="10">
         <v>77.485690000000005</v>
       </c>
-      <c r="E172" s="12">
+      <c r="E172" s="10">
         <v>96.050200000000004</v>
       </c>
-      <c r="F172" s="12">
+      <c r="F172" s="10">
         <v>101.3952</v>
       </c>
       <c r="G172">
@@ -14903,19 +14901,19 @@
       <c r="A173" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B173" s="12">
+      <c r="B173" s="10">
         <v>80.037430000000001</v>
       </c>
-      <c r="C173" s="12">
+      <c r="C173" s="10">
         <v>91.262559999999993</v>
       </c>
-      <c r="D173" s="12">
+      <c r="D173" s="10">
         <v>69.992419999999996</v>
       </c>
-      <c r="E173" s="12">
+      <c r="E173" s="10">
         <v>92.383939999999996</v>
       </c>
-      <c r="F173" s="12">
+      <c r="F173" s="10">
         <v>96.862179999999995</v>
       </c>
       <c r="G173">
@@ -14926,19 +14924,19 @@
       <c r="A174" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B174" s="12">
+      <c r="B174" s="10">
         <v>76.386189999999999</v>
       </c>
-      <c r="C174" s="12">
+      <c r="C174" s="10">
         <v>86.519170000000003</v>
       </c>
-      <c r="D174" s="12">
+      <c r="D174" s="10">
         <v>63.676439999999999</v>
       </c>
-      <c r="E174" s="12">
+      <c r="E174" s="10">
         <v>88.334959999999995</v>
       </c>
-      <c r="F174" s="12">
+      <c r="F174" s="10">
         <v>91.003789999999995</v>
       </c>
       <c r="G174">
@@ -14949,19 +14947,19 @@
       <c r="A175" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B175" s="12">
+      <c r="B175" s="10">
         <v>72.902270000000001</v>
       </c>
-      <c r="C175" s="12">
+      <c r="C175" s="10">
         <v>80.315799999999996</v>
       </c>
-      <c r="D175" s="12">
+      <c r="D175" s="10">
         <v>60.179749999999999</v>
       </c>
-      <c r="E175" s="12">
+      <c r="E175" s="10">
         <v>84.419529999999995</v>
       </c>
-      <c r="F175" s="12">
+      <c r="F175" s="10">
         <v>85.314099999999996</v>
       </c>
       <c r="G175">
@@ -14972,19 +14970,19 @@
       <c r="A176" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B176" s="12">
+      <c r="B176" s="10">
         <v>69.986130000000003</v>
       </c>
-      <c r="C176" s="12">
+      <c r="C176" s="10">
         <v>75.315539999999999</v>
       </c>
-      <c r="D176" s="12">
+      <c r="D176" s="10">
         <v>59.463299999999997</v>
       </c>
-      <c r="E176" s="12">
+      <c r="E176" s="10">
         <v>80.954359999999994</v>
       </c>
-      <c r="F176" s="12">
+      <c r="F176" s="10">
         <v>80.183430000000001</v>
       </c>
       <c r="G176">
@@ -14995,19 +14993,19 @@
       <c r="A177" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B177" s="12">
+      <c r="B177" s="10">
         <v>67.606480000000005</v>
       </c>
-      <c r="C177" s="12">
+      <c r="C177" s="10">
         <v>69.849770000000007</v>
       </c>
-      <c r="D177" s="12">
+      <c r="D177" s="10">
         <v>61.15287</v>
       </c>
-      <c r="E177" s="12">
+      <c r="E177" s="10">
         <v>78.172960000000003</v>
       </c>
-      <c r="F177" s="12">
+      <c r="F177" s="10">
         <v>76.294399999999996</v>
       </c>
       <c r="G177">
@@ -15018,19 +15016,19 @@
       <c r="A178" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B178" s="12">
+      <c r="B178" s="10">
         <v>65.654570000000007</v>
       </c>
-      <c r="C178" s="12">
+      <c r="C178" s="10">
         <v>66.943179999999998</v>
       </c>
-      <c r="D178" s="12">
+      <c r="D178" s="10">
         <v>61.744309999999999</v>
       </c>
-      <c r="E178" s="12">
+      <c r="E178" s="10">
         <v>75.85257</v>
       </c>
-      <c r="F178" s="12">
+      <c r="F178" s="10">
         <v>72.974180000000004</v>
       </c>
       <c r="G178">
@@ -15041,19 +15039,19 @@
       <c r="A179" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B179" s="12">
+      <c r="B179" s="10">
         <v>64.275850000000005</v>
       </c>
-      <c r="C179" s="12">
+      <c r="C179" s="10">
         <v>64.572749999999999</v>
       </c>
-      <c r="D179" s="12">
+      <c r="D179" s="10">
         <v>61.96284</v>
       </c>
-      <c r="E179" s="12">
+      <c r="E179" s="10">
         <v>74.21208</v>
       </c>
-      <c r="F179" s="12">
+      <c r="F179" s="10">
         <v>70.890349999999998</v>
       </c>
       <c r="G179">
@@ -15064,19 +15062,19 @@
       <c r="A180" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B180" s="12">
+      <c r="B180" s="10">
         <v>63.441540000000003</v>
       </c>
-      <c r="C180" s="12">
+      <c r="C180" s="10">
         <v>63.60219</v>
       </c>
-      <c r="D180" s="12">
+      <c r="D180" s="10">
         <v>61.5259</v>
       </c>
-      <c r="E180" s="12">
+      <c r="E180" s="10">
         <v>73.255279999999999</v>
       </c>
-      <c r="F180" s="12">
+      <c r="F180" s="10">
         <v>69.417659999999998</v>
       </c>
       <c r="G180">
@@ -15087,19 +15085,19 @@
       <c r="A181" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B181" s="12">
+      <c r="B181" s="10">
         <v>63.124099999999999</v>
       </c>
-      <c r="C181" s="12">
+      <c r="C181" s="10">
         <v>63.284109999999998</v>
       </c>
-      <c r="D181" s="12">
+      <c r="D181" s="10">
         <v>60.841459999999998</v>
       </c>
-      <c r="E181" s="12">
+      <c r="E181" s="10">
         <v>72.779889999999995</v>
       </c>
-      <c r="F181" s="12">
+      <c r="F181" s="10">
         <v>68.519480000000001</v>
       </c>
       <c r="G181">
@@ -15110,19 +15108,19 @@
       <c r="A182" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B182" s="12">
+      <c r="B182" s="10">
         <v>63.18694</v>
       </c>
-      <c r="C182" s="12">
+      <c r="C182" s="10">
         <v>63.346960000000003</v>
       </c>
-      <c r="D182" s="12">
+      <c r="D182" s="10">
         <v>60.527880000000003</v>
       </c>
-      <c r="E182" s="12">
+      <c r="E182" s="10">
         <v>72.146129999999999</v>
       </c>
-      <c r="F182" s="12">
+      <c r="F182" s="10">
         <v>68.032229999999998</v>
       </c>
     </row>
@@ -15130,19 +15128,19 @@
       <c r="A183" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B183" s="12">
+      <c r="B183" s="10">
         <v>63.313519999999997</v>
       </c>
-      <c r="C183" s="12">
+      <c r="C183" s="10">
         <v>63.473640000000003</v>
       </c>
-      <c r="D183" s="12">
+      <c r="D183" s="10">
         <v>60.275230000000001</v>
       </c>
-      <c r="E183" s="12">
+      <c r="E183" s="10">
         <v>71.589479999999995</v>
       </c>
-      <c r="F183" s="12">
+      <c r="F183" s="10">
         <v>68.006330000000005</v>
       </c>
     </row>
@@ -15150,19 +15148,19 @@
       <c r="A184" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B184" s="12">
+      <c r="B184" s="10">
         <v>63.50356</v>
       </c>
-      <c r="C184" s="12">
+      <c r="C184" s="10">
         <v>63.66386</v>
       </c>
-      <c r="D184" s="12">
+      <c r="D184" s="10">
         <v>60.083030000000001</v>
       </c>
-      <c r="E184" s="12">
+      <c r="E184" s="10">
         <v>71.108720000000005</v>
       </c>
-      <c r="F184" s="12">
+      <c r="F184" s="10">
         <v>68.068539999999999</v>
       </c>
     </row>
@@ -15170,19 +15168,19 @@
       <c r="A185" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B185" s="12">
+      <c r="B185" s="10">
         <v>63.821159999999999</v>
       </c>
-      <c r="C185" s="12">
+      <c r="C185" s="10">
         <v>63.981740000000002</v>
       </c>
-      <c r="D185" s="12">
+      <c r="D185" s="10">
         <v>60.070300000000003</v>
       </c>
-      <c r="E185" s="12">
+      <c r="E185" s="10">
         <v>70.771529999999998</v>
       </c>
-      <c r="F185" s="12">
+      <c r="F185" s="10">
         <v>68.264089999999996</v>
       </c>
     </row>
@@ -15190,19 +15188,19 @@
       <c r="A186" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B186" s="12">
+      <c r="B186" s="10">
         <v>64.204179999999994</v>
       </c>
-      <c r="C186" s="12">
+      <c r="C186" s="10">
         <v>64.365340000000003</v>
       </c>
-      <c r="D186" s="12">
+      <c r="D186" s="10">
         <v>60.17615</v>
       </c>
-      <c r="E186" s="12">
+      <c r="E186" s="10">
         <v>70.575940000000003</v>
       </c>
-      <c r="F186" s="12">
+      <c r="F186" s="10">
         <v>68.521259999999998</v>
       </c>
     </row>
@@ -15210,19 +15208,19 @@
       <c r="A187" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B187" s="12">
+      <c r="B187" s="10">
         <v>64.589380000000006</v>
       </c>
-      <c r="C187" s="12">
+      <c r="C187" s="10">
         <v>64.751270000000005</v>
       </c>
-      <c r="D187" s="12">
+      <c r="D187" s="10">
         <v>60.317749999999997</v>
       </c>
-      <c r="E187" s="12">
+      <c r="E187" s="10">
         <v>70.450969999999998</v>
       </c>
-      <c r="F187" s="12">
+      <c r="F187" s="10">
         <v>68.896000000000001</v>
       </c>
     </row>
@@ -15230,19 +15228,19 @@
       <c r="A188" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B188" s="12">
+      <c r="B188" s="10">
         <v>64.976969999999994</v>
       </c>
-      <c r="C188" s="12">
+      <c r="C188" s="10">
         <v>65.139399999999995</v>
       </c>
-      <c r="D188" s="12">
+      <c r="D188" s="10">
         <v>60.459180000000003</v>
       </c>
-      <c r="E188" s="12">
+      <c r="E188" s="10">
         <v>70.368499999999997</v>
       </c>
-      <c r="F188" s="12">
+      <c r="F188" s="10">
         <v>69.276229999999998</v>
       </c>
     </row>
@@ -15250,19 +15248,19 @@
       <c r="A189" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B189" s="12">
+      <c r="B189" s="10">
         <v>65.366730000000004</v>
       </c>
-      <c r="C189" s="12">
+      <c r="C189" s="10">
         <v>65.53004</v>
       </c>
-      <c r="D189" s="12">
+      <c r="D189" s="10">
         <v>60.599989999999998</v>
       </c>
-      <c r="E189" s="12">
+      <c r="E189" s="10">
         <v>70.286289999999994</v>
       </c>
-      <c r="F189" s="12">
+      <c r="F189" s="10">
         <v>69.657200000000003</v>
       </c>
     </row>
@@ -15270,7 +15268,7 @@
       <c r="A190" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B190" s="12">
+      <c r="B190" s="10">
         <v>65.75891</v>
       </c>
     </row>
@@ -15278,7 +15276,7 @@
       <c r="A191" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B191" s="12">
+      <c r="B191" s="10">
         <v>66.153559999999999</v>
       </c>
     </row>
@@ -15286,7 +15284,7 @@
       <c r="A192" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B192" s="12">
+      <c r="B192" s="10">
         <v>66.550489999999996</v>
       </c>
     </row>
@@ -15294,7 +15292,7 @@
       <c r="A193" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B193" s="12">
+      <c r="B193" s="10">
         <v>66.950040000000001</v>
       </c>
     </row>
@@ -15302,7 +15300,7 @@
       <c r="A194" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="B194" s="12">
+      <c r="B194" s="10">
         <v>67.351780000000005</v>
       </c>
     </row>
@@ -15310,7 +15308,7 @@
       <c r="A195" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B195" s="12">
+      <c r="B195" s="10">
         <v>67.755979999999994</v>
       </c>
     </row>
@@ -15318,7 +15316,7 @@
       <c r="A196" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B196" s="12">
+      <c r="B196" s="10">
         <v>68.162480000000002</v>
       </c>
     </row>
@@ -15326,7 +15324,7 @@
       <c r="A197" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="B197" s="12">
+      <c r="B197" s="10">
         <v>68.571529999999996</v>
       </c>
     </row>
@@ -15334,7 +15332,7 @@
       <c r="A198" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B198" s="12">
+      <c r="B198" s="10">
         <v>68.983000000000004</v>
       </c>
     </row>
@@ -15342,7 +15340,7 @@
       <c r="A199" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B199" s="12">
+      <c r="B199" s="10">
         <v>69.396780000000007</v>
       </c>
     </row>
@@ -15350,7 +15348,7 @@
       <c r="A200" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B200" s="12">
+      <c r="B200" s="10">
         <v>69.813050000000004</v>
       </c>
     </row>
@@ -15358,7 +15356,7 @@
       <c r="A201" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B201" s="12">
+      <c r="B201" s="10">
         <v>70.231830000000002</v>
       </c>
     </row>
@@ -15366,7 +15364,7 @@
       <c r="A202" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="B202" s="12">
+      <c r="B202" s="10">
         <v>70.653080000000003</v>
       </c>
     </row>
@@ -15374,7 +15372,7 @@
       <c r="A203" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B203" s="12">
+      <c r="B203" s="10">
         <v>71.076999999999998</v>
       </c>
     </row>
@@ -15382,7 +15380,7 @@
       <c r="A204" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B204" s="12">
+      <c r="B204" s="10">
         <v>71.503429999999994</v>
       </c>
     </row>
@@ -15390,7 +15388,7 @@
       <c r="A205" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="B205" s="12">
+      <c r="B205" s="10">
         <v>71.932590000000005</v>
       </c>
     </row>
@@ -15404,8 +15402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8405955-763D-4064-9732-FE6F2B26F855}">
   <dimension ref="A1:C189"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F192" sqref="F192"/>
+    <sheetView topLeftCell="A151" workbookViewId="0">
+      <selection sqref="A1:C189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18440,6 +18438,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010072F9387A9CEAC24DA659C20634E92B53" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9625e5ca472deb5945f7e45b29a5b4b0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3ce1adc9-595d-4b6e-94c7-d592be107ef0" xmlns:ns3="d66cf783-2e90-4651-8632-adfaa1cef5ce" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fd5e1b0a1fe90b62e38e6b0ce72bb6f5" ns2:_="" ns3:_="">
     <xsd:import namespace="3ce1adc9-595d-4b6e-94c7-d592be107ef0"/>
@@ -18662,22 +18675,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAF27B42-6CA6-4285-93CF-3AB54D640074}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7C017CB-1CB6-4F96-826E-D4B5469C524F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A744D15-1889-49F0-95BE-91E59F0E4E74}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18694,21 +18709,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7C017CB-1CB6-4F96-826E-D4B5469C524F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAF27B42-6CA6-4285-93CF-3AB54D640074}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>